--- a/data/Antenna/BoresightGainData1Step.xlsx
+++ b/data/Antenna/BoresightGainData1Step.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="4">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>Frequency (GHz)</t>
+  </si>
+  <si>
+    <t>S21 (dB)</t>
   </si>
 </sst>
 </file>
@@ -67,4830 +70,6637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:C602"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="true"/>
-    <col min="2" max="2" width="16.88671875" customWidth="true"/>
+    <col min="1" max="1" width="13.36328125" customWidth="true"/>
+    <col min="2" max="2" width="17.36328125" customWidth="true"/>
+    <col min="3" max="3" width="12.08984375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>1000000000</v>
       </c>
       <c r="B2" s="0">
         <v>-1.1181780750234505</v>
       </c>
+      <c r="C2" s="0">
+        <v>-66.286017417402206</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.0049999999999999</v>
+        <v>1005000000</v>
       </c>
       <c r="B3" s="0">
         <v>-1.3788216028787512</v>
       </c>
+      <c r="C3" s="0">
+        <v>-67.415233999083725</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.01</v>
+        <v>1010000000</v>
       </c>
       <c r="B4" s="0">
         <v>-1.3415067184298968</v>
       </c>
+      <c r="C4" s="0">
+        <v>-67.352186942333702</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.0149999999999999</v>
+        <v>1015000000</v>
       </c>
       <c r="B5" s="0">
         <v>-1.8031691273213692</v>
       </c>
+      <c r="C5" s="0">
+        <v>-69.284623316563156</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1.02</v>
+        <v>1020000000</v>
       </c>
       <c r="B6" s="0">
         <v>-1.8779039953837535</v>
       </c>
+      <c r="C6" s="0">
+        <v>-69.668927969320123</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1.0249999999999999</v>
+        <v>1025000000</v>
       </c>
       <c r="B7" s="0">
         <v>-1.9577408272810293</v>
       </c>
+      <c r="C7" s="0">
+        <v>-70.07322304210345</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1.03</v>
+        <v>1030000000</v>
       </c>
       <c r="B8" s="0">
         <v>-1.6774316028283187</v>
       </c>
+      <c r="C8" s="0">
+        <v>-69.036520516828574</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1.0349999999999999</v>
+        <v>1035000000</v>
       </c>
       <c r="B9" s="0">
         <v>-2.7414599109797004</v>
       </c>
+      <c r="C9" s="0">
+        <v>-73.376758752944667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1.04</v>
+        <v>1040000000</v>
       </c>
       <c r="B10" s="0">
         <v>-2.8756695337372244</v>
       </c>
+      <c r="C10" s="0">
+        <v>-73.997316824208525</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1.0449999999999999</v>
+        <v>1045000000</v>
       </c>
       <c r="B11" s="0">
         <v>-2.393935062301916</v>
       </c>
+      <c r="C11" s="0">
+        <v>-72.153696984398991</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1.05</v>
+        <v>1050000000</v>
       </c>
       <c r="B12" s="0">
         <v>-1.7743167881764232</v>
       </c>
+      <c r="C12" s="0">
+        <v>-69.758144232811631</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1.0549999999999999</v>
+        <v>1055000000</v>
       </c>
       <c r="B13" s="0">
         <v>-0.42233647719147227</v>
       </c>
+      <c r="C13" s="0">
+        <v>-64.432749411422762</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1.0600000000000001</v>
+        <v>1060000000</v>
       </c>
       <c r="B14" s="0">
         <v>-1.2073955178339166</v>
       </c>
+      <c r="C14" s="0">
+        <v>-67.655121799234891</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1.0649999999999999</v>
+        <v>1065000000</v>
       </c>
       <c r="B15" s="0">
         <v>0.11607997036528102</v>
       </c>
+      <c r="C15" s="0">
+        <v>-62.442969546837546</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1.0700000000000001</v>
+        <v>1070000000</v>
       </c>
       <c r="B16" s="0">
         <v>-0.54936781768866894</v>
       </c>
+      <c r="C16" s="0">
+        <v>-65.186127495471467</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1.075</v>
+        <v>1075000000</v>
       </c>
       <c r="B17" s="0">
         <v>-1.4971757368883223</v>
       </c>
+      <c r="C17" s="0">
+        <v>-69.058346634926664</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1.0800000000000001</v>
+        <v>1080000000</v>
       </c>
       <c r="B18" s="0">
         <v>-1.8417386543320045</v>
       </c>
+      <c r="C18" s="0">
+        <v>-70.517209954114421</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1.085</v>
+        <v>1085000000</v>
       </c>
       <c r="B19" s="0">
         <v>-2.5309744595113881</v>
       </c>
+      <c r="C19" s="0">
+        <v>-73.354392482735889</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1.0900000000000001</v>
+        <v>1090000000</v>
       </c>
       <c r="B20" s="0">
         <v>-0.90737114232270444</v>
       </c>
+      <c r="C20" s="0">
+        <v>-66.939849604224179</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1.095</v>
+        <v>1095000000</v>
       </c>
       <c r="B21" s="0">
         <v>-0.28469164500412736</v>
       </c>
+      <c r="C21" s="0">
+        <v>-64.528636464370408</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1.1000000000000001</v>
+        <v>1100000000</v>
       </c>
       <c r="B22" s="0">
         <v>-0.72335738622808976</v>
       </c>
+      <c r="C22" s="0">
+        <v>-66.362442068549768</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1.105</v>
+        <v>1105000000</v>
       </c>
       <c r="B23" s="0">
         <v>-0.43221010337968224</v>
       </c>
+      <c r="C23" s="0">
+        <v>-65.27663665167232</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>1.1100000000000001</v>
+        <v>1110000000</v>
       </c>
       <c r="B24" s="0">
         <v>0.12850780256012517</v>
       </c>
+      <c r="C24" s="0">
+        <v>-63.112193058534203</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1.115</v>
+        <v>1115000000</v>
       </c>
       <c r="B25" s="0">
         <v>-0.31155627099286887</v>
       </c>
+      <c r="C25" s="0">
+        <v>-64.950524896647067</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1.1200000000000001</v>
+        <v>1120000000</v>
       </c>
       <c r="B26" s="0">
         <v>-0.27027456652791709</v>
       </c>
+      <c r="C26" s="0">
+        <v>-64.863124290227347</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1.125</v>
+        <v>1125000000</v>
       </c>
       <c r="B27" s="0">
         <v>-1.0637692050092762</v>
       </c>
+      <c r="C27" s="0">
+        <v>-68.114482835240764</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1.1299999999999999</v>
+        <v>1130000000</v>
       </c>
       <c r="B28" s="0">
         <v>-1.0580115812011501</v>
       </c>
+      <c r="C28" s="0">
+        <v>-68.1684891814498</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1.135</v>
+        <v>1135000000</v>
       </c>
       <c r="B29" s="0">
         <v>-2.66091976397075</v>
       </c>
+      <c r="C29" s="0">
+        <v>-74.656818634357066</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1.1399999999999999</v>
+        <v>1140000000</v>
       </c>
       <c r="B30" s="0">
         <v>-2.9024338016978284</v>
       </c>
+      <c r="C30" s="0">
+        <v>-75.699234377558625</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1.145</v>
+        <v>1145000000</v>
       </c>
       <c r="B31" s="0">
         <v>-0.37143664954223687</v>
       </c>
+      <c r="C31" s="0">
+        <v>-65.651271182513625</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1.1499999999999999</v>
+        <v>1150000000</v>
       </c>
       <c r="B32" s="0">
         <v>0.15521898345223761</v>
       </c>
+      <c r="C32" s="0">
+        <v>-63.620342797643929</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1.155</v>
+        <v>1155000000</v>
       </c>
       <c r="B33" s="0">
         <v>0.98469119321746901</v>
       </c>
+      <c r="C33" s="0">
+        <v>-60.37781971356506</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1.1599999999999999</v>
+        <v>1160000000</v>
       </c>
       <c r="B34" s="0">
         <v>1.0029409663690005</v>
       </c>
+      <c r="C34" s="0">
+        <v>-60.379860820909144</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1.165</v>
+        <v>1165000000</v>
       </c>
       <c r="B35" s="0">
         <v>1.1455418655087657</v>
       </c>
+      <c r="C35" s="0">
+        <v>-59.884174669754856</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1.1699999999999999</v>
+        <v>1170000000</v>
       </c>
       <c r="B36" s="0">
         <v>1.0336993235308856</v>
       </c>
+      <c r="C36" s="0">
+        <v>-60.40594229303133</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1.175</v>
+        <v>1175000000</v>
       </c>
       <c r="B37" s="0">
         <v>0.47499741015607172</v>
       </c>
+      <c r="C37" s="0">
+        <v>-62.714830140994323</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1.1799999999999999</v>
+        <v>1180000000</v>
       </c>
       <c r="B38" s="0">
         <v>0.41059671562436673</v>
       </c>
+      <c r="C38" s="0">
+        <v>-63.046198547055958</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1.1850000000000001</v>
+        <v>1185000000</v>
       </c>
       <c r="B39" s="0">
         <v>0.30023971739322663</v>
       </c>
+      <c r="C39" s="0">
+        <v>-63.561080261580408</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1.1899999999999999</v>
+        <v>1190000000</v>
       </c>
       <c r="B40" s="0">
         <v>-0.13833120307539926</v>
       </c>
+      <c r="C40" s="0">
+        <v>-65.388508385311241</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.1950000000000001</v>
+        <v>1195000000</v>
       </c>
       <c r="B41" s="0">
         <v>0.30354228074982692</v>
       </c>
+      <c r="C41" s="0">
+        <v>-63.693852205675363</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.2</v>
+        <v>1200000000</v>
       </c>
       <c r="B42" s="0">
         <v>0.7949509150205667</v>
       </c>
+      <c r="C42" s="0">
+        <v>-61.800751299131136</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1.2050000000000001</v>
+        <v>1205000000</v>
       </c>
       <c r="B43" s="0">
         <v>0.28216920539372392</v>
       </c>
+      <c r="C43" s="0">
+        <v>-63.924110172169001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1.21</v>
+        <v>1210000000</v>
       </c>
       <c r="B44" s="0">
         <v>0.10014249416230114</v>
       </c>
+      <c r="C44" s="0">
+        <v>-64.724149953317209</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1.2150000000000001</v>
+        <v>1215000000</v>
       </c>
       <c r="B45" s="0">
         <v>-1.0145461721634801</v>
       </c>
+      <c r="C45" s="0">
+        <v>-69.254540923335568</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1.22</v>
+        <v>1220000000</v>
       </c>
       <c r="B46" s="0">
         <v>-1.128790702057574</v>
       </c>
+      <c r="C46" s="0">
+        <v>-69.782861152528639</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1.2250000000000001</v>
+        <v>1225000000</v>
       </c>
       <c r="B47" s="0">
         <v>-0.37684534168265865</v>
       </c>
+      <c r="C47" s="0">
+        <v>-66.846130032061097</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1.23</v>
+        <v>1230000000</v>
       </c>
       <c r="B48" s="0">
         <v>1.7001364752478727</v>
       </c>
+      <c r="C48" s="0">
+        <v>-58.608963673892838</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1.2350000000000001</v>
+        <v>1235000000</v>
       </c>
       <c r="B49" s="0">
         <v>2.412599242642544</v>
       </c>
+      <c r="C49" s="0">
+        <v>-55.829586450565614</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.24</v>
+        <v>1240000000</v>
       </c>
       <c r="B50" s="0">
         <v>3.1256183583249926</v>
       </c>
+      <c r="C50" s="0">
+        <v>-53.047699090497844</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1.2450000000000001</v>
+        <v>1245000000</v>
       </c>
       <c r="B51" s="0">
         <v>3.3842016287147221</v>
       </c>
+      <c r="C51" s="0">
+        <v>-52.083272659719732</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1.25</v>
+        <v>1250000000</v>
       </c>
       <c r="B52" s="0">
         <v>3.6120814415737534</v>
       </c>
+      <c r="C52" s="0">
+        <v>-51.241379871335653</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1.2549999999999999</v>
+        <v>1255000000</v>
       </c>
       <c r="B53" s="0">
         <v>3.6955743869278668</v>
       </c>
+      <c r="C53" s="0">
+        <v>-50.976756602279217</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1.26</v>
+        <v>1260000000</v>
       </c>
       <c r="B54" s="0">
         <v>3.6711444419148709</v>
       </c>
+      <c r="C54" s="0">
+        <v>-51.14354915435144</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1.2649999999999999</v>
+        <v>1265000000</v>
       </c>
       <c r="B55" s="0">
         <v>3.4220744808844055</v>
       </c>
+      <c r="C55" s="0">
+        <v>-52.208628214244257</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1.27</v>
+        <v>1270000000</v>
       </c>
       <c r="B56" s="0">
         <v>3.2274562805788518</v>
       </c>
+      <c r="C56" s="0">
+        <v>-53.055628833231275</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1.2749999999999999</v>
+        <v>1275000000</v>
       </c>
       <c r="B57" s="0">
         <v>2.6469596835636922</v>
       </c>
+      <c r="C57" s="0">
+        <v>-55.445873773852597</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1.28</v>
+        <v>1280000000</v>
       </c>
       <c r="B58" s="0">
         <v>2.3660582868602851</v>
       </c>
+      <c r="C58" s="0">
+        <v>-56.637470755782005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1.2849999999999999</v>
+        <v>1285000000</v>
       </c>
       <c r="B59" s="0">
         <v>2.6640539120316413</v>
       </c>
+      <c r="C59" s="0">
+        <v>-55.513214575874379</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1.29</v>
+        <v>1290000000</v>
       </c>
       <c r="B60" s="0">
         <v>3.0915607878155922</v>
       </c>
+      <c r="C60" s="0">
+        <v>-53.870650378015995</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1.2949999999999999</v>
+        <v>1295000000</v>
       </c>
       <c r="B61" s="0">
         <v>3.4342008597208977</v>
       </c>
+      <c r="C61" s="0">
+        <v>-52.567292415115645</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1.3</v>
+        <v>1300000000</v>
       </c>
       <c r="B62" s="0">
         <v>3.5567979400039311</v>
       </c>
+      <c r="C62" s="0">
+        <v>-52.143847449566152</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1.3049999999999999</v>
+        <v>1305000000</v>
       </c>
       <c r="B63" s="0">
         <v>3.7325043075384201</v>
       </c>
+      <c r="C63" s="0">
+        <v>-51.50770835412672</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1.3100000000000001</v>
+        <v>1310000000</v>
       </c>
       <c r="B64" s="0">
         <v>3.8568995504729724</v>
       </c>
+      <c r="C64" s="0">
+        <v>-51.076558741647091</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1.3149999999999999</v>
+        <v>1315000000</v>
       </c>
       <c r="B65" s="0">
         <v>3.917740126000004</v>
       </c>
+      <c r="C65" s="0">
+        <v>-50.89937472633946</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1.3200000000000001</v>
+        <v>1320000000</v>
       </c>
       <c r="B66" s="0">
         <v>3.71808672983697</v>
       </c>
+      <c r="C66" s="0">
+        <v>-51.763915446194524</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1.325</v>
+        <v>1325000000</v>
       </c>
       <c r="B67" s="0">
         <v>3.3821032050707083</v>
       </c>
+      <c r="C67" s="0">
+        <v>-53.173527427938645</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1.3300000000000001</v>
+        <v>1330000000</v>
       </c>
       <c r="B68" s="0">
         <v>2.8747145949793267</v>
       </c>
+      <c r="C68" s="0">
+        <v>-55.268512376074533</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>1.335</v>
+        <v>1335000000</v>
       </c>
       <c r="B69" s="0">
         <v>1.8346506713368984</v>
       </c>
+      <c r="C69" s="0">
+        <v>-59.493953059984577</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>1.3400000000000001</v>
+        <v>1340000000</v>
       </c>
       <c r="B70" s="0">
         <v>0.14291050442433978</v>
       </c>
+      <c r="C70" s="0">
+        <v>-66.325855034203357</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>1.345</v>
+        <v>1345000000</v>
       </c>
       <c r="B71" s="0">
         <v>0.59764328918447784</v>
       </c>
+      <c r="C71" s="0">
+        <v>-64.571623334107571</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>1.3500000000000001</v>
+        <v>1350000000</v>
       </c>
       <c r="B72" s="0">
         <v>1.6888454971971516</v>
       </c>
+      <c r="C72" s="0">
+        <v>-60.271273868320051</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1.355</v>
+        <v>1355000000</v>
       </c>
       <c r="B73" s="0">
         <v>2.0978147933300351</v>
       </c>
+      <c r="C73" s="0">
+        <v>-58.699617752405253</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1.3600000000000001</v>
+        <v>1360000000</v>
       </c>
       <c r="B74" s="0">
         <v>2.2083825032264572</v>
       </c>
+      <c r="C74" s="0">
+        <v>-58.321331439211278</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>1.365</v>
+        <v>1365000000</v>
       </c>
       <c r="B75" s="0">
         <v>1.7727391161410264</v>
       </c>
+      <c r="C75" s="0">
+        <v>-60.127654707815303</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>1.3700000000000001</v>
+        <v>1370000000</v>
       </c>
       <c r="B76" s="0">
         <v>1.6506243240978857</v>
       </c>
+      <c r="C76" s="0">
+        <v>-60.679630507173137</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>1.375</v>
+        <v>1375000000</v>
       </c>
       <c r="B77" s="0">
         <v>2.9174063781975397</v>
       </c>
+      <c r="C77" s="0">
+        <v>-55.675787531169512</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1.3799999999999999</v>
+        <v>1380000000</v>
       </c>
       <c r="B78" s="0">
         <v>3.4389545604430412</v>
       </c>
+      <c r="C78" s="0">
+        <v>-53.652650331585711</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1.385</v>
+        <v>1385000000</v>
       </c>
       <c r="B79" s="0">
         <v>4.0247281564558461</v>
       </c>
+      <c r="C79" s="0">
+        <v>-51.372383427503721</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>1.3899999999999999</v>
+        <v>1390000000</v>
       </c>
       <c r="B80" s="0">
         <v>4.4019563748655051</v>
       </c>
+      <c r="C80" s="0">
+        <v>-49.926071628010192</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>1.395</v>
+        <v>1395000000</v>
       </c>
       <c r="B81" s="0">
         <v>4.4932773352974085</v>
       </c>
+      <c r="C81" s="0">
+        <v>-49.623164080503429</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>1.3999999999999999</v>
+        <v>1400000000</v>
       </c>
       <c r="B82" s="0">
         <v>4.5342876256463347</v>
       </c>
+      <c r="C82" s="0">
+        <v>-49.521276041852587</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1.405</v>
+        <v>1405000000</v>
       </c>
       <c r="B83" s="0">
         <v>4.5113534582538879</v>
       </c>
+      <c r="C83" s="0">
+        <v>-49.674944253936808</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>1.4099999999999999</v>
+        <v>1410000000</v>
       </c>
       <c r="B84" s="0">
         <v>3.7242231218817761</v>
       </c>
+      <c r="C84" s="0">
+        <v>-52.8851771359965</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>1.415</v>
+        <v>1415000000</v>
       </c>
       <c r="B85" s="0">
         <v>2.9191413620069104</v>
       </c>
+      <c r="C85" s="0">
+        <v>-56.166997263693126</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>1.4199999999999999</v>
+        <v>1420000000</v>
       </c>
       <c r="B86" s="0">
         <v>2.2024160699462207</v>
       </c>
+      <c r="C86" s="0">
+        <v>-59.095174612845788</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>1.425</v>
+        <v>1425000000</v>
       </c>
       <c r="B87" s="0">
         <v>3.154623067180593</v>
       </c>
+      <c r="C87" s="0">
+        <v>-55.347407422367198</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>1.4299999999999999</v>
+        <v>1430000000</v>
       </c>
       <c r="B88" s="0">
         <v>4.1356778596240691</v>
       </c>
+      <c r="C88" s="0">
+        <v>-51.484035177414604</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>1.4350000000000001</v>
+        <v>1435000000</v>
       </c>
       <c r="B89" s="0">
         <v>4.9109241025852519</v>
       </c>
+      <c r="C89" s="0">
+        <v>-48.44368474976784</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1.4399999999999999</v>
+        <v>1440000000</v>
       </c>
       <c r="B90" s="0">
         <v>5.3982444448147779</v>
       </c>
+      <c r="C90" s="0">
+        <v>-46.554827021859282</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>1.4450000000000001</v>
+        <v>1445000000</v>
       </c>
       <c r="B91" s="0">
         <v>5.7435886052532137</v>
       </c>
+      <c r="C91" s="0">
+        <v>-45.233664579998219</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>1.45</v>
+        <v>1450000000</v>
       </c>
       <c r="B92" s="0">
         <v>5.7721133655826184</v>
       </c>
+      <c r="C92" s="0">
+        <v>-45.179571744376929</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>1.4550000000000001</v>
+        <v>1455000000</v>
       </c>
       <c r="B93" s="0">
         <v>5.8541306280424639</v>
       </c>
+      <c r="C93" s="0">
+        <v>-44.911302338015595</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>1.46</v>
+        <v>1460000000</v>
       </c>
       <c r="B94" s="0">
         <v>5.6579981476097778</v>
       </c>
+      <c r="C94" s="0">
+        <v>-45.755426758246784</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>1.4650000000000001</v>
+        <v>1465000000</v>
       </c>
       <c r="B95" s="0">
         <v>5.3908889148516659</v>
       </c>
+      <c r="C95" s="0">
+        <v>-46.883254445506878</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>1.47</v>
+        <v>1470000000</v>
       </c>
       <c r="B96" s="0">
         <v>5.02845868892115</v>
       </c>
+      <c r="C96" s="0">
+        <v>-48.392163751550854</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>1.4750000000000001</v>
+        <v>1475000000</v>
       </c>
       <c r="B97" s="0">
         <v>4.4431978613092502</v>
       </c>
+      <c r="C97" s="0">
+        <v>-50.792194484638678</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>1.48</v>
+        <v>1480000000</v>
       </c>
       <c r="B98" s="0">
         <v>4.0131819862375959</v>
       </c>
+      <c r="C98" s="0">
+        <v>-52.571045788156319</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>1.4850000000000001</v>
+        <v>1485000000</v>
       </c>
       <c r="B99" s="0">
         <v>2.7210159421336706</v>
       </c>
+      <c r="C99" s="0">
+        <v>-57.798299494902977</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>1.49</v>
+        <v>1490000000</v>
       </c>
       <c r="B100" s="0">
         <v>3.0841054264254608</v>
       </c>
+      <c r="C100" s="0">
+        <v>-56.404334148097526</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>1.4950000000000001</v>
+        <v>1495000000</v>
       </c>
       <c r="B101" s="0">
         <v>3.625474550361429</v>
       </c>
+      <c r="C101" s="0">
+        <v>-54.297054622280633</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1.5</v>
+        <v>1500000000</v>
       </c>
       <c r="B102" s="0">
         <v>3.8891865156086198</v>
       </c>
+      <c r="C102" s="0">
+        <v>-53.300209417101179</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>1.5049999999999999</v>
+        <v>1505000000</v>
       </c>
       <c r="B103" s="0">
         <v>3.7504024697984848</v>
       </c>
+      <c r="C103" s="0">
+        <v>-53.913155235308956</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>1.51</v>
+        <v>1510000000</v>
       </c>
       <c r="B104" s="0">
         <v>3.4853284514456444</v>
       </c>
+      <c r="C104" s="0">
+        <v>-55.031069203252613</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>1.5149999999999999</v>
+        <v>1515000000</v>
       </c>
       <c r="B105" s="0">
         <v>3.3310128570490924</v>
       </c>
+      <c r="C105" s="0">
+        <v>-55.705759002644996</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>1.52</v>
+        <v>1520000000</v>
       </c>
       <c r="B106" s="0">
         <v>3.6744068997631558</v>
       </c>
+      <c r="C106" s="0">
+        <v>-54.389421036046684</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>1.5249999999999999</v>
+        <v>1525000000</v>
       </c>
       <c r="B107" s="0">
         <v>4.2803833414393662</v>
       </c>
+      <c r="C107" s="0">
+        <v>-52.022565498863131</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>1.53</v>
+        <v>1530000000</v>
       </c>
       <c r="B108" s="0">
         <v>4.7514861296509814</v>
       </c>
+      <c r="C108" s="0">
+        <v>-50.195017831408435</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1.5349999999999999</v>
+        <v>1535000000</v>
       </c>
       <c r="B109" s="0">
         <v>4.9085618953870434</v>
       </c>
+      <c r="C109" s="0">
+        <v>-49.623392728288451</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>1.54</v>
+        <v>1540000000</v>
       </c>
       <c r="B110" s="0">
         <v>5.1148792927734368</v>
       </c>
+      <c r="C110" s="0">
+        <v>-48.854616779673194</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1.5449999999999999</v>
+        <v>1545000000</v>
       </c>
       <c r="B111" s="0">
         <v>5.1004051180263046</v>
       </c>
+      <c r="C111" s="0">
+        <v>-48.968823995637329</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>1.55</v>
+        <v>1550000000</v>
       </c>
       <c r="B112" s="0">
         <v>4.9583949353991228</v>
       </c>
+      <c r="C112" s="0">
+        <v>-49.592993302523574</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1.5549999999999999</v>
+        <v>1555000000</v>
       </c>
       <c r="B113" s="0">
         <v>5.3081737325285969</v>
       </c>
+      <c r="C113" s="0">
+        <v>-48.249825921708272</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>1.5600000000000001</v>
+        <v>1560000000</v>
       </c>
       <c r="B114" s="0">
         <v>5.7546585947517848</v>
       </c>
+      <c r="C114" s="0">
+        <v>-46.519654672479732</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>1.5649999999999999</v>
+        <v>1565000000</v>
       </c>
       <c r="B115" s="0">
         <v>6.3357443668399052</v>
       </c>
+      <c r="C115" s="0">
+        <v>-44.250901325247483</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>1.5700000000000001</v>
+        <v>1570000000</v>
       </c>
       <c r="B116" s="0">
         <v>6.9598330780657669</v>
       </c>
+      <c r="C116" s="0">
+        <v>-41.809958901414689</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>1.575</v>
+        <v>1575000000</v>
       </c>
       <c r="B117" s="0">
         <v>7.2161108778249039</v>
       </c>
+      <c r="C117" s="0">
+        <v>-40.840083931033568</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>1.5800000000000001</v>
+        <v>1580000000</v>
       </c>
       <c r="B118" s="0">
         <v>7.348281980031615</v>
       </c>
+      <c r="C118" s="0">
+        <v>-40.366460675358852</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1.585</v>
+        <v>1585000000</v>
       </c>
       <c r="B119" s="0">
         <v>7.4260904993813925</v>
       </c>
+      <c r="C119" s="0">
+        <v>-40.110113781933656</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>1.5900000000000001</v>
+        <v>1590000000</v>
       </c>
       <c r="B120" s="0">
         <v>7.1937837154588369</v>
       </c>
+      <c r="C120" s="0">
+        <v>-41.094055228291126</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1.595</v>
+        <v>1595000000</v>
       </c>
       <c r="B121" s="0">
         <v>6.8980929080611251</v>
       </c>
+      <c r="C121" s="0">
+        <v>-42.331360980791899</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>1.6000000000000001</v>
+        <v>1600000000</v>
       </c>
       <c r="B122" s="0">
         <v>6.3288594622487482</v>
       </c>
+      <c r="C122" s="0">
+        <v>-44.662666574550407</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>1.605</v>
+        <v>1605000000</v>
       </c>
       <c r="B123" s="0">
         <v>5.416809349910511</v>
       </c>
+      <c r="C123" s="0">
+        <v>-48.365069187302005</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>1.6100000000000001</v>
+        <v>1610000000</v>
       </c>
       <c r="B124" s="0">
         <v>4.4413601006668602</v>
       </c>
+      <c r="C124" s="0">
+        <v>-52.320899755914958</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>1.615</v>
+        <v>1615000000</v>
       </c>
       <c r="B125" s="0">
         <v>3.7217248293833305</v>
       </c>
+      <c r="C125" s="0">
+        <v>-55.253306866459951</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>1.6200000000000001</v>
+        <v>1620000000</v>
       </c>
       <c r="B126" s="0">
         <v>4.2153360530525124</v>
       </c>
+      <c r="C126" s="0">
+        <v>-53.332561486803598</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>1.625</v>
+        <v>1625000000</v>
       </c>
       <c r="B127" s="0">
         <v>5.1053585170639959</v>
       </c>
+      <c r="C127" s="0">
+        <v>-49.826005661648153</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>1.6299999999999999</v>
+        <v>1630000000</v>
       </c>
       <c r="B128" s="0">
         <v>5.8747467002091458</v>
       </c>
+      <c r="C128" s="0">
+        <v>-46.801822492630137</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>1.635</v>
+        <v>1635000000</v>
       </c>
       <c r="B129" s="0">
         <v>6.4549764560834912</v>
       </c>
+      <c r="C129" s="0">
+        <v>-44.534109572826637</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>1.6399999999999999</v>
+        <v>1640000000</v>
       </c>
       <c r="B130" s="0">
         <v>6.7862186396770019</v>
       </c>
+      <c r="C130" s="0">
+        <v>-43.262184480508317</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>1.645</v>
+        <v>1645000000</v>
       </c>
       <c r="B131" s="0">
         <v>6.8254792942393117</v>
       </c>
+      <c r="C131" s="0">
+        <v>-43.158024031790887</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>1.6499999999999999</v>
+        <v>1650000000</v>
       </c>
       <c r="B132" s="0">
         <v>6.5907956361896041</v>
       </c>
+      <c r="C132" s="0">
+        <v>-44.149480341106241</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>1.655</v>
+        <v>1655000000</v>
       </c>
       <c r="B133" s="0">
         <v>5.7785874399989323</v>
       </c>
+      <c r="C133" s="0">
+        <v>-47.450875281782182</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>1.6599999999999999</v>
+        <v>1660000000</v>
       </c>
       <c r="B134" s="0">
         <v>4.5313187450172956</v>
       </c>
+      <c r="C134" s="0">
+        <v>-52.492353658841431</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>1.665</v>
+        <v>1665000000</v>
       </c>
       <c r="B135" s="0">
         <v>6.033564530665454</v>
       </c>
+      <c r="C135" s="0">
+        <v>-46.535616508340141</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>1.6699999999999999</v>
+        <v>1670000000</v>
       </c>
       <c r="B136" s="0">
         <v>7.3736415630595094</v>
       </c>
+      <c r="C136" s="0">
+        <v>-41.227397710973705</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>1.675</v>
+        <v>1675000000</v>
       </c>
       <c r="B137" s="0">
         <v>8.1709028570793159</v>
       </c>
+      <c r="C137" s="0">
+        <v>-38.090286143905708</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>1.6799999999999999</v>
+        <v>1680000000</v>
       </c>
       <c r="B138" s="0">
         <v>8.5792210622157192</v>
       </c>
+      <c r="C138" s="0">
+        <v>-36.508792137480043</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>1.6850000000000001</v>
+        <v>1685000000</v>
       </c>
       <c r="B139" s="0">
         <v>8.764673656125332</v>
       </c>
+      <c r="C139" s="0">
+        <v>-35.818606701101373</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>1.6899999999999999</v>
+        <v>1690000000</v>
       </c>
       <c r="B140" s="0">
         <v>8.9115675355283219</v>
       </c>
+      <c r="C140" s="0">
+        <v>-35.282503159742063</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>1.6950000000000001</v>
+        <v>1695000000</v>
       </c>
       <c r="B141" s="0">
         <v>8.9211313857033421</v>
       </c>
+      <c r="C141" s="0">
+        <v>-35.295567676059079</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>1.7</v>
+        <v>1700000000</v>
       </c>
       <c r="B142" s="0">
         <v>8.9264371900559354</v>
       </c>
+      <c r="C142" s="0">
+        <v>-35.325513212215618</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>1.7050000000000001</v>
+        <v>1705000000</v>
       </c>
       <c r="B143" s="0">
         <v>8.9897742341072888</v>
       </c>
+      <c r="C143" s="0">
+        <v>-35.123183514019921</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>1.71</v>
+        <v>1710000000</v>
       </c>
       <c r="B144" s="0">
         <v>8.9279352068218731</v>
       </c>
+      <c r="C144" s="0">
+        <v>-35.421408705707073</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>1.7150000000000001</v>
+        <v>1715000000</v>
       </c>
       <c r="B145" s="0">
         <v>8.9300688885732029</v>
       </c>
+      <c r="C145" s="0">
+        <v>-35.463594538167165</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>1.72</v>
+        <v>1720000000</v>
       </c>
       <c r="B146" s="0">
         <v>8.9374238655282703</v>
       </c>
+      <c r="C146" s="0">
+        <v>-35.484747531497284</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>1.7250000000000001</v>
+        <v>1725000000</v>
       </c>
       <c r="B147" s="0">
         <v>8.8817293840861904</v>
       </c>
+      <c r="C147" s="0">
+        <v>-35.757951557335367</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>1.73</v>
+        <v>1730000000</v>
       </c>
       <c r="B148" s="0">
         <v>8.9073370019203999</v>
       </c>
+      <c r="C148" s="0">
+        <v>-35.705801234778633</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>1.7350000000000001</v>
+        <v>1735000000</v>
       </c>
       <c r="B149" s="0">
         <v>8.8771066653764876</v>
       </c>
+      <c r="C149" s="0">
+        <v>-35.876857620878155</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>1.74</v>
+        <v>1740000000</v>
       </c>
       <c r="B150" s="0">
         <v>8.7964119988810552</v>
       </c>
+      <c r="C150" s="0">
+        <v>-36.249627053088176</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>1.7450000000000001</v>
+        <v>1745000000</v>
       </c>
       <c r="B151" s="0">
         <v>8.8027910266547806</v>
       </c>
+      <c r="C151" s="0">
+        <v>-36.273958262497231</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>1.75</v>
+        <v>1750000000</v>
       </c>
       <c r="B152" s="0">
         <v>8.7738182153775277</v>
       </c>
+      <c r="C152" s="0">
+        <v>-36.439554203250076</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>1.7549999999999999</v>
+        <v>1755000000</v>
       </c>
       <c r="B153" s="0">
         <v>8.7005425885805003</v>
       </c>
+      <c r="C153" s="0">
+        <v>-36.782219595060127</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>1.76</v>
+        <v>1760000000</v>
       </c>
       <c r="B154" s="0">
         <v>8.7229298028716151</v>
       </c>
+      <c r="C154" s="0">
+        <v>-36.742092618387943</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>1.7649999999999999</v>
+        <v>1765000000</v>
       </c>
       <c r="B155" s="0">
         <v>8.65985432418519</v>
       </c>
+      <c r="C155" s="0">
+        <v>-37.043676209521301</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>1.77</v>
+        <v>1770000000</v>
       </c>
       <c r="B156" s="0">
         <v>8.6083259644697456</v>
       </c>
+      <c r="C156" s="0">
+        <v>-37.298931913901697</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>1.7749999999999999</v>
+        <v>1775000000</v>
       </c>
       <c r="B157" s="0">
         <v>8.6140689330924829</v>
       </c>
+      <c r="C157" s="0">
+        <v>-37.324963680582997</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>1.78</v>
+        <v>1780000000</v>
       </c>
       <c r="B158" s="0">
         <v>8.5583964455769124</v>
       </c>
+      <c r="C158" s="0">
+        <v>-37.596519427356526</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>1.7849999999999999</v>
+        <v>1785000000</v>
       </c>
       <c r="B159" s="0">
         <v>8.5715571793360201</v>
       </c>
+      <c r="C159" s="0">
+        <v>-37.59260521789281</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>1.79</v>
+        <v>1790000000</v>
       </c>
       <c r="B160" s="0">
         <v>8.56294038183281</v>
       </c>
+      <c r="C160" s="0">
+        <v>-37.675664829172895</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>1.7949999999999999</v>
+        <v>1795000000</v>
       </c>
       <c r="B161" s="0">
         <v>8.5286169485720915</v>
       </c>
+      <c r="C161" s="0">
+        <v>-37.861415439593564</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>1.8</v>
+        <v>1800000000</v>
       </c>
       <c r="B162" s="0">
         <v>8.5238731958631515</v>
       </c>
+      <c r="C162" s="0">
+        <v>-37.928712537988048</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>1.8049999999999999</v>
+        <v>1805000000</v>
       </c>
       <c r="B163" s="0">
         <v>8.4628070610139297</v>
       </c>
+      <c r="C163" s="0">
+        <v>-38.221165122919764</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>1.8100000000000001</v>
+        <v>1810000000</v>
       </c>
       <c r="B164" s="0">
         <v>8.4155312682074133</v>
       </c>
+      <c r="C164" s="0">
+        <v>-38.458323039246139</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>1.8149999999999999</v>
+        <v>1815000000</v>
       </c>
       <c r="B165" s="0">
         <v>8.4682380364720284</v>
       </c>
+      <c r="C165" s="0">
+        <v>-38.295418146305551</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>1.8200000000000001</v>
+        <v>1820000000</v>
       </c>
       <c r="B166" s="0">
         <v>8.4016333093290942</v>
       </c>
+      <c r="C166" s="0">
+        <v>-38.609627399395023</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>1.825</v>
+        <v>1825000000</v>
       </c>
       <c r="B167" s="0">
         <v>8.4515666501554261</v>
       </c>
+      <c r="C167" s="0">
+        <v>-38.457553268386448</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>1.8300000000000001</v>
+        <v>1830000000</v>
       </c>
       <c r="B168" s="0">
         <v>8.3812063585295409</v>
       </c>
+      <c r="C168" s="0">
+        <v>-38.786523272407429</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>1.835</v>
+        <v>1835000000</v>
       </c>
       <c r="B169" s="0">
         <v>8.3422225773274157</v>
       </c>
+      <c r="C169" s="0">
+        <v>-38.989857551523073</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>1.8400000000000001</v>
+        <v>1840000000</v>
       </c>
       <c r="B170" s="0">
         <v>8.3494749437605513</v>
       </c>
+      <c r="C170" s="0">
+        <v>-39.00811826264767</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>1.845</v>
+        <v>1845000000</v>
       </c>
       <c r="B171" s="0">
         <v>8.3096434244851221</v>
       </c>
+      <c r="C171" s="0">
+        <v>-39.214586239171084</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>1.8500000000000001</v>
+        <v>1850000000</v>
       </c>
       <c r="B172" s="0">
         <v>8.236207040397435</v>
       </c>
+      <c r="C172" s="0">
+        <v>-39.555346091839226</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>1.855</v>
+        <v>1855000000</v>
       </c>
       <c r="B173" s="0">
         <v>8.2344518665498025</v>
       </c>
+      <c r="C173" s="0">
+        <v>-39.609254209151786</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>1.8600000000000001</v>
+        <v>1860000000</v>
       </c>
       <c r="B174" s="0">
         <v>8.1379146551444599</v>
       </c>
+      <c r="C174" s="0">
+        <v>-40.042164265447227</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>1.865</v>
+        <v>1865000000</v>
       </c>
       <c r="B175" s="0">
         <v>8.1330055845871261</v>
       </c>
+      <c r="C175" s="0">
+        <v>-40.108436224748161</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>1.8700000000000001</v>
+        <v>1870000000</v>
       </c>
       <c r="B176" s="0">
         <v>8.085045504777872</v>
       </c>
+      <c r="C176" s="0">
+        <v>-40.346787359656879</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>1.875</v>
+        <v>1875000000</v>
       </c>
       <c r="B177" s="0">
         <v>8.048458862817979</v>
       </c>
+      <c r="C177" s="0">
+        <v>-40.539520548585998</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>1.8799999999999999</v>
+        <v>1880000000</v>
       </c>
       <c r="B178" s="0">
         <v>8.0614673196156161</v>
       </c>
+      <c r="C178" s="0">
+        <v>-40.533749809393136</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>1.885</v>
+        <v>1885000000</v>
       </c>
       <c r="B179" s="0">
         <v>8.0278627360637476</v>
       </c>
+      <c r="C179" s="0">
+        <v>-40.714308354725887</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>1.8899999999999999</v>
+        <v>1890000000</v>
       </c>
       <c r="B180" s="0">
         <v>7.9857598312695686</v>
       </c>
+      <c r="C180" s="0">
+        <v>-40.928737959159903</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>1.895</v>
+        <v>1895000000</v>
       </c>
       <c r="B181" s="0">
         <v>8.0015121824280726</v>
       </c>
+      <c r="C181" s="0">
+        <v>-40.911624959759763</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>1.8999999999999999</v>
+        <v>1900000000</v>
       </c>
       <c r="B182" s="0">
         <v>7.9614460200892578</v>
       </c>
+      <c r="C182" s="0">
+        <v>-41.117665075064536</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>1.905</v>
+        <v>1905000000</v>
       </c>
       <c r="B183" s="0">
         <v>7.9898271796908187</v>
       </c>
+      <c r="C183" s="0">
+        <v>-41.049795599010665</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>1.9099999999999999</v>
+        <v>1910000000</v>
       </c>
       <c r="B184" s="0">
         <v>8.008575935583238</v>
       </c>
+      <c r="C184" s="0">
+        <v>-41.020336064884553</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>1.915</v>
+        <v>1915000000</v>
       </c>
       <c r="B185" s="0">
         <v>7.9345014684279196</v>
       </c>
+      <c r="C185" s="0">
+        <v>-41.362050375782395</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>1.9199999999999999</v>
+        <v>1920000000</v>
       </c>
       <c r="B186" s="0">
         <v>7.9508646957779643</v>
       </c>
+      <c r="C186" s="0">
+        <v>-41.341895482338543</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>1.925</v>
+        <v>1925000000</v>
       </c>
       <c r="B187" s="0">
         <v>7.9523172904023651</v>
       </c>
+      <c r="C187" s="0">
+        <v>-41.381265309479723</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>1.9299999999999999</v>
+        <v>1930000000</v>
       </c>
       <c r="B188" s="0">
         <v>7.9013605494956085</v>
       </c>
+      <c r="C188" s="0">
+        <v>-41.630155279636931</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>1.9350000000000001</v>
+        <v>1935000000</v>
       </c>
       <c r="B189" s="0">
         <v>7.9561376223310178</v>
       </c>
+      <c r="C189" s="0">
+        <v>-41.455993402181548</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>1.9399999999999999</v>
+        <v>1940000000</v>
       </c>
       <c r="B190" s="0">
         <v>8.0566774291442869</v>
       </c>
+      <c r="C190" s="0">
+        <v>-41.098664597940299</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>1.9450000000000001</v>
+        <v>1945000000</v>
       </c>
       <c r="B191" s="0">
         <v>7.9960705166285164</v>
       </c>
+      <c r="C191" s="0">
+        <v>-41.38580727726341</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>1.95</v>
+        <v>1950000000</v>
       </c>
       <c r="B192" s="0">
         <v>7.9991177237148019</v>
       </c>
+      <c r="C192" s="0">
+        <v>-41.418218676949927</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>1.9550000000000001</v>
+        <v>1955000000</v>
       </c>
       <c r="B193" s="0">
         <v>8.0492833129029311</v>
       </c>
+      <c r="C193" s="0">
+        <v>-41.262042334972108</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>1.96</v>
+        <v>1960000000</v>
       </c>
       <c r="B194" s="0">
         <v>8.0386227381855662</v>
       </c>
+      <c r="C194" s="0">
+        <v>-41.349057018825192</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>1.9650000000000001</v>
+        <v>1965000000</v>
       </c>
       <c r="B195" s="0">
         <v>8.0453667745447817</v>
       </c>
+      <c r="C195" s="0">
+        <v>-41.366340207587101</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>1.97</v>
+        <v>1970000000</v>
       </c>
       <c r="B196" s="0">
         <v>8.014221945082511</v>
       </c>
+      <c r="C196" s="0">
+        <v>-41.535066383442079</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>1.9750000000000001</v>
+        <v>1975000000</v>
       </c>
       <c r="B197" s="0">
         <v>8.0395054339009455</v>
       </c>
+      <c r="C197" s="0">
+        <v>-41.477967380203786</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>1.98</v>
+        <v>1980000000</v>
       </c>
       <c r="B198" s="0">
         <v>8.0958925593233122</v>
       </c>
+      <c r="C198" s="0">
+        <v>-41.296342490476405</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>1.9850000000000001</v>
+        <v>1985000000</v>
       </c>
       <c r="B199" s="0">
         <v>8.1229576641514392</v>
       </c>
+      <c r="C199" s="0">
+        <v>-41.231894904668003</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>1.99</v>
+        <v>1990000000</v>
       </c>
       <c r="B200" s="0">
         <v>8.2024387748354712</v>
       </c>
+      <c r="C200" s="0">
+        <v>-40.957673074354794</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>1.9950000000000001</v>
+        <v>1995000000</v>
       </c>
       <c r="B201" s="0">
         <v>8.1736043560182043</v>
       </c>
+      <c r="C201" s="0">
+        <v>-41.116603694146278</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>2</v>
+        <v>2000000000</v>
       </c>
       <c r="B202" s="0">
         <v>8.6982295154268403</v>
       </c>
+      <c r="C202" s="0">
+        <v>-39.061586882160299</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>2.0049999999999999</v>
+        <v>2005000000</v>
       </c>
       <c r="B203" s="0">
         <v>8.7150815885574691</v>
       </c>
+      <c r="C203" s="0">
+        <v>-39.037553841326577</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>2.0099999999999998</v>
+        <v>2010000000</v>
       </c>
       <c r="B204" s="0">
         <v>8.6192392143248124</v>
       </c>
+      <c r="C204" s="0">
+        <v>-39.464190556828719</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>2.0150000000000001</v>
+        <v>2015000000</v>
       </c>
       <c r="B205" s="0">
         <v>8.634639306322887</v>
       </c>
+      <c r="C205" s="0">
+        <v>-39.445749911101991</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>2.02</v>
+        <v>2020000000</v>
       </c>
       <c r="B206" s="0">
         <v>8.2227104085645344</v>
       </c>
+      <c r="C206" s="0">
+        <v>-41.136518260915224</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>2.0249999999999999</v>
+        <v>2025000000</v>
       </c>
       <c r="B207" s="0">
         <v>8.1766060993888505</v>
       </c>
+      <c r="C207" s="0">
+        <v>-41.36388182178051</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>2.0299999999999998</v>
+        <v>2030000000</v>
       </c>
       <c r="B208" s="0">
         <v>8.1727059553112031</v>
       </c>
+      <c r="C208" s="0">
+        <v>-41.422322812592114</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>2.0350000000000001</v>
+        <v>2035000000</v>
       </c>
       <c r="B209" s="0">
         <v>8.1681219096461515</v>
       </c>
+      <c r="C209" s="0">
+        <v>-41.48339402117336</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>2.04</v>
+        <v>2040000000</v>
       </c>
       <c r="B210" s="0">
         <v>8.1850177642720805</v>
       </c>
+      <c r="C210" s="0">
+        <v>-41.458440757256042</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>2.0449999999999999</v>
+        <v>2045000000</v>
       </c>
       <c r="B211" s="0">
         <v>8.2626489183081482</v>
       </c>
+      <c r="C211" s="0">
+        <v>-41.190441937810235</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>2.0499999999999998</v>
+        <v>2050000000</v>
       </c>
       <c r="B212" s="0">
         <v>8.2907962969026716</v>
       </c>
+      <c r="C212" s="0">
+        <v>-41.120274371927898</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>2.0550000000000002</v>
+        <v>2055000000</v>
       </c>
       <c r="B213" s="0">
         <v>8.2836994798562529</v>
       </c>
+      <c r="C213" s="0">
+        <v>-41.190980246366919</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>2.0600000000000001</v>
+        <v>2060000000</v>
       </c>
       <c r="B214" s="0">
         <v>8.3285289644884415</v>
       </c>
+      <c r="C214" s="0">
+        <v>-41.053878074120782</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>2.0649999999999999</v>
+        <v>2065000000</v>
       </c>
       <c r="B215" s="0">
         <v>8.2526500312008171</v>
       </c>
+      <c r="C215" s="0">
+        <v>-41.399507232201941</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>2.0699999999999998</v>
+        <v>2070000000</v>
       </c>
       <c r="B216" s="0">
         <v>8.2919449120447233</v>
       </c>
+      <c r="C216" s="0">
+        <v>-41.284339287406226</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>2.0750000000000002</v>
+        <v>2075000000</v>
       </c>
       <c r="B217" s="0">
         <v>8.2698555318042306</v>
       </c>
+      <c r="C217" s="0">
+        <v>-41.414607032015951</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>2.0800000000000001</v>
+        <v>2080000000</v>
       </c>
       <c r="B218" s="0">
         <v>8.2693871660172746</v>
       </c>
+      <c r="C218" s="0">
+        <v>-41.458289851749782</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>2.085</v>
+        <v>2085000000</v>
       </c>
       <c r="B219" s="0">
         <v>8.294613500328186</v>
       </c>
+      <c r="C219" s="0">
+        <v>-41.399093488386718</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>2.0899999999999999</v>
+        <v>2090000000</v>
       </c>
       <c r="B220" s="0">
         <v>8.2679857638778582</v>
       </c>
+      <c r="C220" s="0">
+        <v>-41.547213506239146</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>2.0950000000000002</v>
+        <v>2095000000</v>
       </c>
       <c r="B221" s="0">
         <v>8.248079957161039</v>
       </c>
+      <c r="C221" s="0">
+        <v>-41.668346380756816</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>2.1000000000000001</v>
+        <v>2100000000</v>
       </c>
       <c r="B222" s="0">
         <v>8.2608217176262499</v>
       </c>
+      <c r="C222" s="0">
+        <v>-41.658790036160184</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>2.105</v>
+        <v>2105000000</v>
       </c>
       <c r="B223" s="0">
         <v>8.261885905668926</v>
       </c>
+      <c r="C223" s="0">
+        <v>-41.695845501500195</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>2.1099999999999999</v>
+        <v>2110000000</v>
       </c>
       <c r="B224" s="0">
         <v>8.2622718388526515</v>
       </c>
+      <c r="C224" s="0">
+        <v>-41.735515973805512</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>2.1150000000000002</v>
+        <v>2115000000</v>
       </c>
       <c r="B225" s="0">
         <v>8.2075225724448604</v>
       </c>
+      <c r="C225" s="0">
+        <v>-41.995629695971417</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>2.1200000000000001</v>
+        <v>2120000000</v>
       </c>
       <c r="B226" s="0">
         <v>8.2045332072155919</v>
       </c>
+      <c r="C226" s="0">
+        <v>-42.048606725596102</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>2.125</v>
+        <v>2125000000</v>
       </c>
       <c r="B227" s="0">
         <v>8.2012344288653765</v>
       </c>
+      <c r="C227" s="0">
+        <v>-42.102724777300118</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>2.1299999999999999</v>
+        <v>2130000000</v>
       </c>
       <c r="B228" s="0">
         <v>8.1528118010157211</v>
       </c>
+      <c r="C228" s="0">
+        <v>-42.337242050795034</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>2.1349999999999998</v>
+        <v>2135000000</v>
       </c>
       <c r="B229" s="0">
         <v>8.1521176825277095</v>
       </c>
+      <c r="C229" s="0">
+        <v>-42.380749561639277</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>2.1400000000000001</v>
+        <v>2140000000</v>
       </c>
       <c r="B230" s="0">
         <v>8.1770872849954692</v>
       </c>
+      <c r="C230" s="0">
+        <v>-42.321506911294165</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>2.145</v>
+        <v>2145000000</v>
       </c>
       <c r="B231" s="0">
         <v>8.1245018439697105</v>
       </c>
+      <c r="C231" s="0">
+        <v>-42.572389602259292</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>2.1499999999999999</v>
+        <v>2150000000</v>
       </c>
       <c r="B232" s="0">
         <v>8.1222735747167789</v>
       </c>
+      <c r="C232" s="0">
+        <v>-42.621749215065506</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>2.1549999999999998</v>
+        <v>2155000000</v>
       </c>
       <c r="B233" s="0">
         <v>8.1263055718318924</v>
       </c>
+      <c r="C233" s="0">
+        <v>-42.645973809850858</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>2.1600000000000001</v>
+        <v>2160000000</v>
       </c>
       <c r="B234" s="0">
         <v>8.1257773946858673</v>
       </c>
+      <c r="C234" s="0">
+        <v>-42.688345584602175</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>2.165</v>
+        <v>2165000000</v>
       </c>
       <c r="B235" s="0">
         <v>8.1465219404639591</v>
       </c>
+      <c r="C235" s="0">
+        <v>-42.645533383027939</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>2.1699999999999999</v>
+        <v>2170000000</v>
       </c>
       <c r="B236" s="0">
         <v>8.1687268717319146</v>
       </c>
+      <c r="C236" s="0">
+        <v>-42.59678698432193</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>2.1749999999999998</v>
+        <v>2175000000</v>
       </c>
       <c r="B237" s="0">
         <v>8.13408378444921</v>
       </c>
+      <c r="C237" s="0">
+        <v>-42.775340431137813</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>2.1800000000000002</v>
+        <v>2180000000</v>
       </c>
       <c r="B238" s="0">
         <v>8.2392765920005466</v>
       </c>
+      <c r="C238" s="0">
+        <v>-42.394458493490419</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>2.1850000000000001</v>
+        <v>2185000000</v>
       </c>
       <c r="B239" s="0">
         <v>8.2471958829071479</v>
       </c>
+      <c r="C239" s="0">
+        <v>-42.402579237937445</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>2.1899999999999999</v>
+        <v>2190000000</v>
       </c>
       <c r="B240" s="0">
         <v>8.2473364997020795</v>
       </c>
+      <c r="C240" s="0">
+        <v>-42.441723712104825</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>2.1949999999999998</v>
+        <v>2195000000</v>
       </c>
       <c r="B241" s="0">
         <v>8.2863387346114177</v>
       </c>
+      <c r="C241" s="0">
+        <v>-42.325331161988345</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>2.2000000000000002</v>
+        <v>2200000000</v>
       </c>
       <c r="B242" s="0">
         <v>8.2245887593385127</v>
       </c>
+      <c r="C242" s="0">
+        <v>-42.611857312842609</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>2.2050000000000001</v>
+        <v>2205000000</v>
       </c>
       <c r="B243" s="0">
         <v>8.2842018045071661</v>
       </c>
+      <c r="C243" s="0">
+        <v>-42.412841651434043</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>2.21</v>
+        <v>2210000000</v>
       </c>
       <c r="B244" s="0">
         <v>8.2940906411258215</v>
       </c>
+      <c r="C244" s="0">
+        <v>-42.412633500209552</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>2.2149999999999999</v>
+        <v>2215000000</v>
       </c>
       <c r="B245" s="0">
         <v>8.2620132111982727</v>
       </c>
+      <c r="C245" s="0">
+        <v>-42.580201494878843</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>2.2200000000000002</v>
+        <v>2220000000</v>
       </c>
       <c r="B246" s="0">
         <v>8.3094586078627266</v>
       </c>
+      <c r="C246" s="0">
+        <v>-42.429589663883043</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>2.2250000000000001</v>
+        <v>2225000000</v>
       </c>
       <c r="B247" s="0">
         <v>8.3924174320796681</v>
       </c>
+      <c r="C247" s="0">
+        <v>-42.136836001667753</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>2.23</v>
+        <v>2230000000</v>
       </c>
       <c r="B248" s="0">
         <v>8.3753407942959388</v>
       </c>
+      <c r="C248" s="0">
+        <v>-42.244136462051081</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>2.2349999999999999</v>
+        <v>2235000000</v>
       </c>
       <c r="B249" s="0">
         <v>8.4180386142889922</v>
       </c>
+      <c r="C249" s="0">
+        <v>-42.112251758870649</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>2.2400000000000002</v>
+        <v>2240000000</v>
       </c>
       <c r="B250" s="0">
         <v>8.3395650317840726</v>
       </c>
+      <c r="C250" s="0">
+        <v>-42.464965723538633</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>2.2450000000000001</v>
+        <v>2245000000</v>
       </c>
       <c r="B251" s="0">
         <v>8.3797204816520843</v>
       </c>
+      <c r="C251" s="0">
+        <v>-42.343077004273752</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>2.25</v>
+        <v>2250000000</v>
       </c>
       <c r="B252" s="0">
         <v>8.3618543259311018</v>
       </c>
+      <c r="C252" s="0">
+        <v>-42.453188538038503</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>2.2549999999999999</v>
+        <v>2255000000</v>
       </c>
       <c r="B253" s="0">
         <v>8.3658242186458054</v>
       </c>
+      <c r="C253" s="0">
+        <v>-42.475870091284364</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>2.2599999999999998</v>
+        <v>2260000000</v>
       </c>
       <c r="B254" s="0">
         <v>8.3457750626641776</v>
       </c>
+      <c r="C254" s="0">
+        <v>-42.594542432547733</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>2.2650000000000001</v>
+        <v>2265000000</v>
       </c>
       <c r="B255" s="0">
         <v>8.3623323911693426</v>
       </c>
+      <c r="C255" s="0">
+        <v>-42.56670380658506</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>2.27</v>
+        <v>2270000000</v>
       </c>
       <c r="B256" s="0">
         <v>8.3620874485414927</v>
       </c>
+      <c r="C256" s="0">
+        <v>-42.605989610867347</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>2.2749999999999999</v>
+        <v>2275000000</v>
       </c>
       <c r="B257" s="0">
         <v>8.3754771308778526</v>
       </c>
+      <c r="C257" s="0">
+        <v>-42.590652633522254</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>2.2799999999999998</v>
+        <v>2280000000</v>
       </c>
       <c r="B258" s="0">
         <v>8.3051713832259697</v>
       </c>
+      <c r="C258" s="0">
+        <v>-42.910013464422683</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>2.2850000000000001</v>
+        <v>2285000000</v>
       </c>
       <c r="B259" s="0">
         <v>8.2999407290026728</v>
       </c>
+      <c r="C259" s="0">
+        <v>-42.968990377532485</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>2.29</v>
+        <v>2290000000</v>
       </c>
       <c r="B260" s="0">
         <v>8.2194628531012253</v>
       </c>
+      <c r="C260" s="0">
+        <v>-43.328872998499023</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>2.2949999999999999</v>
+        <v>2295000000</v>
       </c>
       <c r="B261" s="0">
         <v>8.1623188694186162</v>
       </c>
+      <c r="C261" s="0">
+        <v>-43.59533723456515</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>2.2999999999999998</v>
+        <v>2300000000</v>
       </c>
       <c r="B262" s="0">
         <v>8.1473676736420408</v>
       </c>
+      <c r="C262" s="0">
+        <v>-43.692947863443962</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>2.3050000000000002</v>
+        <v>2305000000</v>
       </c>
       <c r="B263" s="0">
         <v>8.1214853234548148</v>
       </c>
+      <c r="C263" s="0">
+        <v>-43.834201012515834</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>2.3100000000000001</v>
+        <v>2310000000</v>
       </c>
       <c r="B264" s="0">
         <v>8.0845733739013852</v>
       </c>
+      <c r="C264" s="0">
+        <v>-44.019490817388643</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>2.3149999999999999</v>
+        <v>2315000000</v>
       </c>
       <c r="B265" s="0">
         <v>8.0784415790992465</v>
       </c>
+      <c r="C265" s="0">
+        <v>-44.081578615070299</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>2.3199999999999998</v>
+        <v>2320000000</v>
       </c>
       <c r="B266" s="0">
         <v>8.1267993819046538</v>
       </c>
+      <c r="C266" s="0">
+        <v>-43.925626985325778</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>2.3250000000000002</v>
+        <v>2325000000</v>
       </c>
       <c r="B267" s="0">
         <v>8.0128605157888515</v>
       </c>
+      <c r="C267" s="0">
+        <v>-44.41878134319191</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>2.3300000000000001</v>
+        <v>2330000000</v>
       </c>
       <c r="B268" s="0">
         <v>7.9975181091582588</v>
       </c>
+      <c r="C268" s="0">
+        <v>-44.517469521716137</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>2.335</v>
+        <v>2335000000</v>
       </c>
       <c r="B269" s="0">
         <v>7.8973604996247531</v>
       </c>
+      <c r="C269" s="0">
+        <v>-44.955338514894635</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>2.3399999999999999</v>
+        <v>2340000000</v>
       </c>
       <c r="B270" s="0">
         <v>7.9586244163434277</v>
       </c>
+      <c r="C270" s="0">
+        <v>-44.747441748340421</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>2.3450000000000002</v>
+        <v>2345000000</v>
       </c>
       <c r="B271" s="0">
         <v>7.8682630820761297</v>
       </c>
+      <c r="C271" s="0">
+        <v>-45.145966671047972</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>2.3500000000000001</v>
+        <v>2350000000</v>
       </c>
       <c r="B272" s="0">
         <v>7.8437674372910244</v>
       </c>
+      <c r="C272" s="0">
+        <v>-45.280949859013759</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>2.355</v>
+        <v>2355000000</v>
       </c>
       <c r="B273" s="0">
         <v>7.9257498947242624</v>
       </c>
+      <c r="C273" s="0">
+        <v>-44.989941997007961</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>2.3599999999999999</v>
+        <v>2360000000</v>
       </c>
       <c r="B274" s="0">
         <v>7.8344052115795657</v>
       </c>
+      <c r="C274" s="0">
+        <v>-45.392164389794409</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>2.3650000000000002</v>
+        <v>2365000000</v>
       </c>
       <c r="B275" s="0">
         <v>7.8337691702931753</v>
       </c>
+      <c r="C275" s="0">
+        <v>-45.431474239088921</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>2.3700000000000001</v>
+        <v>2370000000</v>
       </c>
       <c r="B276" s="0">
         <v>7.8234170874816602</v>
       </c>
+      <c r="C276" s="0">
+        <v>-45.509570607785925</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>2.375</v>
+        <v>2375000000</v>
       </c>
       <c r="B277" s="0">
         <v>7.7626251478926438</v>
       </c>
+      <c r="C277" s="0">
+        <v>-45.789349084173246</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>2.3799999999999999</v>
+        <v>2380000000</v>
       </c>
       <c r="B278" s="0">
         <v>7.7363194281564329</v>
       </c>
+      <c r="C278" s="0">
+        <v>-45.931105686943155</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>2.3849999999999998</v>
+        <v>2385000000</v>
       </c>
       <c r="B279" s="0">
         <v>7.7683657126103824</v>
       </c>
+      <c r="C279" s="0">
+        <v>-45.83937760191219</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>2.3900000000000001</v>
+        <v>2390000000</v>
       </c>
       <c r="B280" s="0">
         <v>7.7634668641013738</v>
       </c>
+      <c r="C280" s="0">
+        <v>-45.895353698828423</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>2.395</v>
+        <v>2395000000</v>
       </c>
       <c r="B281" s="0">
         <v>7.7963550192082973</v>
       </c>
+      <c r="C281" s="0">
+        <v>-45.800105750498503</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>2.3999999999999999</v>
+        <v>2400000000</v>
       </c>
       <c r="B282" s="0">
         <v>7.8037598509874293</v>
       </c>
+      <c r="C282" s="0">
+        <v>-45.806715381822933</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>2.4049999999999998</v>
+        <v>2405000000</v>
       </c>
       <c r="B283" s="0">
         <v>7.7222707276594074</v>
       </c>
+      <c r="C283" s="0">
+        <v>-46.168825435064804</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>2.4100000000000001</v>
+        <v>2410000000</v>
       </c>
       <c r="B284" s="0">
         <v>7.7757522973546811</v>
       </c>
+      <c r="C284" s="0">
+        <v>-45.990977630884416</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>2.415</v>
+        <v>2415000000</v>
       </c>
       <c r="B285" s="0">
         <v>7.853397650093207</v>
       </c>
+      <c r="C285" s="0">
+        <v>-45.716399920436821</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>2.4199999999999999</v>
+        <v>2420000000</v>
       </c>
       <c r="B286" s="0">
         <v>7.8709404548891477</v>
       </c>
+      <c r="C286" s="0">
+        <v>-45.68215793696907</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>2.4249999999999998</v>
+        <v>2425000000</v>
       </c>
       <c r="B287" s="0">
         <v>7.8702470721870625</v>
       </c>
+      <c r="C287" s="0">
+        <v>-45.72078654609146</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>2.4300000000000002</v>
+        <v>2430000000</v>
       </c>
       <c r="B288" s="0">
         <v>7.8819862822136724</v>
       </c>
+      <c r="C288" s="0">
+        <v>-45.709610932386212</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>2.4350000000000001</v>
+        <v>2435000000</v>
       </c>
       <c r="B289" s="0">
         <v>7.8739647383830125</v>
       </c>
+      <c r="C289" s="0">
+        <v>-45.777404785802489</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>2.4399999999999999</v>
+        <v>2440000000</v>
       </c>
       <c r="B290" s="0">
         <v>7.8879964174307986</v>
       </c>
+      <c r="C290" s="0">
+        <v>-45.756912501134394</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>2.4449999999999998</v>
+        <v>2445000000</v>
       </c>
       <c r="B291" s="0">
         <v>7.8190916040795919</v>
       </c>
+      <c r="C291" s="0">
+        <v>-46.068093239375607</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>2.4500000000000002</v>
+        <v>2450000000</v>
       </c>
       <c r="B292" s="0">
         <v>7.9032512991538786</v>
       </c>
+      <c r="C292" s="0">
+        <v>-45.766943295274196</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>2.4550000000000001</v>
+        <v>2455000000</v>
       </c>
       <c r="B293" s="0">
         <v>7.8988444302264647</v>
       </c>
+      <c r="C293" s="0">
+        <v>-45.81998725476204</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>2.46</v>
+        <v>2460000000</v>
       </c>
       <c r="B294" s="0">
         <v>7.8163700431761942</v>
       </c>
+      <c r="C294" s="0">
+        <v>-46.185229228738798</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>2.4649999999999999</v>
+        <v>2465000000</v>
       </c>
       <c r="B295" s="0">
         <v>7.8209226708270494</v>
       </c>
+      <c r="C295" s="0">
+        <v>-46.202291378530163</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>2.4700000000000002</v>
+        <v>2470000000</v>
       </c>
       <c r="B296" s="0">
         <v>7.8996353339887087</v>
       </c>
+      <c r="C296" s="0">
+        <v>-45.922641911740207</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>2.4750000000000001</v>
+        <v>2475000000</v>
       </c>
       <c r="B297" s="0">
         <v>7.9613680745839632</v>
       </c>
+      <c r="C297" s="0">
+        <v>-45.710840949756061</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>2.48</v>
+        <v>2480000000</v>
       </c>
       <c r="B298" s="0">
         <v>7.8420551789490469</v>
       </c>
+      <c r="C298" s="0">
+        <v>-46.223151634560871</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>2.4849999999999999</v>
+        <v>2485000000</v>
       </c>
       <c r="B299" s="0">
         <v>7.7938603303789904</v>
       </c>
+      <c r="C299" s="0">
+        <v>-46.450919518566486</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>2.4900000000000002</v>
+        <v>2490000000</v>
       </c>
       <c r="B300" s="0">
         <v>7.7897904086679919</v>
       </c>
+      <c r="C300" s="0">
+        <v>-46.502117366465896</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>2.4950000000000001</v>
+        <v>2495000000</v>
       </c>
       <c r="B301" s="0">
         <v>7.8827959884429895</v>
       </c>
+      <c r="C301" s="0">
+        <v>-46.164943161912795</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>2.5</v>
+        <v>2500000000</v>
       </c>
       <c r="B302" s="0">
         <v>7.8698064007365183</v>
       </c>
+      <c r="C302" s="0">
+        <v>-46.251679861243844</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>2.5049999999999999</v>
+        <v>2505000000</v>
       </c>
       <c r="B303" s="0">
         <v>7.9654669773040609</v>
       </c>
+      <c r="C303" s="0">
+        <v>-45.903746416222752</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>2.5099999999999998</v>
+        <v>2510000000</v>
       </c>
       <c r="B304" s="0">
         <v>7.8499699487343477</v>
       </c>
+      <c r="C304" s="0">
+        <v>-46.400374181612548</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>2.5150000000000001</v>
+        <v>2515000000</v>
       </c>
       <c r="B305" s="0">
         <v>7.8102121623576926</v>
       </c>
+      <c r="C305" s="0">
+        <v>-46.593976043555486</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>2.52</v>
+        <v>2520000000</v>
       </c>
       <c r="B306" s="0">
         <v>7.734486146475974</v>
       </c>
+      <c r="C306" s="0">
+        <v>-46.931382162666281</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>2.5249999999999999</v>
+        <v>2525000000</v>
       </c>
       <c r="B307" s="0">
         <v>7.7211543629587807</v>
       </c>
+      <c r="C307" s="0">
+        <v>-47.019142963660492</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>2.5299999999999998</v>
+        <v>2530000000</v>
       </c>
       <c r="B308" s="0">
         <v>7.7338457825457958</v>
       </c>
+      <c r="C308" s="0">
+        <v>-47.002742834157942</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>2.5350000000000001</v>
+        <v>2535000000</v>
       </c>
       <c r="B309" s="0">
         <v>7.6019495421463663</v>
       </c>
+      <c r="C309" s="0">
+        <v>-47.564625495497133</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>2.54</v>
+        <v>2540000000</v>
       </c>
       <c r="B310" s="0">
         <v>7.6937771374071939</v>
       </c>
+      <c r="C310" s="0">
+        <v>-47.231545232477153</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>2.5449999999999999</v>
+        <v>2545000000</v>
       </c>
       <c r="B311" s="0">
         <v>7.6477947758898468</v>
       </c>
+      <c r="C311" s="0">
+        <v>-47.449637480660122</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>2.5499999999999998</v>
+        <v>2550000000</v>
       </c>
       <c r="B312" s="0">
         <v>7.6141584266394968</v>
       </c>
+      <c r="C312" s="0">
+        <v>-47.618278628108627</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>2.5550000000000002</v>
+        <v>2555000000</v>
       </c>
       <c r="B313" s="0">
         <v>7.5670026140902813</v>
       </c>
+      <c r="C313" s="0">
+        <v>-47.840930839776547</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>2.5600000000000001</v>
+        <v>2560000000</v>
       </c>
       <c r="B314" s="0">
         <v>7.526597650283799</v>
       </c>
+      <c r="C314" s="0">
+        <v>-48.036513128647194</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>2.5649999999999999</v>
+        <v>2565000000</v>
       </c>
       <c r="B315" s="0">
         <v>7.510248227849976</v>
       </c>
+      <c r="C315" s="0">
+        <v>-48.135806983821908</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>2.5699999999999998</v>
+        <v>2570000000</v>
       </c>
       <c r="B316" s="0">
         <v>7.511618381355289</v>
       </c>
+      <c r="C316" s="0">
+        <v>-48.164156525139035</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>2.5750000000000002</v>
+        <v>2575000000</v>
       </c>
       <c r="B317" s="0">
         <v>7.4576727344386882</v>
       </c>
+      <c r="C317" s="0">
+        <v>-48.413703514642052</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>2.5800000000000001</v>
+        <v>2580000000</v>
       </c>
       <c r="B318" s="0">
         <v>7.4972810431557573</v>
       </c>
+      <c r="C318" s="0">
+        <v>-48.28896918321459</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>2.585</v>
+        <v>2585000000</v>
       </c>
       <c r="B319" s="0">
         <v>7.4086256234234931</v>
       </c>
+      <c r="C319" s="0">
+        <v>-48.677224520812892</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>2.5899999999999999</v>
+        <v>2590000000</v>
       </c>
       <c r="B320" s="0">
         <v>7.4174181380220405</v>
       </c>
+      <c r="C320" s="0">
+        <v>-48.67562312847032</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>2.5950000000000002</v>
+        <v>2595000000</v>
       </c>
       <c r="B321" s="0">
         <v>7.3043672067098333</v>
       </c>
+      <c r="C321" s="0">
+        <v>-49.161330777848143</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>2.6000000000000001</v>
+        <v>2600000000</v>
       </c>
       <c r="B322" s="0">
         <v>7.3567947031330494</v>
       </c>
+      <c r="C322" s="0">
+        <v>-48.985060223608926</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>2.605</v>
+        <v>2605000000</v>
       </c>
       <c r="B323" s="0">
         <v>7.4040144965129571</v>
       </c>
+      <c r="C323" s="0">
+        <v>-48.829556236678314</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>2.6099999999999999</v>
+        <v>2610000000</v>
       </c>
       <c r="B324" s="0">
         <v>7.2978054879157783</v>
       </c>
+      <c r="C324" s="0">
+        <v>-49.287703459176541</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>2.6150000000000002</v>
+        <v>2615000000</v>
       </c>
       <c r="B325" s="0">
         <v>7.3097050533670096</v>
       </c>
+      <c r="C325" s="0">
+        <v>-49.273352631972088</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>2.6200000000000001</v>
+        <v>2620000000</v>
       </c>
       <c r="B326" s="0">
         <v>7.4055454901287154</v>
       </c>
+      <c r="C326" s="0">
+        <v>-48.923174809583365</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>2.625</v>
+        <v>2625000000</v>
       </c>
       <c r="B327" s="0">
         <v>7.509487142684053</v>
       </c>
+      <c r="C327" s="0">
+        <v>-48.540528856251228</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>2.6299999999999999</v>
+        <v>2630000000</v>
       </c>
       <c r="B328" s="0">
         <v>7.4139200139585268</v>
       </c>
+      <c r="C328" s="0">
+        <v>-48.95585500106462</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>2.6349999999999998</v>
+        <v>2635000000</v>
       </c>
       <c r="B329" s="0">
         <v>7.4043831228667356</v>
       </c>
+      <c r="C329" s="0">
+        <v>-49.026997407784087</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>2.6400000000000001</v>
+        <v>2640000000</v>
       </c>
       <c r="B330" s="0">
         <v>7.4554168275489721</v>
       </c>
+      <c r="C330" s="0">
+        <v>-48.855794881905766</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>2.645</v>
+        <v>2645000000</v>
       </c>
       <c r="B331" s="0">
         <v>7.5324821438769698</v>
       </c>
+      <c r="C331" s="0">
+        <v>-48.580403596648708</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>2.6499999999999999</v>
+        <v>2650000000</v>
       </c>
       <c r="B332" s="0">
         <v>7.5033809394854822</v>
       </c>
+      <c r="C332" s="0">
+        <v>-48.729616316838793</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>2.6549999999999998</v>
+        <v>2655000000</v>
       </c>
       <c r="B333" s="0">
         <v>7.5484112689671328</v>
       </c>
+      <c r="C333" s="0">
+        <v>-48.582241058139395</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>2.6600000000000001</v>
+        <v>2660000000</v>
       </c>
       <c r="B334" s="0">
         <v>7.5090749024591119</v>
       </c>
+      <c r="C334" s="0">
+        <v>-48.772270972714644</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>2.665</v>
+        <v>2665000000</v>
       </c>
       <c r="B335" s="0">
         <v>7.5175330036342842</v>
       </c>
+      <c r="C335" s="0">
+        <v>-48.771061637274912</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>2.6699999999999999</v>
+        <v>2670000000</v>
       </c>
       <c r="B336" s="0">
         <v>7.6121577749997922</v>
       </c>
+      <c r="C336" s="0">
+        <v>-48.425124471892254</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>2.6749999999999998</v>
+        <v>2675000000</v>
       </c>
       <c r="B337" s="0">
         <v>7.67475273205803</v>
       </c>
+      <c r="C337" s="0">
+        <v>-48.207245643366178</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>2.6800000000000002</v>
+        <v>2680000000</v>
       </c>
       <c r="B338" s="0">
         <v>7.6841154369249196</v>
       </c>
+      <c r="C338" s="0">
+        <v>-48.202235130760286</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>2.6850000000000001</v>
+        <v>2685000000</v>
       </c>
       <c r="B339" s="0">
         <v>7.647115023229043</v>
       </c>
+      <c r="C339" s="0">
+        <v>-48.382616625815217</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>2.6899999999999999</v>
+        <v>2690000000</v>
       </c>
       <c r="B340" s="0">
         <v>7.6189106347817344</v>
       </c>
+      <c r="C340" s="0">
+        <v>-48.527753778277791</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>2.6949999999999998</v>
+        <v>2695000000</v>
       </c>
       <c r="B341" s="0">
         <v>7.7015756053770046</v>
       </c>
+      <c r="C341" s="0">
+        <v>-48.229353476710692</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>2.7000000000000002</v>
+        <v>2700000000</v>
       </c>
       <c r="B342" s="0">
         <v>7.7631566116550683</v>
       </c>
+      <c r="C342" s="0">
+        <v>-48.015229237047627</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>2.7050000000000001</v>
+        <v>2705000000</v>
       </c>
       <c r="B343" s="0">
         <v>7.8116768671651462</v>
       </c>
+      <c r="C343" s="0">
+        <v>-47.853288426351355</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>2.71</v>
+        <v>2710000000</v>
       </c>
       <c r="B344" s="0">
         <v>7.866258236692496</v>
       </c>
+      <c r="C344" s="0">
+        <v>-47.667043805514659</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>2.7149999999999999</v>
+        <v>2715000000</v>
       </c>
       <c r="B345" s="0">
         <v>7.9199629107077483</v>
       </c>
+      <c r="C345" s="0">
+        <v>-47.484246831472049</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>2.7200000000000002</v>
+        <v>2720000000</v>
       </c>
       <c r="B346" s="0">
         <v>7.9448990365084153</v>
       </c>
+      <c r="C346" s="0">
+        <v>-47.416465132642699</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>2.7250000000000001</v>
+        <v>2725000000</v>
       </c>
       <c r="B347" s="0">
         <v>8.0689158160587375</v>
       </c>
+      <c r="C347" s="0">
+        <v>-46.952302117579912</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>2.73</v>
+        <v>2730000000</v>
       </c>
       <c r="B348" s="0">
         <v>8.1615063302428101</v>
       </c>
+      <c r="C348" s="0">
+        <v>-46.613785677967414</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>2.7349999999999999</v>
+        <v>2735000000</v>
       </c>
       <c r="B349" s="0">
         <v>8.2423050504676745</v>
       </c>
+      <c r="C349" s="0">
+        <v>-46.32237814221569</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>2.7400000000000002</v>
+        <v>2740000000</v>
       </c>
       <c r="B350" s="0">
         <v>8.1913650100721629</v>
       </c>
+      <c r="C350" s="0">
+        <v>-46.557867589835276</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>2.7450000000000001</v>
+        <v>2745000000</v>
       </c>
       <c r="B351" s="0">
         <v>8.206384149714717</v>
       </c>
+      <c r="C351" s="0">
+        <v>-46.529462469893971</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>2.75</v>
+        <v>2750000000</v>
       </c>
       <c r="B352" s="0">
         <v>8.2653470747741995</v>
       </c>
+      <c r="C352" s="0">
+        <v>-46.325224571422119</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>2.7549999999999999</v>
+        <v>2755000000</v>
       </c>
       <c r="B353" s="0">
         <v>8.305366804903846</v>
       </c>
+      <c r="C353" s="0">
+        <v>-46.196702025205177</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>2.7599999999999998</v>
+        <v>2760000000</v>
       </c>
       <c r="B354" s="0">
         <v>8.3672063294426096</v>
       </c>
+      <c r="C354" s="0">
+        <v>-45.980843082146677</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>2.7650000000000001</v>
+        <v>2765000000</v>
       </c>
       <c r="B355" s="0">
         <v>8.3899010017830129</v>
       </c>
+      <c r="C355" s="0">
+        <v>-45.921506535805037</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>2.77</v>
+        <v>2770000000</v>
       </c>
       <c r="B356" s="0">
         <v>8.3792177962455039</v>
       </c>
+      <c r="C356" s="0">
+        <v>-45.995624694904336</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>2.7749999999999999</v>
+        <v>2775000000</v>
       </c>
       <c r="B357" s="0">
         <v>8.4316254025722266</v>
       </c>
+      <c r="C357" s="0">
+        <v>-45.8173230053673</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>2.7799999999999998</v>
+        <v>2780000000</v>
       </c>
       <c r="B358" s="0">
         <v>8.4160060953606468</v>
       </c>
+      <c r="C358" s="0">
+        <v>-45.911072572588871</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>2.7850000000000001</v>
+        <v>2785000000</v>
       </c>
       <c r="B359" s="0">
         <v>8.3719558591389571</v>
       </c>
+      <c r="C359" s="0">
+        <v>-46.11848966114249</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>2.79</v>
+        <v>2790000000</v>
       </c>
       <c r="B360" s="0">
         <v>8.4414647606503621</v>
       </c>
+      <c r="C360" s="0">
+        <v>-45.871614205650857</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>2.7949999999999999</v>
+        <v>2795000000</v>
       </c>
       <c r="B361" s="0">
         <v>8.4488069065825293</v>
       </c>
+      <c r="C361" s="0">
+        <v>-45.873349979875975</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>2.7999999999999998</v>
+        <v>2800000000</v>
       </c>
       <c r="B362" s="0">
         <v>8.3982997641295185</v>
       </c>
+      <c r="C362" s="0">
+        <v>-46.106427314479106</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>2.8050000000000002</v>
+        <v>2805000000</v>
       </c>
       <c r="B363" s="0">
         <v>8.4106395702825836</v>
       </c>
+      <c r="C363" s="0">
+        <v>-46.088061459865287</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>2.8100000000000001</v>
+        <v>2810000000</v>
       </c>
       <c r="B364" s="0">
         <v>8.3257333352561478</v>
       </c>
+      <c r="C364" s="0">
+        <v>-46.458624572487011</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>2.8149999999999999</v>
+        <v>2815000000</v>
       </c>
       <c r="B365" s="0">
         <v>8.3819167793909486</v>
       </c>
+      <c r="C365" s="0">
+        <v>-46.264773967239215</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>2.8199999999999998</v>
+        <v>2820000000</v>
       </c>
       <c r="B366" s="0">
         <v>8.3432411093189849</v>
       </c>
+      <c r="C366" s="0">
+        <v>-46.450305012806922</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>2.8250000000000002</v>
+        <v>2825000000</v>
       </c>
       <c r="B367" s="0">
         <v>8.359137430471657</v>
       </c>
+      <c r="C367" s="0">
+        <v>-46.417493481640079</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>2.8300000000000001</v>
+        <v>2830000000</v>
       </c>
       <c r="B368" s="0">
         <v>8.3963320024974859</v>
       </c>
+      <c r="C368" s="0">
+        <v>-46.299434528290078</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>2.835</v>
+        <v>2835000000</v>
       </c>
       <c r="B369" s="0">
         <v>8.3888992112774279</v>
       </c>
+      <c r="C369" s="0">
+        <v>-46.359830801355713</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>2.8399999999999999</v>
+        <v>2840000000</v>
       </c>
       <c r="B370" s="0">
         <v>8.4442825487143587</v>
       </c>
+      <c r="C370" s="0">
+        <v>-46.16890852433248</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>2.8450000000000002</v>
+        <v>2845000000</v>
       </c>
       <c r="B371" s="0">
         <v>8.4869356782615917</v>
       </c>
+      <c r="C371" s="0">
+        <v>-46.028853233505636</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>2.8500000000000001</v>
+        <v>2850000000</v>
       </c>
       <c r="B372" s="0">
         <v>8.4192436285809649</v>
       </c>
+      <c r="C372" s="0">
+        <v>-46.330125003324952</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>2.855</v>
+        <v>2855000000</v>
       </c>
       <c r="B373" s="0">
         <v>8.4167999464021968</v>
       </c>
+      <c r="C373" s="0">
+        <v>-46.370349834974299</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>2.8599999999999999</v>
+        <v>2860000000</v>
       </c>
       <c r="B374" s="0">
         <v>8.5274182046041442</v>
       </c>
+      <c r="C374" s="0">
+        <v>-45.958273624053554</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>2.8650000000000002</v>
+        <v>2865000000</v>
       </c>
       <c r="B375" s="0">
         <v>8.4941689410455918</v>
       </c>
+      <c r="C375" s="0">
+        <v>-46.121614405262392</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>2.8700000000000001</v>
+        <v>2870000000</v>
       </c>
       <c r="B376" s="0">
         <v>8.4092156065875496</v>
       </c>
+      <c r="C376" s="0">
+        <v>-46.491718560317906</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>2.875</v>
+        <v>2875000000</v>
       </c>
       <c r="B377" s="0">
         <v>8.481959683133443</v>
       </c>
+      <c r="C377" s="0">
+        <v>-46.23098034580061</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>2.8799999999999999</v>
+        <v>2880000000</v>
       </c>
       <c r="B378" s="0">
         <v>8.3925031882362404</v>
       </c>
+      <c r="C378" s="0">
+        <v>-46.618991874732679</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>2.8849999999999998</v>
+        <v>2885000000</v>
       </c>
       <c r="B379" s="0">
         <v>8.4187394330362313</v>
       </c>
+      <c r="C379" s="0">
+        <v>-46.544180084833499</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>2.8900000000000001</v>
+        <v>2890000000</v>
       </c>
       <c r="B380" s="0">
         <v>8.3644793208743469</v>
       </c>
+      <c r="C380" s="0">
+        <v>-46.791301544072937</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>2.895</v>
+        <v>2895000000</v>
       </c>
       <c r="B381" s="0">
         <v>8.3488868523888833</v>
       </c>
+      <c r="C381" s="0">
+        <v>-46.883700430291071</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>2.8999999999999999</v>
+        <v>2900000000</v>
       </c>
       <c r="B382" s="0">
         <v>8.3020555750521456</v>
       </c>
+      <c r="C382" s="0">
+        <v>-47.101002733058067</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>2.9049999999999998</v>
+        <v>2905000000</v>
       </c>
       <c r="B383" s="0">
         <v>8.1899834467457051</v>
       </c>
+      <c r="C383" s="0">
+        <v>-47.579216799379573</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>2.9100000000000001</v>
+        <v>2910000000</v>
       </c>
       <c r="B384" s="0">
         <v>8.0960921260227217</v>
       </c>
+      <c r="C384" s="0">
+        <v>-47.984656172653814</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>2.915</v>
+        <v>2915000000</v>
       </c>
       <c r="B385" s="0">
         <v>7.9970718495776625</v>
       </c>
+      <c r="C385" s="0">
+        <v>-48.410560082799073</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>2.9199999999999999</v>
+        <v>2920000000</v>
       </c>
       <c r="B386" s="0">
         <v>8.0628449328789955</v>
       </c>
+      <c r="C386" s="0">
+        <v>-48.177239443729157</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>2.9249999999999998</v>
+        <v>2925000000</v>
       </c>
       <c r="B387" s="0">
         <v>7.9715374858713153</v>
       </c>
+      <c r="C387" s="0">
+        <v>-48.572189990551124</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>2.9300000000000002</v>
+        <v>2930000000</v>
       </c>
       <c r="B388" s="0">
         <v>7.8166105795727949</v>
       </c>
+      <c r="C388" s="0">
+        <v>-49.221567613181605</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>2.9350000000000001</v>
+        <v>2935000000</v>
       </c>
       <c r="B389" s="0">
         <v>7.7852223343418823</v>
       </c>
+      <c r="C389" s="0">
+        <v>-49.376740003286208</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>2.9399999999999999</v>
+        <v>2940000000</v>
       </c>
       <c r="B390" s="0">
         <v>7.7224204719227627</v>
       </c>
+      <c r="C390" s="0">
+        <v>-49.657516446103649</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>2.9449999999999998</v>
+        <v>2945000000</v>
       </c>
       <c r="B391" s="0">
         <v>7.5119059309829268</v>
       </c>
+      <c r="C391" s="0">
+        <v>-50.529093358301516</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>2.9500000000000002</v>
+        <v>2950000000</v>
       </c>
       <c r="B392" s="0">
         <v>7.400404950798567</v>
       </c>
+      <c r="C392" s="0">
+        <v>-51.004565953240657</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>2.9550000000000001</v>
+        <v>2955000000</v>
       </c>
       <c r="B393" s="0">
         <v>7.4583641753729868</v>
       </c>
+      <c r="C393" s="0">
+        <v>-50.802147824507429</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>2.96</v>
+        <v>2960000000</v>
       </c>
       <c r="B394" s="0">
         <v>7.2789609011658101</v>
       </c>
+      <c r="C394" s="0">
+        <v>-51.549129955002712</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>2.9649999999999999</v>
+        <v>2965000000</v>
       </c>
       <c r="B395" s="0">
         <v>7.4420286177630048</v>
       </c>
+      <c r="C395" s="0">
+        <v>-50.926178554267651</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>2.9700000000000002</v>
+        <v>2970000000</v>
       </c>
       <c r="B396" s="0">
         <v>7.3166382871764615</v>
       </c>
+      <c r="C396" s="0">
+        <v>-51.457009941291062</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>2.9750000000000001</v>
+        <v>2975000000</v>
       </c>
       <c r="B397" s="0">
         <v>7.1678863604002698</v>
       </c>
+      <c r="C397" s="0">
+        <v>-52.081238478290068</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>2.98</v>
+        <v>2980000000</v>
       </c>
       <c r="B398" s="0">
         <v>7.1440115350167517</v>
       </c>
+      <c r="C398" s="0">
+        <v>-52.205909540291614</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>2.9849999999999999</v>
+        <v>2985000000</v>
       </c>
       <c r="B399" s="0">
         <v>7.1334305579162365</v>
       </c>
+      <c r="C399" s="0">
+        <v>-52.27735630425898</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>2.9900000000000002</v>
+        <v>2990000000</v>
       </c>
       <c r="B400" s="0">
         <v>7.0145331203792054</v>
       </c>
+      <c r="C400" s="0">
+        <v>-52.782020168768781</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>2.9950000000000001</v>
+        <v>2995000000</v>
       </c>
       <c r="B401" s="0">
         <v>7.1248621720782124</v>
       </c>
+      <c r="C401" s="0">
+        <v>-52.369729498008766</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>3</v>
+        <v>3000000000</v>
       </c>
       <c r="B402" s="0">
         <v>7.4007223911884861</v>
       </c>
+      <c r="C402" s="0">
+        <v>-51.295265741340963</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>3.0049999999999999</v>
+        <v>3005000000</v>
       </c>
       <c r="B403" s="0">
         <v>7.310872213099973</v>
       </c>
+      <c r="C403" s="0">
+        <v>-51.683595318458856</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>3.0099999999999998</v>
+        <v>3010000000</v>
       </c>
       <c r="B404" s="0">
         <v>7.0771157692038518</v>
       </c>
+      <c r="C404" s="0">
+        <v>-52.647501864246735</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>3.0150000000000001</v>
+        <v>3015000000</v>
       </c>
       <c r="B405" s="0">
         <v>6.9358970670261506</v>
       </c>
+      <c r="C405" s="0">
+        <v>-53.241209508250613</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>3.02</v>
+        <v>3020000000</v>
       </c>
       <c r="B406" s="0">
         <v>6.4203562717759386</v>
       </c>
+      <c r="C406" s="0">
+        <v>-55.33215774849068</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>3.0249999999999999</v>
+        <v>3025000000</v>
       </c>
       <c r="B407" s="0">
         <v>5.9695766545395994</v>
       </c>
+      <c r="C407" s="0">
+        <v>-57.164013658689527</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>3.0299999999999998</v>
+        <v>3030000000</v>
       </c>
       <c r="B408" s="0">
         <v>5.7956588670224196</v>
       </c>
+      <c r="C408" s="0">
+        <v>-57.88837478931093</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>3.0350000000000001</v>
+        <v>3035000000</v>
       </c>
       <c r="B409" s="0">
         <v>5.5417423855276997</v>
       </c>
+      <c r="C409" s="0">
+        <v>-58.932683391648666</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>3.04</v>
+        <v>3040000000</v>
       </c>
       <c r="B410" s="0">
         <v>5.7148548591707149</v>
       </c>
+      <c r="C410" s="0">
+        <v>-58.268829024975695</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>3.0449999999999999</v>
+        <v>3045000000</v>
       </c>
       <c r="B411" s="0">
         <v>5.5082223394845524</v>
       </c>
+      <c r="C411" s="0">
+        <v>-59.123907638125964</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>3.0499999999999998</v>
+        <v>3050000000</v>
       </c>
       <c r="B412" s="0">
         <v>5.3847401971849003</v>
       </c>
+      <c r="C412" s="0">
+        <v>-59.646337902440237</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>3.0550000000000002</v>
+        <v>3055000000</v>
       </c>
       <c r="B413" s="0">
         <v>4.799493636555324</v>
       </c>
+      <c r="C413" s="0">
+        <v>-62.015779154230032</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>3.0600000000000001</v>
+        <v>3060000000</v>
       </c>
       <c r="B414" s="0">
         <v>5.2249678914840745</v>
       </c>
+      <c r="C414" s="0">
+        <v>-60.34229061063531</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>3.0649999999999999</v>
+        <v>3065000000</v>
       </c>
       <c r="B415" s="0">
         <v>5.9016907717883749</v>
       </c>
+      <c r="C415" s="0">
+        <v>-57.663761184332259</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>3.0699999999999998</v>
+        <v>3070000000</v>
       </c>
       <c r="B416" s="0">
         <v>5.2601795703229666</v>
       </c>
+      <c r="C416" s="0">
+        <v>-60.258121855104001</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>3.0750000000000002</v>
+        <v>3075000000</v>
       </c>
       <c r="B417" s="0">
         <v>5.646311893778801</v>
       </c>
+      <c r="C417" s="0">
+        <v>-58.74186234665062</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>3.0800000000000001</v>
+        <v>3080000000</v>
       </c>
       <c r="B418" s="0">
         <v>5.5894356615156982</v>
       </c>
+      <c r="C418" s="0">
+        <v>-58.997591131263391</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>3.085</v>
+        <v>3085000000</v>
       </c>
       <c r="B419" s="0">
         <v>5.8493454421765474</v>
       </c>
+      <c r="C419" s="0">
+        <v>-57.986130083372636</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>3.0899999999999999</v>
+        <v>3090000000</v>
       </c>
       <c r="B420" s="0">
         <v>5.5754877763396316</v>
       </c>
+      <c r="C420" s="0">
+        <v>-59.109693188943268</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>3.0950000000000002</v>
+        <v>3095000000</v>
       </c>
       <c r="B421" s="0">
         <v>5.7382458713160922</v>
       </c>
+      <c r="C421" s="0">
+        <v>-58.486747766289511</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>3.1000000000000001</v>
+        <v>3100000000</v>
       </c>
       <c r="B422" s="0">
         <v>5.744779473064126</v>
       </c>
+      <c r="C422" s="0">
+        <v>-58.488654978422815</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>3.105</v>
+        <v>3105000000</v>
       </c>
       <c r="B423" s="0">
         <v>5.9042348710503498</v>
       </c>
+      <c r="C423" s="0">
+        <v>-57.87882981361097</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>3.1099999999999999</v>
+        <v>3110000000</v>
       </c>
       <c r="B424" s="0">
         <v>5.9865016849676795</v>
       </c>
+      <c r="C424" s="0">
+        <v>-57.577713938511188</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>3.1150000000000002</v>
+        <v>3115000000</v>
       </c>
       <c r="B425" s="0">
         <v>5.9758146948798041</v>
       </c>
+      <c r="C425" s="0">
+        <v>-57.648368377596732</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>3.1200000000000001</v>
+        <v>3120000000</v>
       </c>
       <c r="B426" s="0">
         <v>6.3337643405778268</v>
       </c>
+      <c r="C426" s="0">
+        <v>-56.24443151573481</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>3.125</v>
+        <v>3125000000</v>
       </c>
       <c r="B427" s="0">
         <v>6.0108131399934965</v>
       </c>
+      <c r="C427" s="0">
+        <v>-57.56405342453818</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>3.1299999999999999</v>
+        <v>3130000000</v>
       </c>
       <c r="B428" s="0">
         <v>6.006425699753204</v>
       </c>
+      <c r="C428" s="0">
+        <v>-57.609375820153531</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>3.1349999999999998</v>
+        <v>3135000000</v>
       </c>
       <c r="B429" s="0">
         <v>5.8797474783389969</v>
       </c>
+      <c r="C429" s="0">
+        <v>-58.143817010621831</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>3.1400000000000001</v>
+        <v>3140000000</v>
       </c>
       <c r="B430" s="0">
         <v>5.945676699383311</v>
       </c>
+      <c r="C430" s="0">
+        <v>-57.907784242703769</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>3.145</v>
+        <v>3145000000</v>
       </c>
       <c r="B431" s="0">
         <v>5.8823032471486734</v>
       </c>
+      <c r="C431" s="0">
+        <v>-58.188918119965223</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>3.1499999999999999</v>
+        <v>3150000000</v>
       </c>
       <c r="B432" s="0">
         <v>5.6712656278368625</v>
       </c>
+      <c r="C432" s="0">
+        <v>-59.060664757544984</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>3.1549999999999998</v>
+        <v>3155000000</v>
       </c>
       <c r="B433" s="0">
         <v>5.7771033616422338</v>
       </c>
+      <c r="C433" s="0">
+        <v>-58.664866213945601</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>3.1600000000000001</v>
+        <v>3160000000</v>
       </c>
       <c r="B434" s="0">
         <v>5.6313104576006285</v>
       </c>
+      <c r="C434" s="0">
+        <v>-59.275546591642048</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>3.165</v>
+        <v>3165000000</v>
       </c>
       <c r="B435" s="0">
         <v>5.667534680250979</v>
       </c>
+      <c r="C435" s="0">
+        <v>-59.158114970439456</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>3.1699999999999999</v>
+        <v>3170000000</v>
       </c>
       <c r="B436" s="0">
         <v>5.680424485110561</v>
       </c>
+      <c r="C436" s="0">
+        <v>-59.133977665576225</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>3.1749999999999998</v>
+        <v>3175000000</v>
       </c>
       <c r="B437" s="0">
         <v>5.7535366295383739</v>
       </c>
+      <c r="C437" s="0">
+        <v>-58.868907784274697</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>3.1800000000000002</v>
+        <v>3180000000</v>
       </c>
       <c r="B438" s="0">
         <v>6.0708381303483776</v>
       </c>
+      <c r="C438" s="0">
+        <v>-57.627037395292213</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>3.1850000000000001</v>
+        <v>3185000000</v>
       </c>
       <c r="B439" s="0">
         <v>5.6036093383212338</v>
       </c>
+      <c r="C439" s="0">
+        <v>-59.523245230878246</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>3.1899999999999999</v>
+        <v>3190000000</v>
       </c>
       <c r="B440" s="0">
         <v>5.8741974892015572</v>
       </c>
+      <c r="C440" s="0">
+        <v>-58.468142482789425</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>3.1949999999999998</v>
+        <v>3195000000</v>
       </c>
       <c r="B441" s="0">
         <v>5.9344730264028991</v>
       </c>
+      <c r="C441" s="0">
+        <v>-58.254247511473579</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>3.2000000000000002</v>
+        <v>3200000000</v>
       </c>
       <c r="B442" s="0">
         <v>6.1632752302490266</v>
       </c>
+      <c r="C442" s="0">
+        <v>-57.366203329108536</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>3.2050000000000001</v>
+        <v>3205000000</v>
       </c>
       <c r="B443" s="0">
         <v>6.4561619877146059</v>
       </c>
+      <c r="C443" s="0">
+        <v>-56.221778520643433</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>3.21</v>
+        <v>3210000000</v>
       </c>
       <c r="B444" s="0">
         <v>6.4489364041222714</v>
       </c>
+      <c r="C444" s="0">
+        <v>-56.277760797014203</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>3.2149999999999999</v>
+        <v>3215000000</v>
       </c>
       <c r="B445" s="0">
         <v>6.4453037931710666</v>
       </c>
+      <c r="C445" s="0">
+        <v>-56.319329035033775</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>3.2200000000000002</v>
+        <v>3220000000</v>
       </c>
       <c r="B446" s="0">
         <v>6.2579908288522414</v>
       </c>
+      <c r="C446" s="0">
+        <v>-57.095576669732679</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>3.2250000000000001</v>
+        <v>3225000000</v>
       </c>
       <c r="B447" s="0">
         <v>6.2152450283039871</v>
       </c>
+      <c r="C447" s="0">
+        <v>-57.293513762943924</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>3.23</v>
+        <v>3230000000</v>
       </c>
       <c r="B448" s="0">
         <v>5.4264056969120915</v>
       </c>
+      <c r="C448" s="0">
+        <v>-60.475783222904163</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>3.2349999999999999</v>
+        <v>3235000000</v>
       </c>
       <c r="B449" s="0">
         <v>6.1120611916462551</v>
       </c>
+      <c r="C449" s="0">
+        <v>-57.760031750912155</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>3.2400000000000002</v>
+        <v>3240000000</v>
       </c>
       <c r="B450" s="0">
         <v>5.5279916970435998</v>
       </c>
+      <c r="C450" s="0">
+        <v>-60.123138737398499</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>3.2450000000000001</v>
+        <v>3245000000</v>
       </c>
       <c r="B451" s="0">
         <v>5.3923425964171496</v>
       </c>
+      <c r="C451" s="0">
+        <v>-60.692522777095334</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>3.25</v>
+        <v>3250000000</v>
       </c>
       <c r="B452" s="0">
         <v>5.2528410945647073</v>
       </c>
+      <c r="C452" s="0">
+        <v>-61.277275178204548</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>3.2549999999999999</v>
+        <v>3255000000</v>
       </c>
       <c r="B453" s="0">
         <v>4.8515540814113214</v>
       </c>
+      <c r="C453" s="0">
+        <v>-62.909128507831554</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>3.2599999999999998</v>
+        <v>3260000000</v>
       </c>
       <c r="B454" s="0">
         <v>4.7880156627651003</v>
       </c>
+      <c r="C454" s="0">
+        <v>-63.189946468965566</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>3.2650000000000001</v>
+        <v>3265000000</v>
       </c>
       <c r="B455" s="0">
         <v>4.4160783996911013</v>
       </c>
+      <c r="C455" s="0">
+        <v>-64.704318942987712</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>3.27</v>
+        <v>3270000000</v>
       </c>
       <c r="B456" s="0">
         <v>4.3786548347527496</v>
       </c>
+      <c r="C456" s="0">
+        <v>-64.880595884708853</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>3.2749999999999999</v>
+        <v>3275000000</v>
       </c>
       <c r="B457" s="0">
         <v>4.2450467377543788</v>
       </c>
+      <c r="C457" s="0">
+        <v>-65.441570339402972</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>3.2799999999999998</v>
+        <v>3280000000</v>
       </c>
       <c r="B458" s="0">
         <v>4.2097618151817642</v>
       </c>
+      <c r="C458" s="0">
+        <v>-65.609211605048515</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>3.2850000000000001</v>
+        <v>3285000000</v>
       </c>
       <c r="B459" s="0">
         <v>4.788326319177636</v>
       </c>
+      <c r="C459" s="0">
+        <v>-63.321414796429849</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>3.29</v>
+        <v>3290000000</v>
       </c>
       <c r="B460" s="0">
         <v>4.7227220173165083</v>
       </c>
+      <c r="C460" s="0">
+        <v>-63.610252966041344</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>3.2949999999999999</v>
+        <v>3295000000</v>
       </c>
       <c r="B461" s="0">
         <v>5.4406027046861594</v>
       </c>
+      <c r="C461" s="0">
+        <v>-60.765111055764919</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>3.2999999999999998</v>
+        <v>3300000000</v>
       </c>
       <c r="B462" s="0">
         <v>5.6653479344715807</v>
       </c>
+      <c r="C462" s="0">
+        <v>-59.892470974537588</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>3.3050000000000002</v>
+        <v>3305000000</v>
       </c>
       <c r="B463" s="0">
         <v>5.4466331671002441</v>
       </c>
+      <c r="C463" s="0">
+        <v>-60.79363100177379</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>3.3100000000000001</v>
+        <v>3310000000</v>
       </c>
       <c r="B464" s="0">
         <v>5.5012775118269728</v>
       </c>
+      <c r="C464" s="0">
+        <v>-60.601314821029263</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>3.3149999999999999</v>
+        <v>3315000000</v>
       </c>
       <c r="B465" s="0">
         <v>5.7046461395532493</v>
       </c>
+      <c r="C465" s="0">
+        <v>-59.814061868727094</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>3.3199999999999998</v>
+        <v>3320000000</v>
       </c>
       <c r="B466" s="0">
         <v>5.346681232494972</v>
       </c>
+      <c r="C466" s="0">
+        <v>-61.272103535489968</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>3.3250000000000002</v>
+        <v>3325000000</v>
       </c>
       <c r="B467" s="0">
         <v>5.7039942484603268</v>
       </c>
+      <c r="C467" s="0">
+        <v>-59.868994109032045</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>3.3300000000000001</v>
+        <v>3330000000</v>
       </c>
       <c r="B468" s="0">
         <v>4.9752804130120962</v>
       </c>
+      <c r="C468" s="0">
+        <v>-62.809952805512815</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>3.335</v>
+        <v>3335000000</v>
       </c>
       <c r="B469" s="0">
         <v>5.2995253836967384</v>
       </c>
+      <c r="C469" s="0">
+        <v>-61.539037112624165</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>3.3399999999999999</v>
+        <v>3340000000</v>
       </c>
       <c r="B470" s="0">
         <v>4.8908881176275738</v>
       </c>
+      <c r="C470" s="0">
+        <v>-63.199611319260697</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>3.3450000000000002</v>
+        <v>3345000000</v>
       </c>
       <c r="B471" s="0">
         <v>4.6214551977222307</v>
       </c>
+      <c r="C471" s="0">
+        <v>-64.303329210573168</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>3.3500000000000001</v>
+        <v>3350000000</v>
       </c>
       <c r="B472" s="0">
         <v>4.9032370695044678</v>
       </c>
+      <c r="C472" s="0">
+        <v>-63.202149120764346</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>3.355</v>
+        <v>3355000000</v>
       </c>
       <c r="B473" s="0">
         <v>4.6745884909939033</v>
       </c>
+      <c r="C473" s="0">
+        <v>-64.142652133533232</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>3.3599999999999999</v>
+        <v>3360000000</v>
       </c>
       <c r="B474" s="0">
         <v>4.1562785150025583</v>
       </c>
+      <c r="C474" s="0">
+        <v>-66.241762152891937</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>3.3650000000000002</v>
+        <v>3365000000</v>
       </c>
       <c r="B475" s="0">
         <v>3.9113215375402728</v>
       </c>
+      <c r="C475" s="0">
+        <v>-67.24742170954714</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>3.3700000000000001</v>
+        <v>3370000000</v>
       </c>
       <c r="B476" s="0">
         <v>4.4533838886740682</v>
       </c>
+      <c r="C476" s="0">
+        <v>-65.104965597465679</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>3.375</v>
+        <v>3375000000</v>
       </c>
       <c r="B477" s="0">
         <v>3.644454781525992</v>
       </c>
+      <c r="C477" s="0">
+        <v>-68.366437077886189</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>3.3799999999999999</v>
+        <v>3380000000</v>
       </c>
       <c r="B478" s="0">
         <v>4.6982603548651261</v>
       </c>
+      <c r="C478" s="0">
+        <v>-64.1769317089541</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>3.3849999999999998</v>
+        <v>3385000000</v>
       </c>
       <c r="B479" s="0">
         <v>4.3206272665419698</v>
       </c>
+      <c r="C479" s="0">
+        <v>-65.713142971987054</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>3.3900000000000001</v>
+        <v>3390000000</v>
       </c>
       <c r="B480" s="0">
         <v>4.4591445080003336</v>
       </c>
+      <c r="C480" s="0">
+        <v>-65.184715013430363</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>3.395</v>
+        <v>3395000000</v>
       </c>
       <c r="B481" s="0">
         <v>5.2677126454134973</v>
       </c>
+      <c r="C481" s="0">
+        <v>-61.976045680315238</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>3.3999999999999999</v>
+        <v>3400000000</v>
       </c>
       <c r="B482" s="0">
         <v>4.5614151503103777</v>
       </c>
+      <c r="C482" s="0">
+        <v>-64.826801197757106</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>3.4049999999999998</v>
+        <v>3405000000</v>
       </c>
       <c r="B483" s="0">
         <v>4.3166486237239345</v>
       </c>
+      <c r="C483" s="0">
+        <v>-65.83139527236483</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>3.4100000000000001</v>
+        <v>3410000000</v>
       </c>
       <c r="B484" s="0">
         <v>4.7543144020294843</v>
       </c>
+      <c r="C484" s="0">
+        <v>-64.106222668890382</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>3.415</v>
+        <v>3415000000</v>
       </c>
       <c r="B485" s="0">
         <v>4.0661166659152617</v>
       </c>
+      <c r="C485" s="0">
+        <v>-66.88446677434942</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>3.4199999999999999</v>
+        <v>3420000000</v>
       </c>
       <c r="B486" s="0">
         <v>4.1356439762579367</v>
       </c>
+      <c r="C486" s="0">
+        <v>-66.631773454522062</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>3.4249999999999998</v>
+        <v>3425000000</v>
       </c>
       <c r="B487" s="0">
         <v>3.7378489702502753</v>
       </c>
+      <c r="C487" s="0">
+        <v>-68.248332269445086</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>3.4300000000000002</v>
+        <v>3430000000</v>
       </c>
       <c r="B488" s="0">
         <v>2.7653222173305481</v>
       </c>
+      <c r="C488" s="0">
+        <v>-72.163781049697036</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>3.4350000000000001</v>
+        <v>3435000000</v>
       </c>
       <c r="B489" s="0">
         <v>3.0524539570407483</v>
       </c>
+      <c r="C489" s="0">
+        <v>-71.040558944968183</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>3.4399999999999999</v>
+        <v>3440000000</v>
       </c>
       <c r="B490" s="0">
         <v>3.5689343317246225</v>
       </c>
+      <c r="C490" s="0">
+        <v>-68.999905493271129</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>3.4449999999999998</v>
+        <v>3445000000</v>
       </c>
       <c r="B491" s="0">
         <v>1.600168815683372</v>
       </c>
+      <c r="C491" s="0">
+        <v>-76.900198904320703</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>3.4500000000000002</v>
+        <v>3450000000</v>
       </c>
       <c r="B492" s="0">
         <v>2.345222654129699</v>
       </c>
+      <c r="C492" s="0">
+        <v>-73.945178303720581</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>3.4550000000000001</v>
+        <v>3455000000</v>
       </c>
       <c r="B493" s="0">
         <v>1.5202396254596144</v>
       </c>
+      <c r="C493" s="0">
+        <v>-77.270268683878641</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>3.46</v>
+        <v>3460000000</v>
       </c>
       <c r="B494" s="0">
         <v>2.6673687109275059</v>
       </c>
+      <c r="C494" s="0">
+        <v>-72.706874225309448</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>3.4649999999999999</v>
+        <v>3465000000</v>
       </c>
       <c r="B495" s="0">
         <v>1.0324758222449439</v>
       </c>
+      <c r="C495" s="0">
+        <v>-79.271531386241662</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>3.4700000000000002</v>
+        <v>3470000000</v>
       </c>
       <c r="B496" s="0">
         <v>2.3623847275066825</v>
       </c>
+      <c r="C496" s="0">
+        <v>-73.976945198916624</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>3.4750000000000001</v>
+        <v>3475000000</v>
       </c>
       <c r="B497" s="0">
         <v>2.7114335015133366</v>
       </c>
+      <c r="C497" s="0">
+        <v>-72.605763468300367</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>3.48</v>
+        <v>3480000000</v>
       </c>
       <c r="B498" s="0">
         <v>2.0258480976220241</v>
       </c>
+      <c r="C498" s="0">
+        <v>-75.37308248468355</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>3.4849999999999999</v>
+        <v>3485000000</v>
       </c>
       <c r="B499" s="0">
         <v>3.2332749507108369</v>
       </c>
+      <c r="C499" s="0">
+        <v>-70.568316611826191</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>3.4900000000000002</v>
+        <v>3490000000</v>
       </c>
       <c r="B500" s="0">
         <v>0.68090597608188563</v>
       </c>
+      <c r="C500" s="0">
+        <v>-80.802698291348065</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>3.4950000000000001</v>
+        <v>3495000000</v>
       </c>
       <c r="B501" s="0">
         <v>2.7053097848867873</v>
       </c>
+      <c r="C501" s="0">
+        <v>-72.729953181029273</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>3.5</v>
+        <v>3500000000</v>
       </c>
       <c r="B502" s="0">
         <v>2.8715591464852541</v>
       </c>
+      <c r="C502" s="0">
+        <v>-72.089790305378415</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>3.5049999999999999</v>
+        <v>3505000000</v>
       </c>
       <c r="B503" s="0">
         <v>1.9473945696498762</v>
       </c>
+      <c r="C503" s="0">
+        <v>-75.811247730816007</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>3.5099999999999998</v>
+        <v>3510000000</v>
       </c>
       <c r="B504" s="0">
         <v>2.7036838070486224</v>
       </c>
+      <c r="C504" s="0">
+        <v>-72.810854547746885</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>3.5150000000000001</v>
+        <v>3515000000</v>
       </c>
       <c r="B505" s="0">
         <v>3.8464097788747225</v>
       </c>
+      <c r="C505" s="0">
+        <v>-68.264679176043231</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>3.52</v>
+        <v>3520000000</v>
       </c>
       <c r="B506" s="0">
         <v>2.177635321313073</v>
       </c>
+      <c r="C506" s="0">
+        <v>-74.964470371181363</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>3.5249999999999999</v>
+        <v>3525000000</v>
       </c>
       <c r="B507" s="0">
         <v>1.8557163929946947</v>
       </c>
+      <c r="C507" s="0">
+        <v>-76.276804398426336</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>3.5299999999999998</v>
+        <v>3530000000</v>
       </c>
       <c r="B508" s="0">
         <v>-1.8982259279609572</v>
       </c>
+      <c r="C508" s="0">
+        <v>-91.317197044665136</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>3.5350000000000001</v>
+        <v>3535000000</v>
       </c>
       <c r="B509" s="0">
         <v>2.3086580943176789</v>
       </c>
+      <c r="C509" s="0">
+        <v>-74.514249465354425</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>3.54</v>
+        <v>3540000000</v>
       </c>
       <c r="B510" s="0">
         <v>0.42984584344996085</v>
       </c>
+      <c r="C510" s="0">
+        <v>-82.054052224540072</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>3.5449999999999999</v>
+        <v>3545000000</v>
       </c>
       <c r="B511" s="0">
         <v>2.5530958734869884</v>
       </c>
+      <c r="C511" s="0">
+        <v>-73.585571204123866</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>3.5499999999999998</v>
+        <v>3550000000</v>
       </c>
       <c r="B512" s="0">
         <v>2.0317752771823465</v>
       </c>
+      <c r="C512" s="0">
+        <v>-75.695338130782787</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>3.5550000000000002</v>
+        <v>3555000000</v>
       </c>
       <c r="B513" s="0">
         <v>0.72217298897955085</v>
       </c>
+      <c r="C513" s="0">
+        <v>-80.958197364021615</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>3.5600000000000001</v>
+        <v>3560000000</v>
       </c>
       <c r="B514" s="0">
         <v>0.15712961607275977</v>
       </c>
+      <c r="C514" s="0">
+        <v>-83.242786571932385</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>3.5649999999999999</v>
+        <v>3565000000</v>
       </c>
       <c r="B515" s="0">
         <v>3.7033139824206107</v>
       </c>
+      <c r="C515" s="0">
+        <v>-69.082430555141343</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>3.5699999999999998</v>
+        <v>3570000000</v>
       </c>
       <c r="B516" s="0">
         <v>1.9759980242619446</v>
       </c>
+      <c r="C516" s="0">
+        <v>-76.016041664748357</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>3.5750000000000002</v>
+        <v>3575000000</v>
       </c>
       <c r="B517" s="0">
         <v>3.2429380499609839</v>
       </c>
+      <c r="C517" s="0">
+        <v>-70.972594762948447</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>3.5800000000000001</v>
+        <v>3580000000</v>
       </c>
       <c r="B518" s="0">
         <v>3.4001196455207876</v>
       </c>
+      <c r="C518" s="0">
+        <v>-70.368147600980237</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>3.585</v>
+        <v>3585000000</v>
       </c>
       <c r="B519" s="0">
         <v>3.9850386617270113</v>
       </c>
+      <c r="C519" s="0">
+        <v>-68.052716870553127</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>3.5899999999999999</v>
+        <v>3590000000</v>
       </c>
       <c r="B520" s="0">
         <v>4.1849340559054751</v>
       </c>
+      <c r="C520" s="0">
+        <v>-67.277346836819277</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>3.5950000000000002</v>
+        <v>3595000000</v>
       </c>
       <c r="B521" s="0">
         <v>4.2193498327285601</v>
       </c>
+      <c r="C521" s="0">
+        <v>-67.163861575150221</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>3.6000000000000001</v>
+        <v>3600000000</v>
       </c>
       <c r="B522" s="0">
         <v>3.9260828400989367</v>
       </c>
+      <c r="C522" s="0">
+        <v>-68.361073787604155</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>3.605</v>
+        <v>3605000000</v>
       </c>
       <c r="B523" s="0">
         <v>3.6916764332677743</v>
       </c>
+      <c r="C523" s="0">
+        <v>-69.322810146455225</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>3.6099999999999999</v>
+        <v>3610000000</v>
       </c>
       <c r="B524" s="0">
         <v>3.4171655224910085</v>
       </c>
+      <c r="C524" s="0">
+        <v>-70.444931103570696</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>3.6150000000000002</v>
+        <v>3615000000</v>
       </c>
       <c r="B525" s="0">
         <v>2.8101563491505095</v>
       </c>
+      <c r="C525" s="0">
+        <v>-72.897011785928356</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>3.6200000000000001</v>
+        <v>3620000000</v>
       </c>
       <c r="B526" s="0">
         <v>3.0252588431526126</v>
       </c>
+      <c r="C526" s="0">
+        <v>-72.060612566024588</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>3.625</v>
+        <v>3625000000</v>
       </c>
       <c r="B527" s="0">
         <v>0.35514453347695479</v>
       </c>
+      <c r="C527" s="0">
+        <v>-82.765047419681096</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>3.6299999999999999</v>
+        <v>3630000000</v>
       </c>
       <c r="B528" s="0">
         <v>3.0542903722495964</v>
       </c>
+      <c r="C528" s="0">
+        <v>-71.992408629754522</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>3.6349999999999998</v>
+        <v>3635000000</v>
       </c>
       <c r="B529" s="0">
         <v>3.494308287614408</v>
       </c>
+      <c r="C529" s="0">
+        <v>-70.256248574653043</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>3.6400000000000001</v>
+        <v>3640000000</v>
       </c>
       <c r="B530" s="0">
         <v>3.097681626788809</v>
       </c>
+      <c r="C530" s="0">
+        <v>-71.866633956115407</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>3.645</v>
+        <v>3645000000</v>
       </c>
       <c r="B531" s="0">
         <v>2.594628042503218</v>
       </c>
+      <c r="C531" s="0">
+        <v>-73.90269425345528</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>3.6499999999999999</v>
+        <v>3650000000</v>
       </c>
       <c r="B532" s="0">
         <v>3.5126768925518888</v>
       </c>
+      <c r="C532" s="0">
+        <v>-70.254312125359846</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>3.6549999999999998</v>
+        <v>3655000000</v>
       </c>
       <c r="B533" s="0">
         <v>1.6988367473443102</v>
       </c>
+      <c r="C533" s="0">
+        <v>-77.533453379686335</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>3.6600000000000001</v>
+        <v>3660000000</v>
       </c>
       <c r="B534" s="0">
         <v>3.8212258413610645</v>
       </c>
+      <c r="C534" s="0">
+        <v>-69.067645167640578</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>3.665</v>
+        <v>3665000000</v>
       </c>
       <c r="B535" s="0">
         <v>2.7708870906534449</v>
       </c>
+      <c r="C535" s="0">
+        <v>-73.292715913780498</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>3.6699999999999999</v>
+        <v>3670000000</v>
       </c>
       <c r="B536" s="0">
         <v>3.3540582615488383</v>
       </c>
+      <c r="C536" s="0">
+        <v>-70.983714641196627</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>3.6749999999999998</v>
+        <v>3675000000</v>
       </c>
       <c r="B537" s="0">
         <v>4.0709306447564408</v>
       </c>
+      <c r="C537" s="0">
+        <v>-68.139876275091197</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>3.6800000000000002</v>
+        <v>3680000000</v>
       </c>
       <c r="B538" s="0">
         <v>3.8205587875674549</v>
       </c>
+      <c r="C538" s="0">
+        <v>-69.164982713979299</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>3.6850000000000001</v>
+        <v>3685000000</v>
       </c>
       <c r="B539" s="0">
         <v>4.1068058497846263</v>
       </c>
+      <c r="C539" s="0">
+        <v>-68.043581405972716</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>3.6899999999999999</v>
+        <v>3690000000</v>
       </c>
       <c r="B540" s="0">
         <v>4.3032287849515853</v>
       </c>
+      <c r="C540" s="0">
+        <v>-67.281444623864488</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>3.6949999999999998</v>
+        <v>3695000000</v>
       </c>
       <c r="B541" s="0">
         <v>4.5551475514563968</v>
       </c>
+      <c r="C541" s="0">
+        <v>-66.297292620716604</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>3.7000000000000002</v>
+        <v>3700000000</v>
       </c>
       <c r="B542" s="0">
         <v>2.9830997589606327</v>
       </c>
+      <c r="C542" s="0">
+        <v>-72.60897504414568</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>3.7050000000000001</v>
+        <v>3705000000</v>
       </c>
       <c r="B543" s="0">
         <v>2.8038711618880754</v>
       </c>
+      <c r="C543" s="0">
+        <v>-73.349348962369987</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>3.71</v>
+        <v>3710000000</v>
       </c>
       <c r="B544" s="0">
         <v>4.5135476061234545</v>
       </c>
+      <c r="C544" s="0">
+        <v>-66.534071077416428</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>3.7149999999999999</v>
+        <v>3715000000</v>
       </c>
       <c r="B545" s="0">
         <v>3.5731760158474364</v>
       </c>
+      <c r="C545" s="0">
+        <v>-70.318953777782426</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>3.7200000000000002</v>
+        <v>3720000000</v>
       </c>
       <c r="B546" s="0">
         <v>3.9629767189110723</v>
       </c>
+      <c r="C546" s="0">
+        <v>-68.783115836940027</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>3.7250000000000001</v>
+        <v>3725000000</v>
       </c>
       <c r="B547" s="0">
         <v>3.624017966370281</v>
       </c>
+      <c r="C547" s="0">
+        <v>-70.162284335199757</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>3.73</v>
+        <v>3730000000</v>
       </c>
       <c r="B548" s="0">
         <v>4.2096175420749846</v>
       </c>
+      <c r="C548" s="0">
+        <v>-67.843188221355973</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>3.7349999999999999</v>
+        <v>3735000000</v>
       </c>
       <c r="B549" s="0">
         <v>4.9075558644567758</v>
       </c>
+      <c r="C549" s="0">
+        <v>-65.074705905538011</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>3.7400000000000002</v>
+        <v>3740000000</v>
       </c>
       <c r="B550" s="0">
         <v>4.5759261641416487</v>
       </c>
+      <c r="C550" s="0">
+        <v>-66.424464548761023</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>3.7450000000000001</v>
+        <v>3745000000</v>
       </c>
       <c r="B551" s="0">
         <v>4.3498023687923428</v>
       </c>
+      <c r="C551" s="0">
+        <v>-67.352168523558447</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>3.75</v>
+        <v>3750000000</v>
       </c>
       <c r="B552" s="0">
         <v>4.3529509476674288</v>
       </c>
+      <c r="C552" s="0">
+        <v>-67.362752035747448</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>3.7549999999999999</v>
+        <v>3755000000</v>
       </c>
       <c r="B553" s="0">
         <v>4.5532925697400177</v>
       </c>
+      <c r="C553" s="0">
+        <v>-66.584532491955827</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>3.7599999999999998</v>
+        <v>3760000000</v>
       </c>
       <c r="B554" s="0">
         <v>4.6549175340771454</v>
       </c>
+      <c r="C554" s="0">
+        <v>-66.201148778106273</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>3.7650000000000001</v>
+        <v>3765000000</v>
       </c>
       <c r="B555" s="0">
         <v>4.2270208411527568</v>
       </c>
+      <c r="C555" s="0">
+        <v>-67.935820974166163</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>3.77</v>
+        <v>3770000000</v>
       </c>
       <c r="B556" s="0">
         <v>4.1521350237120211</v>
       </c>
+      <c r="C556" s="0">
+        <v>-68.258419030692039</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>3.7749999999999999</v>
+        <v>3775000000</v>
       </c>
       <c r="B557" s="0">
         <v>4.2865600416271112</v>
       </c>
+      <c r="C557" s="0">
+        <v>-67.743743189408249</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>3.7799999999999998</v>
+        <v>3780000000</v>
       </c>
       <c r="B558" s="0">
         <v>4.8176050239341306</v>
       </c>
+      <c r="C558" s="0">
+        <v>-65.642557015060902</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>3.7850000000000001</v>
+        <v>3785000000</v>
       </c>
       <c r="B559" s="0">
         <v>3.9472039746991241</v>
       </c>
+      <c r="C559" s="0">
+        <v>-69.147124571955572</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>3.79</v>
+        <v>3790000000</v>
       </c>
       <c r="B560" s="0">
         <v>1.7178220984721235</v>
       </c>
+      <c r="C560" s="0">
+        <v>-78.087585122142812</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>3.7949999999999999</v>
+        <v>3795000000</v>
       </c>
       <c r="B561" s="0">
         <v>4.0069357992249763</v>
       </c>
+      <c r="C561" s="0">
+        <v>-68.954033129668474</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>3.7999999999999998</v>
+        <v>3800000000</v>
       </c>
       <c r="B562" s="0">
         <v>4.3923849966191622</v>
       </c>
+      <c r="C562" s="0">
+        <v>-67.435108995504166</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>3.8050000000000002</v>
+        <v>3805000000</v>
       </c>
       <c r="B563" s="0">
         <v>3.4358167360411902</v>
       </c>
+      <c r="C563" s="0">
+        <v>-71.284224617407318</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>3.8100000000000001</v>
+        <v>3810000000</v>
       </c>
       <c r="B564" s="0">
         <v>4.5037302379822677</v>
       </c>
+      <c r="C564" s="0">
+        <v>-67.035383192404112</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>3.8149999999999999</v>
+        <v>3815000000</v>
       </c>
       <c r="B565" s="0">
         <v>3.8091446250656351</v>
       </c>
+      <c r="C565" s="0">
+        <v>-69.836508308681843</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>3.8199999999999998</v>
+        <v>3820000000</v>
       </c>
       <c r="B566" s="0">
         <v>4.7433550958683943</v>
       </c>
+      <c r="C566" s="0">
+        <v>-66.122419250303182</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>3.8250000000000002</v>
+        <v>3825000000</v>
       </c>
       <c r="B567" s="0">
         <v>4.0856712568462799</v>
       </c>
+      <c r="C567" s="0">
+        <v>-68.775877669508745</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>3.8300000000000001</v>
+        <v>3830000000</v>
       </c>
       <c r="B568" s="0">
         <v>4.6550758943670365</v>
       </c>
+      <c r="C568" s="0">
+        <v>-66.520952498585174</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>3.835</v>
+        <v>3835000000</v>
       </c>
       <c r="B569" s="0">
         <v>4.6752896236192774</v>
       </c>
+      <c r="C569" s="0">
+        <v>-66.46276135423129</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>3.8399999999999999</v>
+        <v>3840000000</v>
       </c>
       <c r="B570" s="0">
         <v>3.432184310283338</v>
       </c>
+      <c r="C570" s="0">
+        <v>-71.457816850876284</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>3.8450000000000002</v>
+        <v>3845000000</v>
       </c>
       <c r="B571" s="0">
         <v>3.453066922501117</v>
       </c>
+      <c r="C571" s="0">
+        <v>-71.396891192801931</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>3.8500000000000001</v>
+        <v>3850000000</v>
       </c>
       <c r="B572" s="0">
         <v>2.9952035325003852</v>
       </c>
+      <c r="C572" s="0">
+        <v>-73.250920167646896</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>3.855</v>
+        <v>3855000000</v>
       </c>
       <c r="B573" s="0">
         <v>2.9484255856524948</v>
       </c>
+      <c r="C573" s="0">
+        <v>-73.460578070177462</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>3.8599999999999999</v>
+        <v>3860000000</v>
       </c>
       <c r="B574" s="0">
         <v>3.244043525317414</v>
       </c>
+      <c r="C574" s="0">
+        <v>-72.300623202908952</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>3.8650000000000002</v>
+        <v>3865000000</v>
       </c>
       <c r="B575" s="0">
         <v>4.2633739092496867</v>
       </c>
+      <c r="C575" s="0">
+        <v>-68.245789410483411</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>3.8700000000000001</v>
+        <v>3870000000</v>
       </c>
       <c r="B576" s="0">
         <v>3.1907129241506054</v>
       </c>
+      <c r="C576" s="0">
+        <v>-72.558892021462441</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>3.875</v>
+        <v>3875000000</v>
       </c>
       <c r="B577" s="0">
         <v>3.1686995637426523</v>
       </c>
+      <c r="C577" s="0">
+        <v>-72.669375136030965</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>3.8799999999999999</v>
+        <v>3880000000</v>
       </c>
       <c r="B578" s="0">
         <v>3.6998392063141883</v>
       </c>
+      <c r="C578" s="0">
+        <v>-70.567217315819946</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>3.8849999999999998</v>
+        <v>3885000000</v>
       </c>
       <c r="B579" s="0">
         <v>4.057206717073055</v>
       </c>
+      <c r="C579" s="0">
+        <v>-69.160119174493516</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>3.8900000000000001</v>
+        <v>3890000000</v>
       </c>
       <c r="B580" s="0">
         <v>3.2786716398595654</v>
       </c>
+      <c r="C580" s="0">
+        <v>-72.296602610898461</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>3.895</v>
+        <v>3895000000</v>
       </c>
       <c r="B581" s="0">
         <v>3.6546756894961741</v>
       </c>
+      <c r="C581" s="0">
+        <v>-70.814900839667047</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>3.8999999999999999</v>
+        <v>3900000000</v>
       </c>
       <c r="B582" s="0">
         <v>4.2714996737956543</v>
       </c>
+      <c r="C582" s="0">
+        <v>-68.36989070318576</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>3.9049999999999998</v>
+        <v>3905000000</v>
       </c>
       <c r="B583" s="0">
         <v>4.1352522691366991</v>
       </c>
+      <c r="C583" s="0">
+        <v>-68.937137569294379</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>3.9100000000000001</v>
+        <v>3910000000</v>
       </c>
       <c r="B584" s="0">
         <v>4.1303221090865785</v>
       </c>
+      <c r="C584" s="0">
+        <v>-68.979086976796765</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>3.915</v>
+        <v>3915000000</v>
       </c>
       <c r="B585" s="0">
         <v>1.902851030609515</v>
       </c>
+      <c r="C585" s="0">
+        <v>-77.911171650628845</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>3.9199999999999999</v>
+        <v>3920000000</v>
       </c>
       <c r="B586" s="0">
         <v>2.010800943785326</v>
       </c>
+      <c r="C586" s="0">
+        <v>-77.501544022985399</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>3.9249999999999998</v>
+        <v>3925000000</v>
       </c>
       <c r="B587" s="0">
         <v>3.1507759701581142</v>
       </c>
+      <c r="C587" s="0">
+        <v>-72.96378767992681</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>3.9300000000000002</v>
+        <v>3930000000</v>
       </c>
       <c r="B588" s="0">
         <v>3.592288549547912</v>
       </c>
+      <c r="C588" s="0">
+        <v>-71.219852934133826</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>3.9350000000000001</v>
+        <v>3935000000</v>
       </c>
       <c r="B589" s="0">
         <v>3.8562190027125718</v>
       </c>
+      <c r="C589" s="0">
+        <v>-70.18621857426146</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>3.9399999999999999</v>
+        <v>3940000000</v>
       </c>
       <c r="B590" s="0">
         <v>4.4373918519008688</v>
       </c>
+      <c r="C590" s="0">
+        <v>-67.883586582727901</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>3.9449999999999998</v>
+        <v>3945000000</v>
       </c>
       <c r="B591" s="0">
         <v>4.2255145433135262</v>
       </c>
+      <c r="C591" s="0">
+        <v>-68.753127245871866</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>3.9500000000000002</v>
+        <v>3950000000</v>
       </c>
       <c r="B592" s="0">
         <v>4.2773416782720428</v>
       </c>
+      <c r="C592" s="0">
+        <v>-68.567822229278647</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>3.9550000000000001</v>
+        <v>3955000000</v>
       </c>
       <c r="B593" s="0">
         <v>4.6168203343827585</v>
       </c>
+      <c r="C593" s="0">
+        <v>-67.231883293125193</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>3.96</v>
+        <v>3960000000</v>
       </c>
       <c r="B594" s="0">
         <v>3.8732462082224952</v>
       </c>
+      <c r="C594" s="0">
+        <v>-70.228127721438923</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>3.9649999999999999</v>
+        <v>3965000000</v>
       </c>
       <c r="B595" s="0">
         <v>4.7536818950612485</v>
       </c>
+      <c r="C595" s="0">
+        <v>-66.728305203208322</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>3.9700000000000002</v>
+        <v>3970000000</v>
       </c>
       <c r="B596" s="0">
         <v>4.2705960873356839</v>
       </c>
+      <c r="C596" s="0">
+        <v>-68.682541038490271</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>3.9750000000000001</v>
+        <v>3975000000</v>
       </c>
       <c r="B597" s="0">
         <v>3.7436241064315117</v>
       </c>
+      <c r="C597" s="0">
+        <v>-70.812294011281921</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>3.98</v>
+        <v>3980000000</v>
       </c>
       <c r="B598" s="0">
         <v>4.4941092755534973</v>
       </c>
+      <c r="C598" s="0">
+        <v>-67.832190898041929</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>3.9849999999999999</v>
+        <v>3985000000</v>
       </c>
       <c r="B599" s="0">
         <v>1.1812127382752722</v>
       </c>
+      <c r="C599" s="0">
+        <v>-81.105587193492568</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>3.9900000000000002</v>
+        <v>3990000000</v>
       </c>
       <c r="B600" s="0">
         <v>4.0352453826438364</v>
       </c>
+      <c r="C600" s="0">
+        <v>-69.711239414202993</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>3.9950000000000001</v>
+        <v>3995000000</v>
       </c>
       <c r="B601" s="0">
         <v>4.0120286218542835</v>
       </c>
+      <c r="C601" s="0">
+        <v>-69.825861975891684</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>4</v>
+        <v>4000000000</v>
       </c>
       <c r="B602" s="0">
         <v>4.2968673494354599</v>
+      </c>
+      <c r="C602" s="0">
+        <v>-68.708235372685067</v>
       </c>
     </row>
   </sheetData>

--- a/data/Antenna/BoresightGainData1Step.xlsx
+++ b/data/Antenna/BoresightGainData1Step.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="5">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>S21 (dB)</t>
+  </si>
+  <si>
+    <t>Return Loss (dB)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C602"/>
+  <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79,6 +82,7 @@
     <col min="1" max="1" width="13.36328125" customWidth="true"/>
     <col min="2" max="2" width="17.36328125" customWidth="true"/>
     <col min="3" max="3" width="12.08984375" customWidth="true"/>
+    <col min="4" max="4" width="14.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -91,6 +95,9 @@
       <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -102,6 +109,9 @@
       <c r="C2" s="0">
         <v>-66.286017417402206</v>
       </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -113,6 +123,9 @@
       <c r="C3" s="0">
         <v>-67.415233999083725</v>
       </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -124,6 +137,9 @@
       <c r="C4" s="0">
         <v>-67.352186942333702</v>
       </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -135,6 +151,9 @@
       <c r="C5" s="0">
         <v>-69.284623316563156</v>
       </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -146,6 +165,9 @@
       <c r="C6" s="0">
         <v>-69.668927969320123</v>
       </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -157,6 +179,9 @@
       <c r="C7" s="0">
         <v>-70.07322304210345</v>
       </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -168,6 +193,9 @@
       <c r="C8" s="0">
         <v>-69.036520516828574</v>
       </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -179,6 +207,9 @@
       <c r="C9" s="0">
         <v>-73.376758752944667</v>
       </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -190,6 +221,9 @@
       <c r="C10" s="0">
         <v>-73.997316824208525</v>
       </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -201,6 +235,9 @@
       <c r="C11" s="0">
         <v>-72.153696984398991</v>
       </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -212,6 +249,9 @@
       <c r="C12" s="0">
         <v>-69.758144232811631</v>
       </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -223,6 +263,9 @@
       <c r="C13" s="0">
         <v>-64.432749411422762</v>
       </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -234,6 +277,9 @@
       <c r="C14" s="0">
         <v>-67.655121799234891</v>
       </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -245,6 +291,9 @@
       <c r="C15" s="0">
         <v>-62.442969546837546</v>
       </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -256,6 +305,9 @@
       <c r="C16" s="0">
         <v>-65.186127495471467</v>
       </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -267,6 +319,9 @@
       <c r="C17" s="0">
         <v>-69.058346634926664</v>
       </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -278,6 +333,9 @@
       <c r="C18" s="0">
         <v>-70.517209954114421</v>
       </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -289,6 +347,9 @@
       <c r="C19" s="0">
         <v>-73.354392482735889</v>
       </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
@@ -300,6 +361,9 @@
       <c r="C20" s="0">
         <v>-66.939849604224179</v>
       </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -311,6 +375,9 @@
       <c r="C21" s="0">
         <v>-64.528636464370408</v>
       </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
@@ -322,6 +389,9 @@
       <c r="C22" s="0">
         <v>-66.362442068549768</v>
       </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -333,6 +403,9 @@
       <c r="C23" s="0">
         <v>-65.27663665167232</v>
       </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
@@ -344,6 +417,9 @@
       <c r="C24" s="0">
         <v>-63.112193058534203</v>
       </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -355,6 +431,9 @@
       <c r="C25" s="0">
         <v>-64.950524896647067</v>
       </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -366,6 +445,9 @@
       <c r="C26" s="0">
         <v>-64.863124290227347</v>
       </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
@@ -377,6 +459,9 @@
       <c r="C27" s="0">
         <v>-68.114482835240764</v>
       </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
@@ -388,6 +473,9 @@
       <c r="C28" s="0">
         <v>-68.1684891814498</v>
       </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
@@ -399,6 +487,9 @@
       <c r="C29" s="0">
         <v>-74.656818634357066</v>
       </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
@@ -410,6 +501,9 @@
       <c r="C30" s="0">
         <v>-75.699234377558625</v>
       </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
@@ -421,6 +515,9 @@
       <c r="C31" s="0">
         <v>-65.651271182513625</v>
       </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
@@ -432,6 +529,9 @@
       <c r="C32" s="0">
         <v>-63.620342797643929</v>
       </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
@@ -443,6 +543,9 @@
       <c r="C33" s="0">
         <v>-60.37781971356506</v>
       </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
@@ -454,6 +557,9 @@
       <c r="C34" s="0">
         <v>-60.379860820909144</v>
       </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -465,6 +571,9 @@
       <c r="C35" s="0">
         <v>-59.884174669754856</v>
       </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
@@ -476,6 +585,9 @@
       <c r="C36" s="0">
         <v>-60.40594229303133</v>
       </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
@@ -487,6 +599,9 @@
       <c r="C37" s="0">
         <v>-62.714830140994323</v>
       </c>
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -498,6 +613,9 @@
       <c r="C38" s="0">
         <v>-63.046198547055958</v>
       </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -509,6 +627,9 @@
       <c r="C39" s="0">
         <v>-63.561080261580408</v>
       </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -520,6 +641,9 @@
       <c r="C40" s="0">
         <v>-65.388508385311241</v>
       </c>
+      <c r="D40" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
@@ -531,6 +655,9 @@
       <c r="C41" s="0">
         <v>-63.693852205675363</v>
       </c>
+      <c r="D41" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -542,6 +669,9 @@
       <c r="C42" s="0">
         <v>-61.800751299131136</v>
       </c>
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -553,6 +683,9 @@
       <c r="C43" s="0">
         <v>-63.924110172169001</v>
       </c>
+      <c r="D43" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -564,6 +697,9 @@
       <c r="C44" s="0">
         <v>-64.724149953317209</v>
       </c>
+      <c r="D44" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
@@ -575,6 +711,9 @@
       <c r="C45" s="0">
         <v>-69.254540923335568</v>
       </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
@@ -586,6 +725,9 @@
       <c r="C46" s="0">
         <v>-69.782861152528639</v>
       </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
@@ -597,6 +739,9 @@
       <c r="C47" s="0">
         <v>-66.846130032061097</v>
       </c>
+      <c r="D47" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
@@ -608,6 +753,9 @@
       <c r="C48" s="0">
         <v>-58.608963673892838</v>
       </c>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -619,6 +767,9 @@
       <c r="C49" s="0">
         <v>-55.829586450565614</v>
       </c>
+      <c r="D49" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -630,6 +781,9 @@
       <c r="C50" s="0">
         <v>-53.047699090497844</v>
       </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
@@ -641,6 +795,9 @@
       <c r="C51" s="0">
         <v>-52.083272659719732</v>
       </c>
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -652,6 +809,9 @@
       <c r="C52" s="0">
         <v>-51.241379871335653</v>
       </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -663,6 +823,9 @@
       <c r="C53" s="0">
         <v>-50.976756602279217</v>
       </c>
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -674,6 +837,9 @@
       <c r="C54" s="0">
         <v>-51.14354915435144</v>
       </c>
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -685,6 +851,9 @@
       <c r="C55" s="0">
         <v>-52.208628214244257</v>
       </c>
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
@@ -696,6 +865,9 @@
       <c r="C56" s="0">
         <v>-53.055628833231275</v>
       </c>
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
@@ -707,6 +879,9 @@
       <c r="C57" s="0">
         <v>-55.445873773852597</v>
       </c>
+      <c r="D57" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -718,6 +893,9 @@
       <c r="C58" s="0">
         <v>-56.637470755782005</v>
       </c>
+      <c r="D58" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
@@ -729,6 +907,9 @@
       <c r="C59" s="0">
         <v>-55.513214575874379</v>
       </c>
+      <c r="D59" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
@@ -740,6 +921,9 @@
       <c r="C60" s="0">
         <v>-53.870650378015995</v>
       </c>
+      <c r="D60" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
@@ -751,6 +935,9 @@
       <c r="C61" s="0">
         <v>-52.567292415115645</v>
       </c>
+      <c r="D61" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
@@ -762,6 +949,9 @@
       <c r="C62" s="0">
         <v>-52.143847449566152</v>
       </c>
+      <c r="D62" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -773,6 +963,9 @@
       <c r="C63" s="0">
         <v>-51.50770835412672</v>
       </c>
+      <c r="D63" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -784,6 +977,9 @@
       <c r="C64" s="0">
         <v>-51.076558741647091</v>
       </c>
+      <c r="D64" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -795,6 +991,9 @@
       <c r="C65" s="0">
         <v>-50.89937472633946</v>
       </c>
+      <c r="D65" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
@@ -806,6 +1005,9 @@
       <c r="C66" s="0">
         <v>-51.763915446194524</v>
       </c>
+      <c r="D66" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -817,6 +1019,9 @@
       <c r="C67" s="0">
         <v>-53.173527427938645</v>
       </c>
+      <c r="D67" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
@@ -828,6 +1033,9 @@
       <c r="C68" s="0">
         <v>-55.268512376074533</v>
       </c>
+      <c r="D68" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -839,6 +1047,9 @@
       <c r="C69" s="0">
         <v>-59.493953059984577</v>
       </c>
+      <c r="D69" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
@@ -850,6 +1061,9 @@
       <c r="C70" s="0">
         <v>-66.325855034203357</v>
       </c>
+      <c r="D70" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
@@ -861,6 +1075,9 @@
       <c r="C71" s="0">
         <v>-64.571623334107571</v>
       </c>
+      <c r="D71" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -872,6 +1089,9 @@
       <c r="C72" s="0">
         <v>-60.271273868320051</v>
       </c>
+      <c r="D72" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
@@ -883,6 +1103,9 @@
       <c r="C73" s="0">
         <v>-58.699617752405253</v>
       </c>
+      <c r="D73" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -894,6 +1117,9 @@
       <c r="C74" s="0">
         <v>-58.321331439211278</v>
       </c>
+      <c r="D74" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
@@ -905,6 +1131,9 @@
       <c r="C75" s="0">
         <v>-60.127654707815303</v>
       </c>
+      <c r="D75" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
@@ -916,6 +1145,9 @@
       <c r="C76" s="0">
         <v>-60.679630507173137</v>
       </c>
+      <c r="D76" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
@@ -927,6 +1159,9 @@
       <c r="C77" s="0">
         <v>-55.675787531169512</v>
       </c>
+      <c r="D77" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
@@ -938,6 +1173,9 @@
       <c r="C78" s="0">
         <v>-53.652650331585711</v>
       </c>
+      <c r="D78" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -949,6 +1187,9 @@
       <c r="C79" s="0">
         <v>-51.372383427503721</v>
       </c>
+      <c r="D79" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
@@ -960,6 +1201,9 @@
       <c r="C80" s="0">
         <v>-49.926071628010192</v>
       </c>
+      <c r="D80" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
@@ -971,6 +1215,9 @@
       <c r="C81" s="0">
         <v>-49.623164080503429</v>
       </c>
+      <c r="D81" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -982,6 +1229,9 @@
       <c r="C82" s="0">
         <v>-49.521276041852587</v>
       </c>
+      <c r="D82" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -993,6 +1243,9 @@
       <c r="C83" s="0">
         <v>-49.674944253936808</v>
       </c>
+      <c r="D83" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
@@ -1004,6 +1257,9 @@
       <c r="C84" s="0">
         <v>-52.8851771359965</v>
       </c>
+      <c r="D84" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -1015,6 +1271,9 @@
       <c r="C85" s="0">
         <v>-56.166997263693126</v>
       </c>
+      <c r="D85" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
@@ -1026,6 +1285,9 @@
       <c r="C86" s="0">
         <v>-59.095174612845788</v>
       </c>
+      <c r="D86" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -1037,6 +1299,9 @@
       <c r="C87" s="0">
         <v>-55.347407422367198</v>
       </c>
+      <c r="D87" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -1048,6 +1313,9 @@
       <c r="C88" s="0">
         <v>-51.484035177414604</v>
       </c>
+      <c r="D88" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -1059,6 +1327,9 @@
       <c r="C89" s="0">
         <v>-48.44368474976784</v>
       </c>
+      <c r="D89" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
@@ -1070,6 +1341,9 @@
       <c r="C90" s="0">
         <v>-46.554827021859282</v>
       </c>
+      <c r="D90" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
@@ -1081,6 +1355,9 @@
       <c r="C91" s="0">
         <v>-45.233664579998219</v>
       </c>
+      <c r="D91" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
@@ -1092,6 +1369,9 @@
       <c r="C92" s="0">
         <v>-45.179571744376929</v>
       </c>
+      <c r="D92" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
@@ -1103,6 +1383,9 @@
       <c r="C93" s="0">
         <v>-44.911302338015595</v>
       </c>
+      <c r="D93" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -1114,6 +1397,9 @@
       <c r="C94" s="0">
         <v>-45.755426758246784</v>
       </c>
+      <c r="D94" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -1125,6 +1411,9 @@
       <c r="C95" s="0">
         <v>-46.883254445506878</v>
       </c>
+      <c r="D95" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
@@ -1136,6 +1425,9 @@
       <c r="C96" s="0">
         <v>-48.392163751550854</v>
       </c>
+      <c r="D96" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
@@ -1147,6 +1439,9 @@
       <c r="C97" s="0">
         <v>-50.792194484638678</v>
       </c>
+      <c r="D97" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
@@ -1158,6 +1453,9 @@
       <c r="C98" s="0">
         <v>-52.571045788156319</v>
       </c>
+      <c r="D98" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
@@ -1169,6 +1467,9 @@
       <c r="C99" s="0">
         <v>-57.798299494902977</v>
       </c>
+      <c r="D99" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -1180,6 +1481,9 @@
       <c r="C100" s="0">
         <v>-56.404334148097526</v>
       </c>
+      <c r="D100" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
@@ -1191,6 +1495,9 @@
       <c r="C101" s="0">
         <v>-54.297054622280633</v>
       </c>
+      <c r="D101" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
@@ -1202,6 +1509,9 @@
       <c r="C102" s="0">
         <v>-53.300209417101179</v>
       </c>
+      <c r="D102" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
@@ -1213,6 +1523,9 @@
       <c r="C103" s="0">
         <v>-53.913155235308956</v>
       </c>
+      <c r="D103" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
@@ -1224,6 +1537,9 @@
       <c r="C104" s="0">
         <v>-55.031069203252613</v>
       </c>
+      <c r="D104" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
@@ -1235,6 +1551,9 @@
       <c r="C105" s="0">
         <v>-55.705759002644996</v>
       </c>
+      <c r="D105" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
@@ -1246,6 +1565,9 @@
       <c r="C106" s="0">
         <v>-54.389421036046684</v>
       </c>
+      <c r="D106" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
@@ -1257,6 +1579,9 @@
       <c r="C107" s="0">
         <v>-52.022565498863131</v>
       </c>
+      <c r="D107" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
@@ -1268,6 +1593,9 @@
       <c r="C108" s="0">
         <v>-50.195017831408435</v>
       </c>
+      <c r="D108" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
@@ -1279,6 +1607,9 @@
       <c r="C109" s="0">
         <v>-49.623392728288451</v>
       </c>
+      <c r="D109" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
@@ -1290,6 +1621,9 @@
       <c r="C110" s="0">
         <v>-48.854616779673194</v>
       </c>
+      <c r="D110" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
@@ -1301,6 +1635,9 @@
       <c r="C111" s="0">
         <v>-48.968823995637329</v>
       </c>
+      <c r="D111" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
@@ -1312,6 +1649,9 @@
       <c r="C112" s="0">
         <v>-49.592993302523574</v>
       </c>
+      <c r="D112" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
@@ -1323,6 +1663,9 @@
       <c r="C113" s="0">
         <v>-48.249825921708272</v>
       </c>
+      <c r="D113" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
@@ -1334,6 +1677,9 @@
       <c r="C114" s="0">
         <v>-46.519654672479732</v>
       </c>
+      <c r="D114" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
@@ -1345,6 +1691,9 @@
       <c r="C115" s="0">
         <v>-44.250901325247483</v>
       </c>
+      <c r="D115" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
@@ -1356,6 +1705,9 @@
       <c r="C116" s="0">
         <v>-41.809958901414689</v>
       </c>
+      <c r="D116" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
@@ -1367,6 +1719,9 @@
       <c r="C117" s="0">
         <v>-40.840083931033568</v>
       </c>
+      <c r="D117" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
@@ -1378,6 +1733,9 @@
       <c r="C118" s="0">
         <v>-40.366460675358852</v>
       </c>
+      <c r="D118" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
@@ -1389,6 +1747,9 @@
       <c r="C119" s="0">
         <v>-40.110113781933656</v>
       </c>
+      <c r="D119" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
@@ -1400,6 +1761,9 @@
       <c r="C120" s="0">
         <v>-41.094055228291126</v>
       </c>
+      <c r="D120" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
@@ -1411,6 +1775,9 @@
       <c r="C121" s="0">
         <v>-42.331360980791899</v>
       </c>
+      <c r="D121" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
@@ -1422,6 +1789,9 @@
       <c r="C122" s="0">
         <v>-44.662666574550407</v>
       </c>
+      <c r="D122" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
@@ -1433,6 +1803,9 @@
       <c r="C123" s="0">
         <v>-48.365069187302005</v>
       </c>
+      <c r="D123" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
@@ -1444,6 +1817,9 @@
       <c r="C124" s="0">
         <v>-52.320899755914958</v>
       </c>
+      <c r="D124" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
@@ -1455,6 +1831,9 @@
       <c r="C125" s="0">
         <v>-55.253306866459951</v>
       </c>
+      <c r="D125" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
@@ -1466,6 +1845,9 @@
       <c r="C126" s="0">
         <v>-53.332561486803598</v>
       </c>
+      <c r="D126" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
@@ -1477,6 +1859,9 @@
       <c r="C127" s="0">
         <v>-49.826005661648153</v>
       </c>
+      <c r="D127" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
@@ -1488,6 +1873,9 @@
       <c r="C128" s="0">
         <v>-46.801822492630137</v>
       </c>
+      <c r="D128" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
@@ -1499,6 +1887,9 @@
       <c r="C129" s="0">
         <v>-44.534109572826637</v>
       </c>
+      <c r="D129" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
@@ -1510,6 +1901,9 @@
       <c r="C130" s="0">
         <v>-43.262184480508317</v>
       </c>
+      <c r="D130" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
@@ -1521,6 +1915,9 @@
       <c r="C131" s="0">
         <v>-43.158024031790887</v>
       </c>
+      <c r="D131" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
@@ -1532,6 +1929,9 @@
       <c r="C132" s="0">
         <v>-44.149480341106241</v>
       </c>
+      <c r="D132" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
@@ -1543,6 +1943,9 @@
       <c r="C133" s="0">
         <v>-47.450875281782182</v>
       </c>
+      <c r="D133" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
@@ -1554,6 +1957,9 @@
       <c r="C134" s="0">
         <v>-52.492353658841431</v>
       </c>
+      <c r="D134" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
@@ -1565,6 +1971,9 @@
       <c r="C135" s="0">
         <v>-46.535616508340141</v>
       </c>
+      <c r="D135" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
@@ -1576,6 +1985,9 @@
       <c r="C136" s="0">
         <v>-41.227397710973705</v>
       </c>
+      <c r="D136" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
@@ -1587,6 +1999,9 @@
       <c r="C137" s="0">
         <v>-38.090286143905708</v>
       </c>
+      <c r="D137" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
@@ -1598,6 +2013,9 @@
       <c r="C138" s="0">
         <v>-36.508792137480043</v>
       </c>
+      <c r="D138" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
@@ -1609,6 +2027,9 @@
       <c r="C139" s="0">
         <v>-35.818606701101373</v>
       </c>
+      <c r="D139" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
@@ -1620,6 +2041,9 @@
       <c r="C140" s="0">
         <v>-35.282503159742063</v>
       </c>
+      <c r="D140" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
@@ -1631,6 +2055,9 @@
       <c r="C141" s="0">
         <v>-35.295567676059079</v>
       </c>
+      <c r="D141" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
@@ -1642,6 +2069,9 @@
       <c r="C142" s="0">
         <v>-35.325513212215618</v>
       </c>
+      <c r="D142" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
@@ -1653,6 +2083,9 @@
       <c r="C143" s="0">
         <v>-35.123183514019921</v>
       </c>
+      <c r="D143" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
@@ -1664,6 +2097,9 @@
       <c r="C144" s="0">
         <v>-35.421408705707073</v>
       </c>
+      <c r="D144" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
@@ -1675,6 +2111,9 @@
       <c r="C145" s="0">
         <v>-35.463594538167165</v>
       </c>
+      <c r="D145" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
@@ -1686,6 +2125,9 @@
       <c r="C146" s="0">
         <v>-35.484747531497284</v>
       </c>
+      <c r="D146" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
@@ -1697,6 +2139,9 @@
       <c r="C147" s="0">
         <v>-35.757951557335367</v>
       </c>
+      <c r="D147" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
@@ -1708,6 +2153,9 @@
       <c r="C148" s="0">
         <v>-35.705801234778633</v>
       </c>
+      <c r="D148" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
@@ -1719,6 +2167,9 @@
       <c r="C149" s="0">
         <v>-35.876857620878155</v>
       </c>
+      <c r="D149" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
@@ -1730,6 +2181,9 @@
       <c r="C150" s="0">
         <v>-36.249627053088176</v>
       </c>
+      <c r="D150" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
@@ -1741,6 +2195,9 @@
       <c r="C151" s="0">
         <v>-36.273958262497231</v>
       </c>
+      <c r="D151" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
@@ -1752,6 +2209,9 @@
       <c r="C152" s="0">
         <v>-36.439554203250076</v>
       </c>
+      <c r="D152" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
@@ -1763,6 +2223,9 @@
       <c r="C153" s="0">
         <v>-36.782219595060127</v>
       </c>
+      <c r="D153" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
@@ -1774,6 +2237,9 @@
       <c r="C154" s="0">
         <v>-36.742092618387943</v>
       </c>
+      <c r="D154" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
@@ -1785,6 +2251,9 @@
       <c r="C155" s="0">
         <v>-37.043676209521301</v>
       </c>
+      <c r="D155" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
@@ -1796,6 +2265,9 @@
       <c r="C156" s="0">
         <v>-37.298931913901697</v>
       </c>
+      <c r="D156" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
@@ -1807,6 +2279,9 @@
       <c r="C157" s="0">
         <v>-37.324963680582997</v>
       </c>
+      <c r="D157" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
@@ -1818,6 +2293,9 @@
       <c r="C158" s="0">
         <v>-37.596519427356526</v>
       </c>
+      <c r="D158" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
@@ -1829,6 +2307,9 @@
       <c r="C159" s="0">
         <v>-37.59260521789281</v>
       </c>
+      <c r="D159" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
@@ -1840,6 +2321,9 @@
       <c r="C160" s="0">
         <v>-37.675664829172895</v>
       </c>
+      <c r="D160" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
@@ -1851,6 +2335,9 @@
       <c r="C161" s="0">
         <v>-37.861415439593564</v>
       </c>
+      <c r="D161" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
@@ -1862,6 +2349,9 @@
       <c r="C162" s="0">
         <v>-37.928712537988048</v>
       </c>
+      <c r="D162" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
@@ -1873,6 +2363,9 @@
       <c r="C163" s="0">
         <v>-38.221165122919764</v>
       </c>
+      <c r="D163" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
@@ -1884,6 +2377,9 @@
       <c r="C164" s="0">
         <v>-38.458323039246139</v>
       </c>
+      <c r="D164" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
@@ -1895,6 +2391,9 @@
       <c r="C165" s="0">
         <v>-38.295418146305551</v>
       </c>
+      <c r="D165" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
@@ -1906,6 +2405,9 @@
       <c r="C166" s="0">
         <v>-38.609627399395023</v>
       </c>
+      <c r="D166" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
@@ -1917,6 +2419,9 @@
       <c r="C167" s="0">
         <v>-38.457553268386448</v>
       </c>
+      <c r="D167" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
@@ -1928,6 +2433,9 @@
       <c r="C168" s="0">
         <v>-38.786523272407429</v>
       </c>
+      <c r="D168" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
@@ -1939,6 +2447,9 @@
       <c r="C169" s="0">
         <v>-38.989857551523073</v>
       </c>
+      <c r="D169" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
@@ -1950,6 +2461,9 @@
       <c r="C170" s="0">
         <v>-39.00811826264767</v>
       </c>
+      <c r="D170" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
@@ -1961,6 +2475,9 @@
       <c r="C171" s="0">
         <v>-39.214586239171084</v>
       </c>
+      <c r="D171" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
@@ -1972,6 +2489,9 @@
       <c r="C172" s="0">
         <v>-39.555346091839226</v>
       </c>
+      <c r="D172" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
@@ -1983,6 +2503,9 @@
       <c r="C173" s="0">
         <v>-39.609254209151786</v>
       </c>
+      <c r="D173" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
@@ -1994,6 +2517,9 @@
       <c r="C174" s="0">
         <v>-40.042164265447227</v>
       </c>
+      <c r="D174" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
@@ -2005,6 +2531,9 @@
       <c r="C175" s="0">
         <v>-40.108436224748161</v>
       </c>
+      <c r="D175" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
@@ -2016,6 +2545,9 @@
       <c r="C176" s="0">
         <v>-40.346787359656879</v>
       </c>
+      <c r="D176" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
@@ -2027,6 +2559,9 @@
       <c r="C177" s="0">
         <v>-40.539520548585998</v>
       </c>
+      <c r="D177" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
@@ -2038,6 +2573,9 @@
       <c r="C178" s="0">
         <v>-40.533749809393136</v>
       </c>
+      <c r="D178" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
@@ -2049,6 +2587,9 @@
       <c r="C179" s="0">
         <v>-40.714308354725887</v>
       </c>
+      <c r="D179" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
@@ -2060,6 +2601,9 @@
       <c r="C180" s="0">
         <v>-40.928737959159903</v>
       </c>
+      <c r="D180" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
@@ -2071,6 +2615,9 @@
       <c r="C181" s="0">
         <v>-40.911624959759763</v>
       </c>
+      <c r="D181" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
@@ -2082,6 +2629,9 @@
       <c r="C182" s="0">
         <v>-41.117665075064536</v>
       </c>
+      <c r="D182" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
@@ -2093,6 +2643,9 @@
       <c r="C183" s="0">
         <v>-41.049795599010665</v>
       </c>
+      <c r="D183" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
@@ -2104,6 +2657,9 @@
       <c r="C184" s="0">
         <v>-41.020336064884553</v>
       </c>
+      <c r="D184" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
@@ -2115,6 +2671,9 @@
       <c r="C185" s="0">
         <v>-41.362050375782395</v>
       </c>
+      <c r="D185" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
@@ -2126,6 +2685,9 @@
       <c r="C186" s="0">
         <v>-41.341895482338543</v>
       </c>
+      <c r="D186" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
@@ -2137,6 +2699,9 @@
       <c r="C187" s="0">
         <v>-41.381265309479723</v>
       </c>
+      <c r="D187" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
@@ -2148,6 +2713,9 @@
       <c r="C188" s="0">
         <v>-41.630155279636931</v>
       </c>
+      <c r="D188" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
@@ -2159,6 +2727,9 @@
       <c r="C189" s="0">
         <v>-41.455993402181548</v>
       </c>
+      <c r="D189" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
@@ -2170,6 +2741,9 @@
       <c r="C190" s="0">
         <v>-41.098664597940299</v>
       </c>
+      <c r="D190" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
@@ -2181,6 +2755,9 @@
       <c r="C191" s="0">
         <v>-41.38580727726341</v>
       </c>
+      <c r="D191" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
@@ -2192,6 +2769,9 @@
       <c r="C192" s="0">
         <v>-41.418218676949927</v>
       </c>
+      <c r="D192" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
@@ -2203,6 +2783,9 @@
       <c r="C193" s="0">
         <v>-41.262042334972108</v>
       </c>
+      <c r="D193" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
@@ -2214,6 +2797,9 @@
       <c r="C194" s="0">
         <v>-41.349057018825192</v>
       </c>
+      <c r="D194" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
@@ -2225,6 +2811,9 @@
       <c r="C195" s="0">
         <v>-41.366340207587101</v>
       </c>
+      <c r="D195" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
@@ -2236,6 +2825,9 @@
       <c r="C196" s="0">
         <v>-41.535066383442079</v>
       </c>
+      <c r="D196" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
@@ -2247,6 +2839,9 @@
       <c r="C197" s="0">
         <v>-41.477967380203786</v>
       </c>
+      <c r="D197" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
@@ -2258,6 +2853,9 @@
       <c r="C198" s="0">
         <v>-41.296342490476405</v>
       </c>
+      <c r="D198" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
@@ -2269,6 +2867,9 @@
       <c r="C199" s="0">
         <v>-41.231894904668003</v>
       </c>
+      <c r="D199" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
@@ -2280,6 +2881,9 @@
       <c r="C200" s="0">
         <v>-40.957673074354794</v>
       </c>
+      <c r="D200" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
@@ -2291,6 +2895,9 @@
       <c r="C201" s="0">
         <v>-41.116603694146278</v>
       </c>
+      <c r="D201" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
@@ -2302,6 +2909,9 @@
       <c r="C202" s="0">
         <v>-39.061586882160299</v>
       </c>
+      <c r="D202" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
@@ -2313,6 +2923,9 @@
       <c r="C203" s="0">
         <v>-39.037553841326577</v>
       </c>
+      <c r="D203" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
@@ -2324,6 +2937,9 @@
       <c r="C204" s="0">
         <v>-39.464190556828719</v>
       </c>
+      <c r="D204" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
@@ -2335,6 +2951,9 @@
       <c r="C205" s="0">
         <v>-39.445749911101991</v>
       </c>
+      <c r="D205" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
@@ -2346,6 +2965,9 @@
       <c r="C206" s="0">
         <v>-41.136518260915224</v>
       </c>
+      <c r="D206" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
@@ -2357,6 +2979,9 @@
       <c r="C207" s="0">
         <v>-41.36388182178051</v>
       </c>
+      <c r="D207" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
@@ -2368,6 +2993,9 @@
       <c r="C208" s="0">
         <v>-41.422322812592114</v>
       </c>
+      <c r="D208" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
@@ -2379,6 +3007,9 @@
       <c r="C209" s="0">
         <v>-41.48339402117336</v>
       </c>
+      <c r="D209" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
@@ -2390,6 +3021,9 @@
       <c r="C210" s="0">
         <v>-41.458440757256042</v>
       </c>
+      <c r="D210" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
@@ -2401,6 +3035,9 @@
       <c r="C211" s="0">
         <v>-41.190441937810235</v>
       </c>
+      <c r="D211" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
@@ -2412,6 +3049,9 @@
       <c r="C212" s="0">
         <v>-41.120274371927898</v>
       </c>
+      <c r="D212" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
@@ -2423,6 +3063,9 @@
       <c r="C213" s="0">
         <v>-41.190980246366919</v>
       </c>
+      <c r="D213" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
@@ -2434,6 +3077,9 @@
       <c r="C214" s="0">
         <v>-41.053878074120782</v>
       </c>
+      <c r="D214" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
@@ -2445,6 +3091,9 @@
       <c r="C215" s="0">
         <v>-41.399507232201941</v>
       </c>
+      <c r="D215" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
@@ -2456,6 +3105,9 @@
       <c r="C216" s="0">
         <v>-41.284339287406226</v>
       </c>
+      <c r="D216" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
@@ -2467,6 +3119,9 @@
       <c r="C217" s="0">
         <v>-41.414607032015951</v>
       </c>
+      <c r="D217" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
@@ -2478,6 +3133,9 @@
       <c r="C218" s="0">
         <v>-41.458289851749782</v>
       </c>
+      <c r="D218" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
@@ -2489,6 +3147,9 @@
       <c r="C219" s="0">
         <v>-41.399093488386718</v>
       </c>
+      <c r="D219" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
@@ -2500,6 +3161,9 @@
       <c r="C220" s="0">
         <v>-41.547213506239146</v>
       </c>
+      <c r="D220" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
@@ -2511,6 +3175,9 @@
       <c r="C221" s="0">
         <v>-41.668346380756816</v>
       </c>
+      <c r="D221" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
@@ -2522,6 +3189,9 @@
       <c r="C222" s="0">
         <v>-41.658790036160184</v>
       </c>
+      <c r="D222" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
@@ -2533,6 +3203,9 @@
       <c r="C223" s="0">
         <v>-41.695845501500195</v>
       </c>
+      <c r="D223" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
@@ -2544,6 +3217,9 @@
       <c r="C224" s="0">
         <v>-41.735515973805512</v>
       </c>
+      <c r="D224" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
@@ -2555,6 +3231,9 @@
       <c r="C225" s="0">
         <v>-41.995629695971417</v>
       </c>
+      <c r="D225" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
@@ -2566,6 +3245,9 @@
       <c r="C226" s="0">
         <v>-42.048606725596102</v>
       </c>
+      <c r="D226" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
@@ -2577,6 +3259,9 @@
       <c r="C227" s="0">
         <v>-42.102724777300118</v>
       </c>
+      <c r="D227" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
@@ -2588,6 +3273,9 @@
       <c r="C228" s="0">
         <v>-42.337242050795034</v>
       </c>
+      <c r="D228" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
@@ -2599,6 +3287,9 @@
       <c r="C229" s="0">
         <v>-42.380749561639277</v>
       </c>
+      <c r="D229" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
@@ -2610,6 +3301,9 @@
       <c r="C230" s="0">
         <v>-42.321506911294165</v>
       </c>
+      <c r="D230" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
@@ -2621,6 +3315,9 @@
       <c r="C231" s="0">
         <v>-42.572389602259292</v>
       </c>
+      <c r="D231" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
@@ -2632,6 +3329,9 @@
       <c r="C232" s="0">
         <v>-42.621749215065506</v>
       </c>
+      <c r="D232" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
@@ -2643,6 +3343,9 @@
       <c r="C233" s="0">
         <v>-42.645973809850858</v>
       </c>
+      <c r="D233" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
@@ -2654,6 +3357,9 @@
       <c r="C234" s="0">
         <v>-42.688345584602175</v>
       </c>
+      <c r="D234" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
@@ -2665,6 +3371,9 @@
       <c r="C235" s="0">
         <v>-42.645533383027939</v>
       </c>
+      <c r="D235" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
@@ -2676,6 +3385,9 @@
       <c r="C236" s="0">
         <v>-42.59678698432193</v>
       </c>
+      <c r="D236" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
@@ -2687,6 +3399,9 @@
       <c r="C237" s="0">
         <v>-42.775340431137813</v>
       </c>
+      <c r="D237" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
@@ -2698,6 +3413,9 @@
       <c r="C238" s="0">
         <v>-42.394458493490419</v>
       </c>
+      <c r="D238" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
@@ -2709,6 +3427,9 @@
       <c r="C239" s="0">
         <v>-42.402579237937445</v>
       </c>
+      <c r="D239" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
@@ -2720,6 +3441,9 @@
       <c r="C240" s="0">
         <v>-42.441723712104825</v>
       </c>
+      <c r="D240" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
@@ -2731,6 +3455,9 @@
       <c r="C241" s="0">
         <v>-42.325331161988345</v>
       </c>
+      <c r="D241" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
@@ -2742,6 +3469,9 @@
       <c r="C242" s="0">
         <v>-42.611857312842609</v>
       </c>
+      <c r="D242" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
@@ -2753,6 +3483,9 @@
       <c r="C243" s="0">
         <v>-42.412841651434043</v>
       </c>
+      <c r="D243" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
@@ -2764,6 +3497,9 @@
       <c r="C244" s="0">
         <v>-42.412633500209552</v>
       </c>
+      <c r="D244" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
@@ -2775,6 +3511,9 @@
       <c r="C245" s="0">
         <v>-42.580201494878843</v>
       </c>
+      <c r="D245" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
@@ -2786,6 +3525,9 @@
       <c r="C246" s="0">
         <v>-42.429589663883043</v>
       </c>
+      <c r="D246" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
@@ -2797,6 +3539,9 @@
       <c r="C247" s="0">
         <v>-42.136836001667753</v>
       </c>
+      <c r="D247" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
@@ -2808,6 +3553,9 @@
       <c r="C248" s="0">
         <v>-42.244136462051081</v>
       </c>
+      <c r="D248" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
@@ -2819,6 +3567,9 @@
       <c r="C249" s="0">
         <v>-42.112251758870649</v>
       </c>
+      <c r="D249" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
@@ -2830,6 +3581,9 @@
       <c r="C250" s="0">
         <v>-42.464965723538633</v>
       </c>
+      <c r="D250" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
@@ -2841,6 +3595,9 @@
       <c r="C251" s="0">
         <v>-42.343077004273752</v>
       </c>
+      <c r="D251" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
@@ -2852,6 +3609,9 @@
       <c r="C252" s="0">
         <v>-42.453188538038503</v>
       </c>
+      <c r="D252" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
@@ -2863,6 +3623,9 @@
       <c r="C253" s="0">
         <v>-42.475870091284364</v>
       </c>
+      <c r="D253" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
@@ -2874,6 +3637,9 @@
       <c r="C254" s="0">
         <v>-42.594542432547733</v>
       </c>
+      <c r="D254" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
@@ -2885,6 +3651,9 @@
       <c r="C255" s="0">
         <v>-42.56670380658506</v>
       </c>
+      <c r="D255" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
@@ -2896,6 +3665,9 @@
       <c r="C256" s="0">
         <v>-42.605989610867347</v>
       </c>
+      <c r="D256" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
@@ -2907,6 +3679,9 @@
       <c r="C257" s="0">
         <v>-42.590652633522254</v>
       </c>
+      <c r="D257" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
@@ -2918,6 +3693,9 @@
       <c r="C258" s="0">
         <v>-42.910013464422683</v>
       </c>
+      <c r="D258" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
@@ -2929,6 +3707,9 @@
       <c r="C259" s="0">
         <v>-42.968990377532485</v>
       </c>
+      <c r="D259" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
@@ -2940,6 +3721,9 @@
       <c r="C260" s="0">
         <v>-43.328872998499023</v>
       </c>
+      <c r="D260" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
@@ -2951,6 +3735,9 @@
       <c r="C261" s="0">
         <v>-43.59533723456515</v>
       </c>
+      <c r="D261" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
@@ -2962,6 +3749,9 @@
       <c r="C262" s="0">
         <v>-43.692947863443962</v>
       </c>
+      <c r="D262" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
@@ -2973,6 +3763,9 @@
       <c r="C263" s="0">
         <v>-43.834201012515834</v>
       </c>
+      <c r="D263" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
@@ -2984,6 +3777,9 @@
       <c r="C264" s="0">
         <v>-44.019490817388643</v>
       </c>
+      <c r="D264" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
@@ -2995,6 +3791,9 @@
       <c r="C265" s="0">
         <v>-44.081578615070299</v>
       </c>
+      <c r="D265" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
@@ -3006,6 +3805,9 @@
       <c r="C266" s="0">
         <v>-43.925626985325778</v>
       </c>
+      <c r="D266" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
@@ -3017,6 +3819,9 @@
       <c r="C267" s="0">
         <v>-44.41878134319191</v>
       </c>
+      <c r="D267" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
@@ -3028,6 +3833,9 @@
       <c r="C268" s="0">
         <v>-44.517469521716137</v>
       </c>
+      <c r="D268" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
@@ -3039,6 +3847,9 @@
       <c r="C269" s="0">
         <v>-44.955338514894635</v>
       </c>
+      <c r="D269" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
@@ -3050,6 +3861,9 @@
       <c r="C270" s="0">
         <v>-44.747441748340421</v>
       </c>
+      <c r="D270" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
@@ -3061,6 +3875,9 @@
       <c r="C271" s="0">
         <v>-45.145966671047972</v>
       </c>
+      <c r="D271" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
@@ -3072,6 +3889,9 @@
       <c r="C272" s="0">
         <v>-45.280949859013759</v>
       </c>
+      <c r="D272" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
@@ -3083,6 +3903,9 @@
       <c r="C273" s="0">
         <v>-44.989941997007961</v>
       </c>
+      <c r="D273" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
@@ -3094,6 +3917,9 @@
       <c r="C274" s="0">
         <v>-45.392164389794409</v>
       </c>
+      <c r="D274" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
@@ -3105,6 +3931,9 @@
       <c r="C275" s="0">
         <v>-45.431474239088921</v>
       </c>
+      <c r="D275" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
@@ -3116,6 +3945,9 @@
       <c r="C276" s="0">
         <v>-45.509570607785925</v>
       </c>
+      <c r="D276" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
@@ -3127,6 +3959,9 @@
       <c r="C277" s="0">
         <v>-45.789349084173246</v>
       </c>
+      <c r="D277" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
@@ -3138,6 +3973,9 @@
       <c r="C278" s="0">
         <v>-45.931105686943155</v>
       </c>
+      <c r="D278" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
@@ -3149,6 +3987,9 @@
       <c r="C279" s="0">
         <v>-45.83937760191219</v>
       </c>
+      <c r="D279" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
@@ -3160,6 +4001,9 @@
       <c r="C280" s="0">
         <v>-45.895353698828423</v>
       </c>
+      <c r="D280" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
@@ -3171,6 +4015,9 @@
       <c r="C281" s="0">
         <v>-45.800105750498503</v>
       </c>
+      <c r="D281" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
@@ -3182,6 +4029,9 @@
       <c r="C282" s="0">
         <v>-45.806715381822933</v>
       </c>
+      <c r="D282" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
@@ -3193,6 +4043,9 @@
       <c r="C283" s="0">
         <v>-46.168825435064804</v>
       </c>
+      <c r="D283" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
@@ -3204,6 +4057,9 @@
       <c r="C284" s="0">
         <v>-45.990977630884416</v>
       </c>
+      <c r="D284" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
@@ -3215,6 +4071,9 @@
       <c r="C285" s="0">
         <v>-45.716399920436821</v>
       </c>
+      <c r="D285" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
@@ -3226,6 +4085,9 @@
       <c r="C286" s="0">
         <v>-45.68215793696907</v>
       </c>
+      <c r="D286" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
@@ -3237,6 +4099,9 @@
       <c r="C287" s="0">
         <v>-45.72078654609146</v>
       </c>
+      <c r="D287" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
@@ -3248,6 +4113,9 @@
       <c r="C288" s="0">
         <v>-45.709610932386212</v>
       </c>
+      <c r="D288" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
@@ -3259,6 +4127,9 @@
       <c r="C289" s="0">
         <v>-45.777404785802489</v>
       </c>
+      <c r="D289" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
@@ -3270,6 +4141,9 @@
       <c r="C290" s="0">
         <v>-45.756912501134394</v>
       </c>
+      <c r="D290" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
@@ -3281,6 +4155,9 @@
       <c r="C291" s="0">
         <v>-46.068093239375607</v>
       </c>
+      <c r="D291" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
@@ -3292,6 +4169,9 @@
       <c r="C292" s="0">
         <v>-45.766943295274196</v>
       </c>
+      <c r="D292" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
@@ -3303,6 +4183,9 @@
       <c r="C293" s="0">
         <v>-45.81998725476204</v>
       </c>
+      <c r="D293" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
@@ -3314,6 +4197,9 @@
       <c r="C294" s="0">
         <v>-46.185229228738798</v>
       </c>
+      <c r="D294" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
@@ -3325,6 +4211,9 @@
       <c r="C295" s="0">
         <v>-46.202291378530163</v>
       </c>
+      <c r="D295" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
@@ -3336,6 +4225,9 @@
       <c r="C296" s="0">
         <v>-45.922641911740207</v>
       </c>
+      <c r="D296" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
@@ -3347,6 +4239,9 @@
       <c r="C297" s="0">
         <v>-45.710840949756061</v>
       </c>
+      <c r="D297" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
@@ -3358,6 +4253,9 @@
       <c r="C298" s="0">
         <v>-46.223151634560871</v>
       </c>
+      <c r="D298" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
@@ -3369,6 +4267,9 @@
       <c r="C299" s="0">
         <v>-46.450919518566486</v>
       </c>
+      <c r="D299" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
@@ -3380,6 +4281,9 @@
       <c r="C300" s="0">
         <v>-46.502117366465896</v>
       </c>
+      <c r="D300" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
@@ -3391,6 +4295,9 @@
       <c r="C301" s="0">
         <v>-46.164943161912795</v>
       </c>
+      <c r="D301" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
@@ -3402,6 +4309,9 @@
       <c r="C302" s="0">
         <v>-46.251679861243844</v>
       </c>
+      <c r="D302" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
@@ -3413,6 +4323,9 @@
       <c r="C303" s="0">
         <v>-45.903746416222752</v>
       </c>
+      <c r="D303" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
@@ -3424,6 +4337,9 @@
       <c r="C304" s="0">
         <v>-46.400374181612548</v>
       </c>
+      <c r="D304" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
@@ -3435,6 +4351,9 @@
       <c r="C305" s="0">
         <v>-46.593976043555486</v>
       </c>
+      <c r="D305" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
@@ -3446,6 +4365,9 @@
       <c r="C306" s="0">
         <v>-46.931382162666281</v>
       </c>
+      <c r="D306" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
@@ -3457,6 +4379,9 @@
       <c r="C307" s="0">
         <v>-47.019142963660492</v>
       </c>
+      <c r="D307" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
@@ -3468,6 +4393,9 @@
       <c r="C308" s="0">
         <v>-47.002742834157942</v>
       </c>
+      <c r="D308" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
@@ -3479,6 +4407,9 @@
       <c r="C309" s="0">
         <v>-47.564625495497133</v>
       </c>
+      <c r="D309" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
@@ -3490,6 +4421,9 @@
       <c r="C310" s="0">
         <v>-47.231545232477153</v>
       </c>
+      <c r="D310" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
@@ -3501,6 +4435,9 @@
       <c r="C311" s="0">
         <v>-47.449637480660122</v>
       </c>
+      <c r="D311" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
@@ -3512,6 +4449,9 @@
       <c r="C312" s="0">
         <v>-47.618278628108627</v>
       </c>
+      <c r="D312" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
@@ -3523,6 +4463,9 @@
       <c r="C313" s="0">
         <v>-47.840930839776547</v>
       </c>
+      <c r="D313" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
@@ -3534,6 +4477,9 @@
       <c r="C314" s="0">
         <v>-48.036513128647194</v>
       </c>
+      <c r="D314" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
@@ -3545,6 +4491,9 @@
       <c r="C315" s="0">
         <v>-48.135806983821908</v>
       </c>
+      <c r="D315" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
@@ -3556,6 +4505,9 @@
       <c r="C316" s="0">
         <v>-48.164156525139035</v>
       </c>
+      <c r="D316" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
@@ -3567,6 +4519,9 @@
       <c r="C317" s="0">
         <v>-48.413703514642052</v>
       </c>
+      <c r="D317" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
@@ -3578,6 +4533,9 @@
       <c r="C318" s="0">
         <v>-48.28896918321459</v>
       </c>
+      <c r="D318" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
@@ -3589,6 +4547,9 @@
       <c r="C319" s="0">
         <v>-48.677224520812892</v>
       </c>
+      <c r="D319" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
@@ -3600,6 +4561,9 @@
       <c r="C320" s="0">
         <v>-48.67562312847032</v>
       </c>
+      <c r="D320" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
@@ -3611,6 +4575,9 @@
       <c r="C321" s="0">
         <v>-49.161330777848143</v>
       </c>
+      <c r="D321" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
@@ -3622,6 +4589,9 @@
       <c r="C322" s="0">
         <v>-48.985060223608926</v>
       </c>
+      <c r="D322" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
@@ -3633,6 +4603,9 @@
       <c r="C323" s="0">
         <v>-48.829556236678314</v>
       </c>
+      <c r="D323" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
@@ -3644,6 +4617,9 @@
       <c r="C324" s="0">
         <v>-49.287703459176541</v>
       </c>
+      <c r="D324" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
@@ -3655,6 +4631,9 @@
       <c r="C325" s="0">
         <v>-49.273352631972088</v>
       </c>
+      <c r="D325" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
@@ -3666,6 +4645,9 @@
       <c r="C326" s="0">
         <v>-48.923174809583365</v>
       </c>
+      <c r="D326" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
@@ -3677,6 +4659,9 @@
       <c r="C327" s="0">
         <v>-48.540528856251228</v>
       </c>
+      <c r="D327" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
@@ -3688,6 +4673,9 @@
       <c r="C328" s="0">
         <v>-48.95585500106462</v>
       </c>
+      <c r="D328" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
@@ -3699,6 +4687,9 @@
       <c r="C329" s="0">
         <v>-49.026997407784087</v>
       </c>
+      <c r="D329" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
@@ -3710,6 +4701,9 @@
       <c r="C330" s="0">
         <v>-48.855794881905766</v>
       </c>
+      <c r="D330" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
@@ -3721,6 +4715,9 @@
       <c r="C331" s="0">
         <v>-48.580403596648708</v>
       </c>
+      <c r="D331" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
@@ -3732,6 +4729,9 @@
       <c r="C332" s="0">
         <v>-48.729616316838793</v>
       </c>
+      <c r="D332" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
@@ -3743,6 +4743,9 @@
       <c r="C333" s="0">
         <v>-48.582241058139395</v>
       </c>
+      <c r="D333" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
@@ -3754,6 +4757,9 @@
       <c r="C334" s="0">
         <v>-48.772270972714644</v>
       </c>
+      <c r="D334" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
@@ -3765,6 +4771,9 @@
       <c r="C335" s="0">
         <v>-48.771061637274912</v>
       </c>
+      <c r="D335" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
@@ -3776,6 +4785,9 @@
       <c r="C336" s="0">
         <v>-48.425124471892254</v>
       </c>
+      <c r="D336" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
@@ -3787,6 +4799,9 @@
       <c r="C337" s="0">
         <v>-48.207245643366178</v>
       </c>
+      <c r="D337" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
@@ -3798,6 +4813,9 @@
       <c r="C338" s="0">
         <v>-48.202235130760286</v>
       </c>
+      <c r="D338" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
@@ -3809,6 +4827,9 @@
       <c r="C339" s="0">
         <v>-48.382616625815217</v>
       </c>
+      <c r="D339" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
@@ -3820,6 +4841,9 @@
       <c r="C340" s="0">
         <v>-48.527753778277791</v>
       </c>
+      <c r="D340" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
@@ -3831,6 +4855,9 @@
       <c r="C341" s="0">
         <v>-48.229353476710692</v>
       </c>
+      <c r="D341" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
@@ -3842,6 +4869,9 @@
       <c r="C342" s="0">
         <v>-48.015229237047627</v>
       </c>
+      <c r="D342" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
@@ -3853,6 +4883,9 @@
       <c r="C343" s="0">
         <v>-47.853288426351355</v>
       </c>
+      <c r="D343" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
@@ -3864,6 +4897,9 @@
       <c r="C344" s="0">
         <v>-47.667043805514659</v>
       </c>
+      <c r="D344" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
@@ -3875,6 +4911,9 @@
       <c r="C345" s="0">
         <v>-47.484246831472049</v>
       </c>
+      <c r="D345" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
@@ -3886,6 +4925,9 @@
       <c r="C346" s="0">
         <v>-47.416465132642699</v>
       </c>
+      <c r="D346" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
@@ -3897,6 +4939,9 @@
       <c r="C347" s="0">
         <v>-46.952302117579912</v>
       </c>
+      <c r="D347" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
@@ -3908,6 +4953,9 @@
       <c r="C348" s="0">
         <v>-46.613785677967414</v>
       </c>
+      <c r="D348" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
@@ -3919,6 +4967,9 @@
       <c r="C349" s="0">
         <v>-46.32237814221569</v>
       </c>
+      <c r="D349" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
@@ -3930,6 +4981,9 @@
       <c r="C350" s="0">
         <v>-46.557867589835276</v>
       </c>
+      <c r="D350" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
@@ -3941,6 +4995,9 @@
       <c r="C351" s="0">
         <v>-46.529462469893971</v>
       </c>
+      <c r="D351" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
@@ -3952,6 +5009,9 @@
       <c r="C352" s="0">
         <v>-46.325224571422119</v>
       </c>
+      <c r="D352" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
@@ -3963,6 +5023,9 @@
       <c r="C353" s="0">
         <v>-46.196702025205177</v>
       </c>
+      <c r="D353" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
@@ -3974,6 +5037,9 @@
       <c r="C354" s="0">
         <v>-45.980843082146677</v>
       </c>
+      <c r="D354" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
@@ -3985,6 +5051,9 @@
       <c r="C355" s="0">
         <v>-45.921506535805037</v>
       </c>
+      <c r="D355" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
@@ -3996,6 +5065,9 @@
       <c r="C356" s="0">
         <v>-45.995624694904336</v>
       </c>
+      <c r="D356" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
@@ -4007,6 +5079,9 @@
       <c r="C357" s="0">
         <v>-45.8173230053673</v>
       </c>
+      <c r="D357" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
@@ -4018,6 +5093,9 @@
       <c r="C358" s="0">
         <v>-45.911072572588871</v>
       </c>
+      <c r="D358" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
@@ -4029,6 +5107,9 @@
       <c r="C359" s="0">
         <v>-46.11848966114249</v>
       </c>
+      <c r="D359" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
@@ -4040,6 +5121,9 @@
       <c r="C360" s="0">
         <v>-45.871614205650857</v>
       </c>
+      <c r="D360" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
@@ -4051,6 +5135,9 @@
       <c r="C361" s="0">
         <v>-45.873349979875975</v>
       </c>
+      <c r="D361" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
@@ -4062,6 +5149,9 @@
       <c r="C362" s="0">
         <v>-46.106427314479106</v>
       </c>
+      <c r="D362" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
@@ -4073,6 +5163,9 @@
       <c r="C363" s="0">
         <v>-46.088061459865287</v>
       </c>
+      <c r="D363" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
@@ -4084,6 +5177,9 @@
       <c r="C364" s="0">
         <v>-46.458624572487011</v>
       </c>
+      <c r="D364" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
@@ -4095,6 +5191,9 @@
       <c r="C365" s="0">
         <v>-46.264773967239215</v>
       </c>
+      <c r="D365" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
@@ -4106,6 +5205,9 @@
       <c r="C366" s="0">
         <v>-46.450305012806922</v>
       </c>
+      <c r="D366" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
@@ -4117,6 +5219,9 @@
       <c r="C367" s="0">
         <v>-46.417493481640079</v>
       </c>
+      <c r="D367" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
@@ -4128,6 +5233,9 @@
       <c r="C368" s="0">
         <v>-46.299434528290078</v>
       </c>
+      <c r="D368" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
@@ -4139,6 +5247,9 @@
       <c r="C369" s="0">
         <v>-46.359830801355713</v>
       </c>
+      <c r="D369" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
@@ -4150,6 +5261,9 @@
       <c r="C370" s="0">
         <v>-46.16890852433248</v>
       </c>
+      <c r="D370" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
@@ -4161,6 +5275,9 @@
       <c r="C371" s="0">
         <v>-46.028853233505636</v>
       </c>
+      <c r="D371" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
@@ -4172,6 +5289,9 @@
       <c r="C372" s="0">
         <v>-46.330125003324952</v>
       </c>
+      <c r="D372" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
@@ -4183,6 +5303,9 @@
       <c r="C373" s="0">
         <v>-46.370349834974299</v>
       </c>
+      <c r="D373" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
@@ -4194,6 +5317,9 @@
       <c r="C374" s="0">
         <v>-45.958273624053554</v>
       </c>
+      <c r="D374" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
@@ -4205,6 +5331,9 @@
       <c r="C375" s="0">
         <v>-46.121614405262392</v>
       </c>
+      <c r="D375" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
@@ -4216,6 +5345,9 @@
       <c r="C376" s="0">
         <v>-46.491718560317906</v>
       </c>
+      <c r="D376" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
@@ -4227,6 +5359,9 @@
       <c r="C377" s="0">
         <v>-46.23098034580061</v>
       </c>
+      <c r="D377" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
@@ -4238,6 +5373,9 @@
       <c r="C378" s="0">
         <v>-46.618991874732679</v>
       </c>
+      <c r="D378" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
@@ -4249,6 +5387,9 @@
       <c r="C379" s="0">
         <v>-46.544180084833499</v>
       </c>
+      <c r="D379" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
@@ -4260,6 +5401,9 @@
       <c r="C380" s="0">
         <v>-46.791301544072937</v>
       </c>
+      <c r="D380" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
@@ -4271,6 +5415,9 @@
       <c r="C381" s="0">
         <v>-46.883700430291071</v>
       </c>
+      <c r="D381" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
@@ -4282,6 +5429,9 @@
       <c r="C382" s="0">
         <v>-47.101002733058067</v>
       </c>
+      <c r="D382" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
@@ -4293,6 +5443,9 @@
       <c r="C383" s="0">
         <v>-47.579216799379573</v>
       </c>
+      <c r="D383" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
@@ -4304,6 +5457,9 @@
       <c r="C384" s="0">
         <v>-47.984656172653814</v>
       </c>
+      <c r="D384" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
@@ -4315,6 +5471,9 @@
       <c r="C385" s="0">
         <v>-48.410560082799073</v>
       </c>
+      <c r="D385" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
@@ -4326,6 +5485,9 @@
       <c r="C386" s="0">
         <v>-48.177239443729157</v>
       </c>
+      <c r="D386" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
@@ -4337,6 +5499,9 @@
       <c r="C387" s="0">
         <v>-48.572189990551124</v>
       </c>
+      <c r="D387" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
@@ -4348,6 +5513,9 @@
       <c r="C388" s="0">
         <v>-49.221567613181605</v>
       </c>
+      <c r="D388" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
@@ -4359,6 +5527,9 @@
       <c r="C389" s="0">
         <v>-49.376740003286208</v>
       </c>
+      <c r="D389" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
@@ -4370,6 +5541,9 @@
       <c r="C390" s="0">
         <v>-49.657516446103649</v>
       </c>
+      <c r="D390" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
@@ -4381,6 +5555,9 @@
       <c r="C391" s="0">
         <v>-50.529093358301516</v>
       </c>
+      <c r="D391" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
@@ -4392,6 +5569,9 @@
       <c r="C392" s="0">
         <v>-51.004565953240657</v>
       </c>
+      <c r="D392" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
@@ -4403,6 +5583,9 @@
       <c r="C393" s="0">
         <v>-50.802147824507429</v>
       </c>
+      <c r="D393" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
@@ -4414,6 +5597,9 @@
       <c r="C394" s="0">
         <v>-51.549129955002712</v>
       </c>
+      <c r="D394" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
@@ -4425,6 +5611,9 @@
       <c r="C395" s="0">
         <v>-50.926178554267651</v>
       </c>
+      <c r="D395" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
@@ -4436,6 +5625,9 @@
       <c r="C396" s="0">
         <v>-51.457009941291062</v>
       </c>
+      <c r="D396" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
@@ -4447,6 +5639,9 @@
       <c r="C397" s="0">
         <v>-52.081238478290068</v>
       </c>
+      <c r="D397" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
@@ -4458,6 +5653,9 @@
       <c r="C398" s="0">
         <v>-52.205909540291614</v>
       </c>
+      <c r="D398" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
@@ -4469,6 +5667,9 @@
       <c r="C399" s="0">
         <v>-52.27735630425898</v>
       </c>
+      <c r="D399" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
@@ -4480,6 +5681,9 @@
       <c r="C400" s="0">
         <v>-52.782020168768781</v>
       </c>
+      <c r="D400" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
@@ -4491,6 +5695,9 @@
       <c r="C401" s="0">
         <v>-52.369729498008766</v>
       </c>
+      <c r="D401" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
@@ -4502,6 +5709,9 @@
       <c r="C402" s="0">
         <v>-51.295265741340963</v>
       </c>
+      <c r="D402" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
@@ -4513,6 +5723,9 @@
       <c r="C403" s="0">
         <v>-51.683595318458856</v>
       </c>
+      <c r="D403" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
@@ -4524,6 +5737,9 @@
       <c r="C404" s="0">
         <v>-52.647501864246735</v>
       </c>
+      <c r="D404" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
@@ -4535,6 +5751,9 @@
       <c r="C405" s="0">
         <v>-53.241209508250613</v>
       </c>
+      <c r="D405" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
@@ -4546,6 +5765,9 @@
       <c r="C406" s="0">
         <v>-55.33215774849068</v>
       </c>
+      <c r="D406" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
@@ -4557,6 +5779,9 @@
       <c r="C407" s="0">
         <v>-57.164013658689527</v>
       </c>
+      <c r="D407" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
@@ -4568,6 +5793,9 @@
       <c r="C408" s="0">
         <v>-57.88837478931093</v>
       </c>
+      <c r="D408" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
@@ -4579,6 +5807,9 @@
       <c r="C409" s="0">
         <v>-58.932683391648666</v>
       </c>
+      <c r="D409" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
@@ -4590,6 +5821,9 @@
       <c r="C410" s="0">
         <v>-58.268829024975695</v>
       </c>
+      <c r="D410" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
@@ -4601,6 +5835,9 @@
       <c r="C411" s="0">
         <v>-59.123907638125964</v>
       </c>
+      <c r="D411" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
@@ -4612,6 +5849,9 @@
       <c r="C412" s="0">
         <v>-59.646337902440237</v>
       </c>
+      <c r="D412" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
@@ -4623,6 +5863,9 @@
       <c r="C413" s="0">
         <v>-62.015779154230032</v>
       </c>
+      <c r="D413" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
@@ -4634,6 +5877,9 @@
       <c r="C414" s="0">
         <v>-60.34229061063531</v>
       </c>
+      <c r="D414" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
@@ -4645,6 +5891,9 @@
       <c r="C415" s="0">
         <v>-57.663761184332259</v>
       </c>
+      <c r="D415" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
@@ -4656,6 +5905,9 @@
       <c r="C416" s="0">
         <v>-60.258121855104001</v>
       </c>
+      <c r="D416" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
@@ -4667,6 +5919,9 @@
       <c r="C417" s="0">
         <v>-58.74186234665062</v>
       </c>
+      <c r="D417" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
@@ -4678,6 +5933,9 @@
       <c r="C418" s="0">
         <v>-58.997591131263391</v>
       </c>
+      <c r="D418" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
@@ -4689,6 +5947,9 @@
       <c r="C419" s="0">
         <v>-57.986130083372636</v>
       </c>
+      <c r="D419" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
@@ -4700,6 +5961,9 @@
       <c r="C420" s="0">
         <v>-59.109693188943268</v>
       </c>
+      <c r="D420" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
@@ -4711,6 +5975,9 @@
       <c r="C421" s="0">
         <v>-58.486747766289511</v>
       </c>
+      <c r="D421" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
@@ -4722,6 +5989,9 @@
       <c r="C422" s="0">
         <v>-58.488654978422815</v>
       </c>
+      <c r="D422" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
@@ -4733,6 +6003,9 @@
       <c r="C423" s="0">
         <v>-57.87882981361097</v>
       </c>
+      <c r="D423" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
@@ -4744,6 +6017,9 @@
       <c r="C424" s="0">
         <v>-57.577713938511188</v>
       </c>
+      <c r="D424" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
@@ -4755,6 +6031,9 @@
       <c r="C425" s="0">
         <v>-57.648368377596732</v>
       </c>
+      <c r="D425" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
@@ -4766,6 +6045,9 @@
       <c r="C426" s="0">
         <v>-56.24443151573481</v>
       </c>
+      <c r="D426" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
@@ -4777,6 +6059,9 @@
       <c r="C427" s="0">
         <v>-57.56405342453818</v>
       </c>
+      <c r="D427" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
@@ -4788,6 +6073,9 @@
       <c r="C428" s="0">
         <v>-57.609375820153531</v>
       </c>
+      <c r="D428" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
@@ -4799,6 +6087,9 @@
       <c r="C429" s="0">
         <v>-58.143817010621831</v>
       </c>
+      <c r="D429" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
@@ -4810,6 +6101,9 @@
       <c r="C430" s="0">
         <v>-57.907784242703769</v>
       </c>
+      <c r="D430" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
@@ -4821,6 +6115,9 @@
       <c r="C431" s="0">
         <v>-58.188918119965223</v>
       </c>
+      <c r="D431" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
@@ -4832,6 +6129,9 @@
       <c r="C432" s="0">
         <v>-59.060664757544984</v>
       </c>
+      <c r="D432" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
@@ -4843,6 +6143,9 @@
       <c r="C433" s="0">
         <v>-58.664866213945601</v>
       </c>
+      <c r="D433" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
@@ -4854,6 +6157,9 @@
       <c r="C434" s="0">
         <v>-59.275546591642048</v>
       </c>
+      <c r="D434" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
@@ -4865,6 +6171,9 @@
       <c r="C435" s="0">
         <v>-59.158114970439456</v>
       </c>
+      <c r="D435" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
@@ -4876,6 +6185,9 @@
       <c r="C436" s="0">
         <v>-59.133977665576225</v>
       </c>
+      <c r="D436" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
@@ -4887,6 +6199,9 @@
       <c r="C437" s="0">
         <v>-58.868907784274697</v>
       </c>
+      <c r="D437" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
@@ -4898,6 +6213,9 @@
       <c r="C438" s="0">
         <v>-57.627037395292213</v>
       </c>
+      <c r="D438" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
@@ -4909,6 +6227,9 @@
       <c r="C439" s="0">
         <v>-59.523245230878246</v>
       </c>
+      <c r="D439" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
@@ -4920,6 +6241,9 @@
       <c r="C440" s="0">
         <v>-58.468142482789425</v>
       </c>
+      <c r="D440" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
@@ -4931,6 +6255,9 @@
       <c r="C441" s="0">
         <v>-58.254247511473579</v>
       </c>
+      <c r="D441" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
@@ -4942,6 +6269,9 @@
       <c r="C442" s="0">
         <v>-57.366203329108536</v>
       </c>
+      <c r="D442" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
@@ -4953,6 +6283,9 @@
       <c r="C443" s="0">
         <v>-56.221778520643433</v>
       </c>
+      <c r="D443" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
@@ -4964,6 +6297,9 @@
       <c r="C444" s="0">
         <v>-56.277760797014203</v>
       </c>
+      <c r="D444" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
@@ -4975,6 +6311,9 @@
       <c r="C445" s="0">
         <v>-56.319329035033775</v>
       </c>
+      <c r="D445" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
@@ -4986,6 +6325,9 @@
       <c r="C446" s="0">
         <v>-57.095576669732679</v>
       </c>
+      <c r="D446" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
@@ -4997,6 +6339,9 @@
       <c r="C447" s="0">
         <v>-57.293513762943924</v>
       </c>
+      <c r="D447" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
@@ -5008,6 +6353,9 @@
       <c r="C448" s="0">
         <v>-60.475783222904163</v>
       </c>
+      <c r="D448" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
@@ -5019,6 +6367,9 @@
       <c r="C449" s="0">
         <v>-57.760031750912155</v>
       </c>
+      <c r="D449" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
@@ -5030,6 +6381,9 @@
       <c r="C450" s="0">
         <v>-60.123138737398499</v>
       </c>
+      <c r="D450" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
@@ -5041,6 +6395,9 @@
       <c r="C451" s="0">
         <v>-60.692522777095334</v>
       </c>
+      <c r="D451" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
@@ -5052,6 +6409,9 @@
       <c r="C452" s="0">
         <v>-61.277275178204548</v>
       </c>
+      <c r="D452" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
@@ -5063,6 +6423,9 @@
       <c r="C453" s="0">
         <v>-62.909128507831554</v>
       </c>
+      <c r="D453" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
@@ -5074,6 +6437,9 @@
       <c r="C454" s="0">
         <v>-63.189946468965566</v>
       </c>
+      <c r="D454" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
@@ -5085,6 +6451,9 @@
       <c r="C455" s="0">
         <v>-64.704318942987712</v>
       </c>
+      <c r="D455" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
@@ -5096,6 +6465,9 @@
       <c r="C456" s="0">
         <v>-64.880595884708853</v>
       </c>
+      <c r="D456" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
@@ -5107,6 +6479,9 @@
       <c r="C457" s="0">
         <v>-65.441570339402972</v>
       </c>
+      <c r="D457" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
@@ -5118,6 +6493,9 @@
       <c r="C458" s="0">
         <v>-65.609211605048515</v>
       </c>
+      <c r="D458" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
@@ -5129,6 +6507,9 @@
       <c r="C459" s="0">
         <v>-63.321414796429849</v>
       </c>
+      <c r="D459" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
@@ -5140,6 +6521,9 @@
       <c r="C460" s="0">
         <v>-63.610252966041344</v>
       </c>
+      <c r="D460" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
@@ -5151,6 +6535,9 @@
       <c r="C461" s="0">
         <v>-60.765111055764919</v>
       </c>
+      <c r="D461" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
@@ -5162,6 +6549,9 @@
       <c r="C462" s="0">
         <v>-59.892470974537588</v>
       </c>
+      <c r="D462" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
@@ -5173,6 +6563,9 @@
       <c r="C463" s="0">
         <v>-60.79363100177379</v>
       </c>
+      <c r="D463" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
@@ -5184,6 +6577,9 @@
       <c r="C464" s="0">
         <v>-60.601314821029263</v>
       </c>
+      <c r="D464" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
@@ -5195,6 +6591,9 @@
       <c r="C465" s="0">
         <v>-59.814061868727094</v>
       </c>
+      <c r="D465" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
@@ -5206,6 +6605,9 @@
       <c r="C466" s="0">
         <v>-61.272103535489968</v>
       </c>
+      <c r="D466" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
@@ -5217,6 +6619,9 @@
       <c r="C467" s="0">
         <v>-59.868994109032045</v>
       </c>
+      <c r="D467" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
@@ -5228,6 +6633,9 @@
       <c r="C468" s="0">
         <v>-62.809952805512815</v>
       </c>
+      <c r="D468" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
@@ -5239,6 +6647,9 @@
       <c r="C469" s="0">
         <v>-61.539037112624165</v>
       </c>
+      <c r="D469" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
@@ -5250,6 +6661,9 @@
       <c r="C470" s="0">
         <v>-63.199611319260697</v>
       </c>
+      <c r="D470" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
@@ -5261,6 +6675,9 @@
       <c r="C471" s="0">
         <v>-64.303329210573168</v>
       </c>
+      <c r="D471" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
@@ -5272,6 +6689,9 @@
       <c r="C472" s="0">
         <v>-63.202149120764346</v>
       </c>
+      <c r="D472" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
@@ -5283,6 +6703,9 @@
       <c r="C473" s="0">
         <v>-64.142652133533232</v>
       </c>
+      <c r="D473" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
@@ -5294,6 +6717,9 @@
       <c r="C474" s="0">
         <v>-66.241762152891937</v>
       </c>
+      <c r="D474" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
@@ -5305,6 +6731,9 @@
       <c r="C475" s="0">
         <v>-67.24742170954714</v>
       </c>
+      <c r="D475" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
@@ -5316,6 +6745,9 @@
       <c r="C476" s="0">
         <v>-65.104965597465679</v>
       </c>
+      <c r="D476" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
@@ -5327,6 +6759,9 @@
       <c r="C477" s="0">
         <v>-68.366437077886189</v>
       </c>
+      <c r="D477" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
@@ -5338,6 +6773,9 @@
       <c r="C478" s="0">
         <v>-64.1769317089541</v>
       </c>
+      <c r="D478" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
@@ -5349,6 +6787,9 @@
       <c r="C479" s="0">
         <v>-65.713142971987054</v>
       </c>
+      <c r="D479" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
@@ -5360,6 +6801,9 @@
       <c r="C480" s="0">
         <v>-65.184715013430363</v>
       </c>
+      <c r="D480" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
@@ -5371,6 +6815,9 @@
       <c r="C481" s="0">
         <v>-61.976045680315238</v>
       </c>
+      <c r="D481" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
@@ -5382,6 +6829,9 @@
       <c r="C482" s="0">
         <v>-64.826801197757106</v>
       </c>
+      <c r="D482" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
@@ -5393,6 +6843,9 @@
       <c r="C483" s="0">
         <v>-65.83139527236483</v>
       </c>
+      <c r="D483" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
@@ -5404,6 +6857,9 @@
       <c r="C484" s="0">
         <v>-64.106222668890382</v>
       </c>
+      <c r="D484" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
@@ -5415,6 +6871,9 @@
       <c r="C485" s="0">
         <v>-66.88446677434942</v>
       </c>
+      <c r="D485" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
@@ -5426,6 +6885,9 @@
       <c r="C486" s="0">
         <v>-66.631773454522062</v>
       </c>
+      <c r="D486" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
@@ -5437,6 +6899,9 @@
       <c r="C487" s="0">
         <v>-68.248332269445086</v>
       </c>
+      <c r="D487" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
@@ -5448,6 +6913,9 @@
       <c r="C488" s="0">
         <v>-72.163781049697036</v>
       </c>
+      <c r="D488" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
@@ -5459,6 +6927,9 @@
       <c r="C489" s="0">
         <v>-71.040558944968183</v>
       </c>
+      <c r="D489" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
@@ -5470,6 +6941,9 @@
       <c r="C490" s="0">
         <v>-68.999905493271129</v>
       </c>
+      <c r="D490" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
@@ -5481,6 +6955,9 @@
       <c r="C491" s="0">
         <v>-76.900198904320703</v>
       </c>
+      <c r="D491" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
@@ -5492,6 +6969,9 @@
       <c r="C492" s="0">
         <v>-73.945178303720581</v>
       </c>
+      <c r="D492" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
@@ -5503,6 +6983,9 @@
       <c r="C493" s="0">
         <v>-77.270268683878641</v>
       </c>
+      <c r="D493" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
@@ -5514,6 +6997,9 @@
       <c r="C494" s="0">
         <v>-72.706874225309448</v>
       </c>
+      <c r="D494" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
@@ -5525,6 +7011,9 @@
       <c r="C495" s="0">
         <v>-79.271531386241662</v>
       </c>
+      <c r="D495" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
@@ -5536,6 +7025,9 @@
       <c r="C496" s="0">
         <v>-73.976945198916624</v>
       </c>
+      <c r="D496" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
@@ -5547,6 +7039,9 @@
       <c r="C497" s="0">
         <v>-72.605763468300367</v>
       </c>
+      <c r="D497" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
@@ -5558,6 +7053,9 @@
       <c r="C498" s="0">
         <v>-75.37308248468355</v>
       </c>
+      <c r="D498" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
@@ -5569,6 +7067,9 @@
       <c r="C499" s="0">
         <v>-70.568316611826191</v>
       </c>
+      <c r="D499" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
@@ -5580,6 +7081,9 @@
       <c r="C500" s="0">
         <v>-80.802698291348065</v>
       </c>
+      <c r="D500" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
@@ -5591,6 +7095,9 @@
       <c r="C501" s="0">
         <v>-72.729953181029273</v>
       </c>
+      <c r="D501" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
@@ -5602,6 +7109,9 @@
       <c r="C502" s="0">
         <v>-72.089790305378415</v>
       </c>
+      <c r="D502" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
@@ -5613,6 +7123,9 @@
       <c r="C503" s="0">
         <v>-75.811247730816007</v>
       </c>
+      <c r="D503" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
@@ -5624,6 +7137,9 @@
       <c r="C504" s="0">
         <v>-72.810854547746885</v>
       </c>
+      <c r="D504" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
@@ -5635,6 +7151,9 @@
       <c r="C505" s="0">
         <v>-68.264679176043231</v>
       </c>
+      <c r="D505" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
@@ -5646,6 +7165,9 @@
       <c r="C506" s="0">
         <v>-74.964470371181363</v>
       </c>
+      <c r="D506" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
@@ -5657,6 +7179,9 @@
       <c r="C507" s="0">
         <v>-76.276804398426336</v>
       </c>
+      <c r="D507" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
@@ -5668,6 +7193,9 @@
       <c r="C508" s="0">
         <v>-91.317197044665136</v>
       </c>
+      <c r="D508" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
@@ -5679,6 +7207,9 @@
       <c r="C509" s="0">
         <v>-74.514249465354425</v>
       </c>
+      <c r="D509" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
@@ -5690,6 +7221,9 @@
       <c r="C510" s="0">
         <v>-82.054052224540072</v>
       </c>
+      <c r="D510" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
@@ -5701,6 +7235,9 @@
       <c r="C511" s="0">
         <v>-73.585571204123866</v>
       </c>
+      <c r="D511" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
@@ -5712,6 +7249,9 @@
       <c r="C512" s="0">
         <v>-75.695338130782787</v>
       </c>
+      <c r="D512" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
@@ -5723,6 +7263,9 @@
       <c r="C513" s="0">
         <v>-80.958197364021615</v>
       </c>
+      <c r="D513" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
@@ -5734,6 +7277,9 @@
       <c r="C514" s="0">
         <v>-83.242786571932385</v>
       </c>
+      <c r="D514" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
@@ -5745,6 +7291,9 @@
       <c r="C515" s="0">
         <v>-69.082430555141343</v>
       </c>
+      <c r="D515" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
@@ -5756,6 +7305,9 @@
       <c r="C516" s="0">
         <v>-76.016041664748357</v>
       </c>
+      <c r="D516" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
@@ -5767,6 +7319,9 @@
       <c r="C517" s="0">
         <v>-70.972594762948447</v>
       </c>
+      <c r="D517" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
@@ -5778,6 +7333,9 @@
       <c r="C518" s="0">
         <v>-70.368147600980237</v>
       </c>
+      <c r="D518" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
@@ -5789,6 +7347,9 @@
       <c r="C519" s="0">
         <v>-68.052716870553127</v>
       </c>
+      <c r="D519" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
@@ -5800,6 +7361,9 @@
       <c r="C520" s="0">
         <v>-67.277346836819277</v>
       </c>
+      <c r="D520" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
@@ -5811,6 +7375,9 @@
       <c r="C521" s="0">
         <v>-67.163861575150221</v>
       </c>
+      <c r="D521" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
@@ -5822,6 +7389,9 @@
       <c r="C522" s="0">
         <v>-68.361073787604155</v>
       </c>
+      <c r="D522" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
@@ -5833,6 +7403,9 @@
       <c r="C523" s="0">
         <v>-69.322810146455225</v>
       </c>
+      <c r="D523" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
@@ -5844,6 +7417,9 @@
       <c r="C524" s="0">
         <v>-70.444931103570696</v>
       </c>
+      <c r="D524" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
@@ -5855,6 +7431,9 @@
       <c r="C525" s="0">
         <v>-72.897011785928356</v>
       </c>
+      <c r="D525" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
@@ -5866,6 +7445,9 @@
       <c r="C526" s="0">
         <v>-72.060612566024588</v>
       </c>
+      <c r="D526" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
@@ -5877,6 +7459,9 @@
       <c r="C527" s="0">
         <v>-82.765047419681096</v>
       </c>
+      <c r="D527" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
@@ -5888,6 +7473,9 @@
       <c r="C528" s="0">
         <v>-71.992408629754522</v>
       </c>
+      <c r="D528" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
@@ -5899,6 +7487,9 @@
       <c r="C529" s="0">
         <v>-70.256248574653043</v>
       </c>
+      <c r="D529" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
@@ -5910,6 +7501,9 @@
       <c r="C530" s="0">
         <v>-71.866633956115407</v>
       </c>
+      <c r="D530" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
@@ -5921,6 +7515,9 @@
       <c r="C531" s="0">
         <v>-73.90269425345528</v>
       </c>
+      <c r="D531" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
@@ -5932,6 +7529,9 @@
       <c r="C532" s="0">
         <v>-70.254312125359846</v>
       </c>
+      <c r="D532" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
@@ -5943,6 +7543,9 @@
       <c r="C533" s="0">
         <v>-77.533453379686335</v>
       </c>
+      <c r="D533" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
@@ -5954,6 +7557,9 @@
       <c r="C534" s="0">
         <v>-69.067645167640578</v>
       </c>
+      <c r="D534" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
@@ -5965,6 +7571,9 @@
       <c r="C535" s="0">
         <v>-73.292715913780498</v>
       </c>
+      <c r="D535" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
@@ -5976,6 +7585,9 @@
       <c r="C536" s="0">
         <v>-70.983714641196627</v>
       </c>
+      <c r="D536" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
@@ -5987,6 +7599,9 @@
       <c r="C537" s="0">
         <v>-68.139876275091197</v>
       </c>
+      <c r="D537" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
@@ -5998,6 +7613,9 @@
       <c r="C538" s="0">
         <v>-69.164982713979299</v>
       </c>
+      <c r="D538" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
@@ -6009,6 +7627,9 @@
       <c r="C539" s="0">
         <v>-68.043581405972716</v>
       </c>
+      <c r="D539" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
@@ -6020,6 +7641,9 @@
       <c r="C540" s="0">
         <v>-67.281444623864488</v>
       </c>
+      <c r="D540" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
@@ -6031,6 +7655,9 @@
       <c r="C541" s="0">
         <v>-66.297292620716604</v>
       </c>
+      <c r="D541" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
@@ -6042,6 +7669,9 @@
       <c r="C542" s="0">
         <v>-72.60897504414568</v>
       </c>
+      <c r="D542" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
@@ -6053,6 +7683,9 @@
       <c r="C543" s="0">
         <v>-73.349348962369987</v>
       </c>
+      <c r="D543" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
@@ -6064,6 +7697,9 @@
       <c r="C544" s="0">
         <v>-66.534071077416428</v>
       </c>
+      <c r="D544" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
@@ -6075,6 +7711,9 @@
       <c r="C545" s="0">
         <v>-70.318953777782426</v>
       </c>
+      <c r="D545" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
@@ -6086,6 +7725,9 @@
       <c r="C546" s="0">
         <v>-68.783115836940027</v>
       </c>
+      <c r="D546" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
@@ -6097,6 +7739,9 @@
       <c r="C547" s="0">
         <v>-70.162284335199757</v>
       </c>
+      <c r="D547" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
@@ -6108,6 +7753,9 @@
       <c r="C548" s="0">
         <v>-67.843188221355973</v>
       </c>
+      <c r="D548" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
@@ -6119,6 +7767,9 @@
       <c r="C549" s="0">
         <v>-65.074705905538011</v>
       </c>
+      <c r="D549" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
@@ -6130,6 +7781,9 @@
       <c r="C550" s="0">
         <v>-66.424464548761023</v>
       </c>
+      <c r="D550" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
@@ -6141,6 +7795,9 @@
       <c r="C551" s="0">
         <v>-67.352168523558447</v>
       </c>
+      <c r="D551" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
@@ -6152,6 +7809,9 @@
       <c r="C552" s="0">
         <v>-67.362752035747448</v>
       </c>
+      <c r="D552" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
@@ -6163,6 +7823,9 @@
       <c r="C553" s="0">
         <v>-66.584532491955827</v>
       </c>
+      <c r="D553" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
@@ -6174,6 +7837,9 @@
       <c r="C554" s="0">
         <v>-66.201148778106273</v>
       </c>
+      <c r="D554" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
@@ -6185,6 +7851,9 @@
       <c r="C555" s="0">
         <v>-67.935820974166163</v>
       </c>
+      <c r="D555" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
@@ -6196,6 +7865,9 @@
       <c r="C556" s="0">
         <v>-68.258419030692039</v>
       </c>
+      <c r="D556" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
@@ -6207,6 +7879,9 @@
       <c r="C557" s="0">
         <v>-67.743743189408249</v>
       </c>
+      <c r="D557" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
@@ -6218,6 +7893,9 @@
       <c r="C558" s="0">
         <v>-65.642557015060902</v>
       </c>
+      <c r="D558" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
@@ -6229,6 +7907,9 @@
       <c r="C559" s="0">
         <v>-69.147124571955572</v>
       </c>
+      <c r="D559" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
@@ -6240,6 +7921,9 @@
       <c r="C560" s="0">
         <v>-78.087585122142812</v>
       </c>
+      <c r="D560" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
@@ -6251,6 +7935,9 @@
       <c r="C561" s="0">
         <v>-68.954033129668474</v>
       </c>
+      <c r="D561" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
@@ -6262,6 +7949,9 @@
       <c r="C562" s="0">
         <v>-67.435108995504166</v>
       </c>
+      <c r="D562" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
@@ -6273,6 +7963,9 @@
       <c r="C563" s="0">
         <v>-71.284224617407318</v>
       </c>
+      <c r="D563" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
@@ -6284,6 +7977,9 @@
       <c r="C564" s="0">
         <v>-67.035383192404112</v>
       </c>
+      <c r="D564" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
@@ -6295,6 +7991,9 @@
       <c r="C565" s="0">
         <v>-69.836508308681843</v>
       </c>
+      <c r="D565" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
@@ -6306,6 +8005,9 @@
       <c r="C566" s="0">
         <v>-66.122419250303182</v>
       </c>
+      <c r="D566" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
@@ -6317,6 +8019,9 @@
       <c r="C567" s="0">
         <v>-68.775877669508745</v>
       </c>
+      <c r="D567" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
@@ -6328,6 +8033,9 @@
       <c r="C568" s="0">
         <v>-66.520952498585174</v>
       </c>
+      <c r="D568" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
@@ -6339,6 +8047,9 @@
       <c r="C569" s="0">
         <v>-66.46276135423129</v>
       </c>
+      <c r="D569" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
@@ -6350,6 +8061,9 @@
       <c r="C570" s="0">
         <v>-71.457816850876284</v>
       </c>
+      <c r="D570" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
@@ -6361,6 +8075,9 @@
       <c r="C571" s="0">
         <v>-71.396891192801931</v>
       </c>
+      <c r="D571" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
@@ -6372,6 +8089,9 @@
       <c r="C572" s="0">
         <v>-73.250920167646896</v>
       </c>
+      <c r="D572" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
@@ -6383,6 +8103,9 @@
       <c r="C573" s="0">
         <v>-73.460578070177462</v>
       </c>
+      <c r="D573" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
@@ -6394,6 +8117,9 @@
       <c r="C574" s="0">
         <v>-72.300623202908952</v>
       </c>
+      <c r="D574" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
@@ -6405,6 +8131,9 @@
       <c r="C575" s="0">
         <v>-68.245789410483411</v>
       </c>
+      <c r="D575" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
@@ -6416,6 +8145,9 @@
       <c r="C576" s="0">
         <v>-72.558892021462441</v>
       </c>
+      <c r="D576" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
@@ -6427,6 +8159,9 @@
       <c r="C577" s="0">
         <v>-72.669375136030965</v>
       </c>
+      <c r="D577" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
@@ -6438,6 +8173,9 @@
       <c r="C578" s="0">
         <v>-70.567217315819946</v>
       </c>
+      <c r="D578" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
@@ -6449,6 +8187,9 @@
       <c r="C579" s="0">
         <v>-69.160119174493516</v>
       </c>
+      <c r="D579" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
@@ -6460,6 +8201,9 @@
       <c r="C580" s="0">
         <v>-72.296602610898461</v>
       </c>
+      <c r="D580" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
@@ -6471,6 +8215,9 @@
       <c r="C581" s="0">
         <v>-70.814900839667047</v>
       </c>
+      <c r="D581" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
@@ -6482,6 +8229,9 @@
       <c r="C582" s="0">
         <v>-68.36989070318576</v>
       </c>
+      <c r="D582" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
@@ -6493,6 +8243,9 @@
       <c r="C583" s="0">
         <v>-68.937137569294379</v>
       </c>
+      <c r="D583" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
@@ -6504,6 +8257,9 @@
       <c r="C584" s="0">
         <v>-68.979086976796765</v>
       </c>
+      <c r="D584" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
@@ -6515,6 +8271,9 @@
       <c r="C585" s="0">
         <v>-77.911171650628845</v>
       </c>
+      <c r="D585" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
@@ -6526,6 +8285,9 @@
       <c r="C586" s="0">
         <v>-77.501544022985399</v>
       </c>
+      <c r="D586" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
@@ -6537,6 +8299,9 @@
       <c r="C587" s="0">
         <v>-72.96378767992681</v>
       </c>
+      <c r="D587" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
@@ -6548,6 +8313,9 @@
       <c r="C588" s="0">
         <v>-71.219852934133826</v>
       </c>
+      <c r="D588" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
@@ -6559,6 +8327,9 @@
       <c r="C589" s="0">
         <v>-70.18621857426146</v>
       </c>
+      <c r="D589" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
@@ -6570,6 +8341,9 @@
       <c r="C590" s="0">
         <v>-67.883586582727901</v>
       </c>
+      <c r="D590" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
@@ -6581,6 +8355,9 @@
       <c r="C591" s="0">
         <v>-68.753127245871866</v>
       </c>
+      <c r="D591" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
@@ -6592,6 +8369,9 @@
       <c r="C592" s="0">
         <v>-68.567822229278647</v>
       </c>
+      <c r="D592" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
@@ -6603,6 +8383,9 @@
       <c r="C593" s="0">
         <v>-67.231883293125193</v>
       </c>
+      <c r="D593" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
@@ -6614,6 +8397,9 @@
       <c r="C594" s="0">
         <v>-70.228127721438923</v>
       </c>
+      <c r="D594" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
@@ -6625,6 +8411,9 @@
       <c r="C595" s="0">
         <v>-66.728305203208322</v>
       </c>
+      <c r="D595" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
@@ -6636,6 +8425,9 @@
       <c r="C596" s="0">
         <v>-68.682541038490271</v>
       </c>
+      <c r="D596" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
@@ -6647,6 +8439,9 @@
       <c r="C597" s="0">
         <v>-70.812294011281921</v>
       </c>
+      <c r="D597" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
@@ -6658,6 +8453,9 @@
       <c r="C598" s="0">
         <v>-67.832190898041929</v>
       </c>
+      <c r="D598" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
@@ -6669,6 +8467,9 @@
       <c r="C599" s="0">
         <v>-81.105587193492568</v>
       </c>
+      <c r="D599" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
@@ -6680,6 +8481,9 @@
       <c r="C600" s="0">
         <v>-69.711239414202993</v>
       </c>
+      <c r="D600" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
@@ -6691,6 +8495,9 @@
       <c r="C601" s="0">
         <v>-69.825861975891684</v>
       </c>
+      <c r="D601" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
@@ -6702,6 +8509,9 @@
       <c r="C602" s="0">
         <v>-68.708235372685067</v>
       </c>
+      <c r="D602" s="0">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
